--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O476"/>
+  <dimension ref="A1:O483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19906,6 +19906,363 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>413.76</v>
+      </c>
+      <c r="C477" t="n">
+        <v>409.2133333333333</v>
+      </c>
+      <c r="D477" t="n">
+        <v>409.1770588235294</v>
+      </c>
+      <c r="E477" t="n">
+        <v>397.2470588235294</v>
+      </c>
+      <c r="F477" t="n">
+        <v>383.75</v>
+      </c>
+      <c r="G477" t="n">
+        <v>374.3</v>
+      </c>
+      <c r="H477" t="n">
+        <v>372.95</v>
+      </c>
+      <c r="I477" t="n">
+        <v>371.32</v>
+      </c>
+      <c r="J477" t="n">
+        <v>375.47</v>
+      </c>
+      <c r="K477" t="n">
+        <v>388.8571428571428</v>
+      </c>
+      <c r="L477" t="n">
+        <v>389.6272727272727</v>
+      </c>
+      <c r="M477" t="n">
+        <v>384.56</v>
+      </c>
+      <c r="N477" t="n">
+        <v>381.7172727272728</v>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>401.25</v>
+      </c>
+      <c r="C478" t="n">
+        <v>408.2344444444445</v>
+      </c>
+      <c r="D478" t="n">
+        <v>403.5447058823529</v>
+      </c>
+      <c r="E478" t="n">
+        <v>383.6347058823529</v>
+      </c>
+      <c r="F478" t="n">
+        <v>367.3233333333333</v>
+      </c>
+      <c r="G478" t="n">
+        <v>356.2733333333333</v>
+      </c>
+      <c r="H478" t="n">
+        <v>362.9633333333333</v>
+      </c>
+      <c r="I478" t="n">
+        <v>371.93</v>
+      </c>
+      <c r="J478" t="n">
+        <v>372.9233333333333</v>
+      </c>
+      <c r="K478" t="n">
+        <v>379.9928571428572</v>
+      </c>
+      <c r="L478" t="n">
+        <v>382.2209090909091</v>
+      </c>
+      <c r="M478" t="n">
+        <v>372.8866666666667</v>
+      </c>
+      <c r="N478" t="n">
+        <v>365.1009090909091</v>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>421.01</v>
+      </c>
+      <c r="C479" t="n">
+        <v>412.18</v>
+      </c>
+      <c r="D479" t="n">
+        <v>408.4235294117647</v>
+      </c>
+      <c r="E479" t="n">
+        <v>410.7835294117647</v>
+      </c>
+      <c r="F479" t="n">
+        <v>400.89</v>
+      </c>
+      <c r="G479" t="n">
+        <v>389.65</v>
+      </c>
+      <c r="H479" t="n">
+        <v>393.38</v>
+      </c>
+      <c r="I479" t="n">
+        <v>389.2</v>
+      </c>
+      <c r="J479" t="n">
+        <v>395.7</v>
+      </c>
+      <c r="K479" t="n">
+        <v>407.34</v>
+      </c>
+      <c r="L479" t="n">
+        <v>405.6490909090909</v>
+      </c>
+      <c r="M479" t="n">
+        <v>383.77</v>
+      </c>
+      <c r="N479" t="n">
+        <v>377.8590909090909</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>402.445</v>
+      </c>
+      <c r="C480" t="n">
+        <v>402.3466666666667</v>
+      </c>
+      <c r="D480" t="n">
+        <v>405.0464705882353</v>
+      </c>
+      <c r="E480" t="n">
+        <v>393.7164705882353</v>
+      </c>
+      <c r="F480" t="n">
+        <v>377.16</v>
+      </c>
+      <c r="G480" t="n">
+        <v>369.6</v>
+      </c>
+      <c r="H480" t="n">
+        <v>369.96</v>
+      </c>
+      <c r="I480" t="n">
+        <v>370.445</v>
+      </c>
+      <c r="J480" t="n">
+        <v>378.51</v>
+      </c>
+      <c r="K480" t="n">
+        <v>395.2457142857143</v>
+      </c>
+      <c r="L480" t="n">
+        <v>389.6236363636364</v>
+      </c>
+      <c r="M480" t="n">
+        <v>385.91</v>
+      </c>
+      <c r="N480" t="n">
+        <v>385.2636363636364</v>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>404.77</v>
+      </c>
+      <c r="C481" t="n">
+        <v>400.3855555555555</v>
+      </c>
+      <c r="D481" t="n">
+        <v>404.8788235294118</v>
+      </c>
+      <c r="E481" t="n">
+        <v>392.6588235294118</v>
+      </c>
+      <c r="F481" t="n">
+        <v>377.9466666666667</v>
+      </c>
+      <c r="G481" t="n">
+        <v>375.8266666666667</v>
+      </c>
+      <c r="H481" t="n">
+        <v>375.2366666666667</v>
+      </c>
+      <c r="I481" t="n">
+        <v>381.07</v>
+      </c>
+      <c r="J481" t="n">
+        <v>382.5266666666667</v>
+      </c>
+      <c r="K481" t="n">
+        <v>397.3128571428572</v>
+      </c>
+      <c r="L481" t="n">
+        <v>395.5518181818182</v>
+      </c>
+      <c r="M481" t="n">
+        <v>389.6933333333333</v>
+      </c>
+      <c r="N481" t="n">
+        <v>387.7918181818182</v>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>427.375</v>
+      </c>
+      <c r="C482" t="n">
+        <v>416.6733333333333</v>
+      </c>
+      <c r="D482" t="n">
+        <v>419.4735294117647</v>
+      </c>
+      <c r="E482" t="n">
+        <v>410.9135294117647</v>
+      </c>
+      <c r="F482" t="n">
+        <v>403.42</v>
+      </c>
+      <c r="G482" t="n">
+        <v>408.29</v>
+      </c>
+      <c r="H482" t="n">
+        <v>400.84</v>
+      </c>
+      <c r="I482" t="n">
+        <v>405.565</v>
+      </c>
+      <c r="J482" t="n">
+        <v>402.88</v>
+      </c>
+      <c r="K482" t="n">
+        <v>422.9442857142857</v>
+      </c>
+      <c r="L482" t="n">
+        <v>423.8563636363637</v>
+      </c>
+      <c r="M482" t="n">
+        <v>407.83</v>
+      </c>
+      <c r="N482" t="n">
+        <v>410.6463636363636</v>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>409.33</v>
+      </c>
+      <c r="C483" t="n">
+        <v>391.3133333333333</v>
+      </c>
+      <c r="D483" t="n">
+        <v>390.6164705882353</v>
+      </c>
+      <c r="E483" t="n">
+        <v>390.2564705882353</v>
+      </c>
+      <c r="F483" t="n">
+        <v>388.88</v>
+      </c>
+      <c r="G483" t="n">
+        <v>388.18</v>
+      </c>
+      <c r="H483" t="n">
+        <v>374.86</v>
+      </c>
+      <c r="I483" t="n">
+        <v>369.35</v>
+      </c>
+      <c r="J483" t="n">
+        <v>381.03</v>
+      </c>
+      <c r="K483" t="n">
+        <v>400.2514285714286</v>
+      </c>
+      <c r="L483" t="n">
+        <v>399.9863636363637</v>
+      </c>
+      <c r="M483" t="n">
+        <v>392.31</v>
+      </c>
+      <c r="N483" t="n">
+        <v>383.9163636363636</v>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19917,7 +20274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24945,6 +25302,76 @@
       </c>
       <c r="B502" t="n">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -25113,28 +25540,28 @@
         <v>0.0951</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.176061036816315</v>
+        <v>-1.147928699902192</v>
       </c>
       <c r="J2" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2170306706552459</v>
+        <v>0.212971048599921</v>
       </c>
       <c r="M2" t="n">
-        <v>11.5453943544501</v>
+        <v>11.49166971896676</v>
       </c>
       <c r="N2" t="n">
-        <v>300.0723924202978</v>
+        <v>297.6416369155017</v>
       </c>
       <c r="O2" t="n">
-        <v>17.32259773880055</v>
+        <v>17.25229367114708</v>
       </c>
       <c r="P2" t="n">
-        <v>432.2249777746671</v>
+        <v>431.9705134412392</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25190,28 +25617,28 @@
         <v>0.1054</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.607899521457843</v>
+        <v>-1.523840937546731</v>
       </c>
       <c r="J3" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1552995301168956</v>
+        <v>0.1439927665407461</v>
       </c>
       <c r="M3" t="n">
-        <v>19.80027981978695</v>
+        <v>19.73306805136307</v>
       </c>
       <c r="N3" t="n">
-        <v>829.3068355398374</v>
+        <v>827.0074172448087</v>
       </c>
       <c r="O3" t="n">
-        <v>28.7976880242119</v>
+        <v>28.75773665024438</v>
       </c>
       <c r="P3" t="n">
-        <v>420.5649028799661</v>
+        <v>419.7835836486282</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25267,28 +25694,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.429255731618643</v>
+        <v>-2.222108143078918</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07203161188380569</v>
+        <v>0.06204893063126482</v>
       </c>
       <c r="M4" t="n">
-        <v>50.31419045808685</v>
+        <v>49.90181930572948</v>
       </c>
       <c r="N4" t="n">
-        <v>4420.060379127059</v>
+        <v>4407.048747251397</v>
       </c>
       <c r="O4" t="n">
-        <v>66.48353464676092</v>
+        <v>66.38560647649004</v>
       </c>
       <c r="P4" t="n">
-        <v>405.2901836231046</v>
+        <v>403.3285832452324</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25344,28 +25771,28 @@
         <v>0.192</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.223673893625656</v>
+        <v>-3.003264472300042</v>
       </c>
       <c r="J5" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K5" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1252072064036865</v>
+        <v>0.1118194474315689</v>
       </c>
       <c r="M5" t="n">
-        <v>50.08807922417587</v>
+        <v>49.7487842764951</v>
       </c>
       <c r="N5" t="n">
-        <v>4143.356872225959</v>
+        <v>4144.373990205206</v>
       </c>
       <c r="O5" t="n">
-        <v>64.36891231196904</v>
+        <v>64.37681251976682</v>
       </c>
       <c r="P5" t="n">
-        <v>413.2175611889236</v>
+        <v>411.0651814817671</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25421,28 +25848,28 @@
         <v>0.0838</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.421487443345908</v>
+        <v>-1.342071229686336</v>
       </c>
       <c r="J6" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K6" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05321288721937589</v>
+        <v>0.04951892896746868</v>
       </c>
       <c r="M6" t="n">
-        <v>22.70835378898049</v>
+        <v>22.30566186455912</v>
       </c>
       <c r="N6" t="n">
-        <v>2064.201632703512</v>
+        <v>2027.681190514053</v>
       </c>
       <c r="O6" t="n">
-        <v>45.43348580841571</v>
+        <v>45.02978115107882</v>
       </c>
       <c r="P6" t="n">
-        <v>402.5307844007615</v>
+        <v>401.7837259810486</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -25498,28 +25925,28 @@
         <v>0.0887</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8420313338535167</v>
+        <v>-0.8323174539789252</v>
       </c>
       <c r="J7" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1898005503395238</v>
+        <v>0.1882178633769439</v>
       </c>
       <c r="M7" t="n">
-        <v>10.34230100738984</v>
+        <v>10.40087093834402</v>
       </c>
       <c r="N7" t="n">
-        <v>176.5080754111197</v>
+        <v>178.2191490473366</v>
       </c>
       <c r="O7" t="n">
-        <v>13.28563417421689</v>
+        <v>13.34987449556499</v>
       </c>
       <c r="P7" t="n">
-        <v>399.5359954665306</v>
+        <v>399.4445700302797</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -25575,28 +26002,28 @@
         <v>0.0847</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9531202086416937</v>
+        <v>-0.9297193919622184</v>
       </c>
       <c r="J8" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K8" t="n">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2281197153452272</v>
+        <v>0.2231842780226917</v>
       </c>
       <c r="M8" t="n">
-        <v>10.59849550760722</v>
+        <v>10.56426467520762</v>
       </c>
       <c r="N8" t="n">
-        <v>179.4183536949997</v>
+        <v>179.4786161576478</v>
       </c>
       <c r="O8" t="n">
-        <v>13.39471364736849</v>
+        <v>13.39696294529651</v>
       </c>
       <c r="P8" t="n">
-        <v>397.5870475399889</v>
+        <v>397.3675091025543</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -25652,28 +26079,28 @@
         <v>0.0953</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.121178449842925</v>
+        <v>-1.061427998642917</v>
       </c>
       <c r="J9" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K9" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2733220133839759</v>
+        <v>0.2537955770506896</v>
       </c>
       <c r="M9" t="n">
-        <v>10.06736140086277</v>
+        <v>10.12496691407033</v>
       </c>
       <c r="N9" t="n">
-        <v>190.2566058682762</v>
+        <v>193.2639140153309</v>
       </c>
       <c r="O9" t="n">
-        <v>13.79335368459303</v>
+        <v>13.90193921779731</v>
       </c>
       <c r="P9" t="n">
-        <v>395.6912924510207</v>
+        <v>395.1266764928755</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -25729,28 +26156,28 @@
         <v>0.0854</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.03315727985909</v>
+        <v>-0.956980464191882</v>
       </c>
       <c r="J10" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K10" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2566806673757203</v>
+        <v>0.2291042918808143</v>
       </c>
       <c r="M10" t="n">
-        <v>10.34455572295025</v>
+        <v>10.43820080886186</v>
       </c>
       <c r="N10" t="n">
-        <v>178.3406886109062</v>
+        <v>182.5866930649715</v>
       </c>
       <c r="O10" t="n">
-        <v>13.35442580611035</v>
+        <v>13.5124643594339</v>
       </c>
       <c r="P10" t="n">
-        <v>394.5485037915035</v>
+        <v>393.8445455151476</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -25806,28 +26233,28 @@
         <v>0.0805</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.079039395568546</v>
+        <v>-0.9745857817441468</v>
       </c>
       <c r="J11" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K11" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1891740579419935</v>
+        <v>0.1602979388843208</v>
       </c>
       <c r="M11" t="n">
-        <v>13.67270912130631</v>
+        <v>13.8234050077277</v>
       </c>
       <c r="N11" t="n">
-        <v>289.2092854695695</v>
+        <v>296.7627429103376</v>
       </c>
       <c r="O11" t="n">
-        <v>17.00615434098989</v>
+        <v>17.22680303800846</v>
       </c>
       <c r="P11" t="n">
-        <v>405.4103767424749</v>
+        <v>404.4556263741537</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -25883,28 +26310,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.15081825219044</v>
+        <v>-1.069092882782014</v>
       </c>
       <c r="J12" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K12" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2018270455379724</v>
+        <v>0.1820556545614128</v>
       </c>
       <c r="M12" t="n">
-        <v>13.98480870867265</v>
+        <v>13.94369406691187</v>
       </c>
       <c r="N12" t="n">
-        <v>298.4825069848367</v>
+        <v>301.1683384376633</v>
       </c>
       <c r="O12" t="n">
-        <v>17.27664628869957</v>
+        <v>17.35420232789924</v>
       </c>
       <c r="P12" t="n">
-        <v>411.4708167427895</v>
+        <v>410.7089694440969</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -25960,28 +26387,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.8714799749112475</v>
+        <v>-0.8169818006636993</v>
       </c>
       <c r="J13" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K13" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1314665278031245</v>
+        <v>0.1210715799300981</v>
       </c>
       <c r="M13" t="n">
-        <v>13.19968521965727</v>
+        <v>13.10334546302751</v>
       </c>
       <c r="N13" t="n">
-        <v>290.746399602653</v>
+        <v>288.3253992209891</v>
       </c>
       <c r="O13" t="n">
-        <v>17.05128732977815</v>
+        <v>16.98014720846051</v>
       </c>
       <c r="P13" t="n">
-        <v>399.4469444854694</v>
+        <v>398.9399431937317</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -26037,28 +26464,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.012479985619863</v>
+        <v>-0.9654983095062841</v>
       </c>
       <c r="J14" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K14" t="n">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L14" t="n">
-        <v>0.174935058443346</v>
+        <v>0.1656743258948803</v>
       </c>
       <c r="M14" t="n">
-        <v>13.25237201413781</v>
+        <v>13.2035323525389</v>
       </c>
       <c r="N14" t="n">
-        <v>284.3564091974994</v>
+        <v>283.1146584595699</v>
       </c>
       <c r="O14" t="n">
-        <v>16.86287072824492</v>
+        <v>16.82601136513255</v>
       </c>
       <c r="P14" t="n">
-        <v>401.0069033436966</v>
+        <v>400.5705647624347</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -26095,7 +26522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O476"/>
+  <dimension ref="A1:O483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53091,6 +53518,545 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-40.95752564810259,172.10027141672845</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-40.95685427952609,172.10013369331804</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-40.95619124285795,172.09994351865552</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-40.95550621136541,172.09989165172638</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-40.95481827625646,172.09985800455317</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-40.95413781652117,172.09977729344723</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-40.95347232491855,172.09960239116262</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-40.952802092405314,172.09942979976225</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>-40.952129072650095,172.09923025042085</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>-40.95145963388886,172.09897629568164</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>-40.950785639964806,172.09887235039633</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>-40.95010645214729,172.09883741884107</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>-40.9494292341487,172.09877618632038</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-40.957502520241654,172.1004168951903</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-40.956852469818216,172.10014507668095</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-40.956180830170155,172.10000901585832</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-40.95548104573255,172.10004994464344</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-40.95478790760634,172.1000490220457</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-40.95410448987814,172.0999869143789</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-40.95345386230364,172.09971851880246</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>-40.952803093750106,172.09942267366864</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>-40.95212611536907,172.09926025477793</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>-40.951451757147304,172.09908109711267</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>-40.95077905877573,172.09895991409803</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>-40.95009607935024,172.09897542850197</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>-40.94941446901048,172.09897263365033</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-40.957539051454624,172.10018710662357</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-40.95685976410488,172.10009919435976</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-40.9561898497893,172.09995228125896</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-40.95553123649505,172.0997342411011</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-40.95484996333556,172.09965869188315</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-40.95416619439765,172.09959879765188</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-40.953510094033405,172.0993648254451</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-40.9528314431146,172.09922092335844</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>-40.95215256417598,172.09899190420066</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>-40.951476057317606,172.0987577749116</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>-40.95079987649568,172.09868292813908</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>-40.9501057501671,172.09884675873087</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>-40.94942580583599,172.0988217997683</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-40.95750472950574,172.1004029985709</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-40.9568415848432,172.10021354481825</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-40.956183606528064,172.09999155221965</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-40.95549968426449,172.09993270761623</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-40.95480609309233,172.09993463638824</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-40.95412912747405,172.0998319468533</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-40.95346679723878,172.09963715969153</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-40.95280065604932,172.09944002161748</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>-40.95213260279728,172.09919443369802</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>-40.951465310668965,172.09890076432163</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>-40.9507856367336,172.09887239338823</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>-40.950107651731905,172.0988214582695</t>
+        </is>
+      </c>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>-40.94943238536929,172.0987342593466</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-40.957509027859885,172.1003759612126</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-40.95683795924797,172.10023635029788</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-40.956183296594,172.09999350174462</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-40.95549772895881,172.09994500659673</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-40.95480754743328,172.09992548863391</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-40.95414063891524,172.09975954077757</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-40.95347655232316,172.09957580118018</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-40.95281809745335,172.0993158990608</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>-40.952137267064536,172.099147110062</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>-40.95146714748769,172.098876324722</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>-40.95079090438337,172.0988023058721</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>-40.950111013519,172.0987767292573</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>-40.9494346318466,172.09870436985082</t>
+        </is>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-40.95755081862219,172.10011308813873</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-40.95686807106511,172.10004694199444</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-40.95621027813319,172.0998237835609</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-40.95553147682747,172.09973272937845</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-40.954854640570495,172.09962927173598</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-40.9542006541943,172.09938204425245</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-40.953523885276105,172.09927807842655</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-40.95285830655945,172.09902974521836</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>-40.95216090163272,172.09890731069396</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>-40.95148992259265,172.09857328709379</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>-40.95081605458029,172.09846766766523</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>-40.95012712912189,172.0985623058019</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>-40.949454939454995,172.09843417130296</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-40.957517458161774,172.1003229330935</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-40.95682118695947,172.10034184983655</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-40.95615692923979,172.1001593549497</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-40.95549328764781,172.0999729426543</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-40.95482776023191,172.09979835031368</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-40.95416347678895,172.09961589139243</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-40.95347585597267,172.09958018116293</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-40.952798858551105,172.09945281353853</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>-40.952135529095024,172.09916474351715</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>-40.95146975863017,172.09884158231733</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>-40.95079484479332,172.09874987726485</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>-40.95011333862148,172.09874579333012</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>-40.949431188214234,172.09875018751293</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -25385,7 +25385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25476,35 +25476,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25563,27 +25568,28 @@
       <c r="P2" t="n">
         <v>431.9705134412392</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.1050829687199 -40.95676061137203, 172.09458949990074 -40.95842879059053)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.1050829687199</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-40.95676061137203</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.0945894999007</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-40.95842879059053</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.0998362343103</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-40.95759470098128</v>
       </c>
     </row>
@@ -25640,27 +25646,28 @@
       <c r="P3" t="n">
         <v>419.7835836486282</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.1048923258143 -40.95609765320657, 172.0943989241232 -40.95776582748282)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.1048923258143</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-40.95609765320657</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.0943989241232</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-40.95776582748282</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.0996456249687</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-40.95693174034469</v>
       </c>
     </row>
@@ -25717,27 +25724,28 @@
       <c r="P4" t="n">
         <v>403.3285832452324</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.10470168290922 -40.95543468838272, 172.09420834834464 -40.957102857717224)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.1047016829092</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-40.95543468838272</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.0942083483446</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-40.95710285771722</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.0994550156269</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-40.95626877304997</v>
       </c>
     </row>
@@ -25794,27 +25802,28 @@
       <c r="P5" t="n">
         <v>411.0651814817671</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.10451104000458 -40.954771716900595, 172.0940177725652 -40.95643988129373)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.1045110400046</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-40.95477171690059</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.0940177725652</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-40.95643988129373</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.0992644062849</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-40.95560579909716</v>
       </c>
     </row>
@@ -25871,27 +25880,28 @@
       <c r="P6" t="n">
         <v>401.7837259810486</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.10432039710042 -40.95410873876034, 172.0938271967848 -40.95577689821212)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.1043203971004</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-40.95410873876034</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.0938271967848</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-40.95577689821212</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.0990737969426</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-40.95494281848623</v>
       </c>
     </row>
@@ -25948,27 +25958,28 @@
       <c r="P7" t="n">
         <v>399.4445700302797</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.1041297541968 -40.95344575396185, 172.09363662100338 -40.95511390847257)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.1041297541968</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-40.95344575396185</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.0936366210034</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-40.95511390847257</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.0988831876001</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-40.95427983121721</v>
       </c>
     </row>
@@ -26025,27 +26036,28 @@
       <c r="P8" t="n">
         <v>397.3675091025543</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.10393911129358 -40.95278276250508, 172.09344604522119 -40.95445091207534)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.1039391112936</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-40.95278276250508</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.0934460452212</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-40.95445091207534</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.0986925782574</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-40.95361683729021</v>
       </c>
     </row>
@@ -26102,27 +26114,28 @@
       <c r="P9" t="n">
         <v>395.1266764928755</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.1037675662681 -40.9521924703053, 172.0932257543303 -40.95367369407604)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.1037675662681</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-40.9521924703053</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.0932257543303</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-40.95367369407604</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.0984966602992</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-40.95293308219067</v>
       </c>
     </row>
@@ -26179,27 +26192,28 @@
       <c r="P10" t="n">
         <v>393.8445455151476</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.10365394131782 -40.951692978754764, 172.09302191143192 -40.95274080322692)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.1036539413178</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-40.95169297875476</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.0930219114319</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-40.95274080322692</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.0983379263749</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-40.95221689099084</v>
       </c>
     </row>
@@ -26256,27 +26270,28 @@
       <c r="P11" t="n">
         <v>404.4556263741537</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.10357368715756 -40.9511140083516, 172.0929044715926 -40.951915818331656)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.1035736871576</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-40.9511140083516</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.0929044715926</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-40.95191581833166</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.0982390793751</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-40.95151491334163</v>
       </c>
     </row>
@@ -26333,27 +26348,28 @@
       <c r="P12" t="n">
         <v>410.7089694440969</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.10347880034257 -40.9504393321927, 172.09280965648492 -40.95124114006866)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.1034788003426</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-40.9504393321927</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.0928096564849</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-40.95124114006866</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.0981442284137</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-40.95084023613068</v>
       </c>
     </row>
@@ -26410,27 +26426,28 @@
       <c r="P13" t="n">
         <v>398.9399431937317</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.10338391352815 -40.94976464913963, 172.09271484137616 -40.95056645491149)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.1033839135281</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-40.94976464913963</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.0927148413762</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-40.95056645491149</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.0980493774522</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-40.95016555202556</v>
       </c>
     </row>
@@ -26487,27 +26504,28 @@
       <c r="P14" t="n">
         <v>400.5705647624347</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.10328902671432 -40.949089959192385, 172.09262002626622 -40.949891762860304)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.1032890267143</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-40.94908995919238</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.0926200262662</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-40.9498917628603</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.0979545264903</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-40.94949086102635</v>
       </c>
     </row>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O483"/>
+  <dimension ref="A1:O489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20263,6 +20263,272 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>397.52</v>
+      </c>
+      <c r="C484" t="n">
+        <v>401.3844444444445</v>
+      </c>
+      <c r="D484" t="n">
+        <v>396.0805882352942</v>
+      </c>
+      <c r="E484" t="n">
+        <v>388.9905882352941</v>
+      </c>
+      <c r="F484" t="n">
+        <v>381.2333333333333</v>
+      </c>
+      <c r="G484" t="n">
+        <v>373.1633333333334</v>
+      </c>
+      <c r="H484" t="n">
+        <v>377.4533333333334</v>
+      </c>
+      <c r="I484" t="n">
+        <v>369.94</v>
+      </c>
+      <c r="J484" t="n">
+        <v>359.5933333333334</v>
+      </c>
+      <c r="K484" t="n">
+        <v>372.3414285714285</v>
+      </c>
+      <c r="L484" t="n">
+        <v>382.7672727272728</v>
+      </c>
+      <c r="M484" t="n">
+        <v>387.8366666666667</v>
+      </c>
+      <c r="N484" t="n">
+        <v>387.2672727272728</v>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>402.61</v>
+      </c>
+      <c r="C485" t="n">
+        <v>405.6733333333333</v>
+      </c>
+      <c r="D485" t="n">
+        <v>392.1294117647059</v>
+      </c>
+      <c r="E485" t="n">
+        <v>392.7994117647058</v>
+      </c>
+      <c r="F485" t="n">
+        <v>387.21</v>
+      </c>
+      <c r="G485" t="n">
+        <v>386.33</v>
+      </c>
+      <c r="H485" t="n">
+        <v>384.57</v>
+      </c>
+      <c r="I485" t="n">
+        <v>382.74</v>
+      </c>
+      <c r="J485" t="n">
+        <v>379.71</v>
+      </c>
+      <c r="K485" t="n">
+        <v>393.2757142857143</v>
+      </c>
+      <c r="L485" t="n">
+        <v>408.5745454545454</v>
+      </c>
+      <c r="M485" t="n">
+        <v>402.21</v>
+      </c>
+      <c r="N485" t="n">
+        <v>396.1645454545454</v>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>404.3</v>
+      </c>
+      <c r="C486" t="n">
+        <v>409.0466666666667</v>
+      </c>
+      <c r="D486" t="n">
+        <v>399.5541176470588</v>
+      </c>
+      <c r="E486" t="n">
+        <v>396.7241176470589</v>
+      </c>
+      <c r="F486" t="n">
+        <v>393.55</v>
+      </c>
+      <c r="G486" t="n">
+        <v>393.58</v>
+      </c>
+      <c r="H486" t="n">
+        <v>390.64</v>
+      </c>
+      <c r="I486" t="n">
+        <v>380.92</v>
+      </c>
+      <c r="J486" t="n">
+        <v>359.17</v>
+      </c>
+      <c r="K486" t="n">
+        <v>388.7242857142857</v>
+      </c>
+      <c r="L486" t="n">
+        <v>412.1045454545454</v>
+      </c>
+      <c r="M486" t="n">
+        <v>406.34</v>
+      </c>
+      <c r="N486" t="n">
+        <v>391.1845454545455</v>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>403.015</v>
+      </c>
+      <c r="C487" t="n">
+        <v>402.91</v>
+      </c>
+      <c r="D487" t="n">
+        <v>391.1447058823529</v>
+      </c>
+      <c r="E487" t="n">
+        <v>398.4347058823529</v>
+      </c>
+      <c r="F487" t="n">
+        <v>397.56</v>
+      </c>
+      <c r="G487" t="n">
+        <v>395.14</v>
+      </c>
+      <c r="H487" t="n">
+        <v>367.77</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
+      <c r="M487" t="inlineStr"/>
+      <c r="N487" t="inlineStr"/>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>404.66</v>
+      </c>
+      <c r="C488" t="n">
+        <v>405.4411111111111</v>
+      </c>
+      <c r="D488" t="n">
+        <v>386.31</v>
+      </c>
+      <c r="E488" t="n">
+        <v>394.94</v>
+      </c>
+      <c r="F488" t="n">
+        <v>392.5233333333333</v>
+      </c>
+      <c r="G488" t="n">
+        <v>389.5533333333333</v>
+      </c>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:12:44+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="n">
+        <v>539.2266666666666</v>
+      </c>
+      <c r="I489" t="n">
+        <v>584.885</v>
+      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>379.2885714285715</v>
+      </c>
+      <c r="L489" t="n">
+        <v>385.8563636363637</v>
+      </c>
+      <c r="M489" t="n">
+        <v>383.2533333333333</v>
+      </c>
+      <c r="N489" t="n">
+        <v>390.3463636363636</v>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20274,7 +20540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25372,6 +25638,66 @@
       </c>
       <c r="B509" t="n">
         <v>-0.24</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -25545,28 +25871,28 @@
         <v>0.0951</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.147928699902192</v>
+        <v>-1.148223112596676</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K2" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L2" t="n">
-        <v>0.212971048599921</v>
+        <v>0.2170159352375095</v>
       </c>
       <c r="M2" t="n">
-        <v>11.49166971896676</v>
+        <v>11.37215406672564</v>
       </c>
       <c r="N2" t="n">
-        <v>297.6416369155017</v>
+        <v>294.0141311694098</v>
       </c>
       <c r="O2" t="n">
-        <v>17.25229367114708</v>
+        <v>17.1468402677989</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9705134412392</v>
+        <v>431.9731486488899</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25623,28 +25949,28 @@
         <v>0.1054</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.523840937546731</v>
+        <v>-1.469324389382672</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K3" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1439927665407461</v>
+        <v>0.1369986841031559</v>
       </c>
       <c r="M3" t="n">
-        <v>19.73306805136307</v>
+        <v>19.67492994444322</v>
       </c>
       <c r="N3" t="n">
-        <v>827.0074172448087</v>
+        <v>823.6076127339079</v>
       </c>
       <c r="O3" t="n">
-        <v>28.75773665024438</v>
+        <v>28.69856464588269</v>
       </c>
       <c r="P3" t="n">
-        <v>419.7835836486282</v>
+        <v>419.2711243346905</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25701,28 +26027,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.222108143078918</v>
+        <v>-2.113650465453319</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06204893063126482</v>
+        <v>0.05742429198080323</v>
       </c>
       <c r="M4" t="n">
-        <v>49.90181930572948</v>
+        <v>49.52082813760901</v>
       </c>
       <c r="N4" t="n">
-        <v>4407.048747251397</v>
+        <v>4375.813332947745</v>
       </c>
       <c r="O4" t="n">
-        <v>66.38560647649004</v>
+        <v>66.14993071007517</v>
       </c>
       <c r="P4" t="n">
-        <v>403.3285832452324</v>
+        <v>402.2902360276382</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25779,28 +26105,28 @@
         <v>0.192</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.003264472300042</v>
+        <v>-2.861789912841914</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K5" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1118194474315689</v>
+        <v>0.1036545802751562</v>
       </c>
       <c r="M5" t="n">
-        <v>49.7487842764951</v>
+        <v>49.46012178046257</v>
       </c>
       <c r="N5" t="n">
-        <v>4144.373990205206</v>
+        <v>4135.428387556188</v>
       </c>
       <c r="O5" t="n">
-        <v>64.37681251976682</v>
+        <v>64.30729653434506</v>
       </c>
       <c r="P5" t="n">
-        <v>411.0651814817671</v>
+        <v>409.6678844643515</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25857,28 +26183,28 @@
         <v>0.0838</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.342071229686336</v>
+        <v>-1.276277748677296</v>
       </c>
       <c r="J6" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K6" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04951892896746868</v>
+        <v>0.0461392300668706</v>
       </c>
       <c r="M6" t="n">
-        <v>22.30566186455912</v>
+        <v>22.05893772277998</v>
       </c>
       <c r="N6" t="n">
-        <v>2027.681190514053</v>
+        <v>2003.332581409603</v>
       </c>
       <c r="O6" t="n">
-        <v>45.02978115107882</v>
+        <v>44.75860343453092</v>
       </c>
       <c r="P6" t="n">
-        <v>401.7837259810486</v>
+        <v>401.1586644965626</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25935,28 +26261,28 @@
         <v>0.0887</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8323174539789252</v>
+        <v>-0.8039300871197286</v>
       </c>
       <c r="J7" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K7" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1882178633769439</v>
+        <v>0.180493886722444</v>
       </c>
       <c r="M7" t="n">
-        <v>10.40087093834402</v>
+        <v>10.41920703189507</v>
       </c>
       <c r="N7" t="n">
-        <v>178.2191490473366</v>
+        <v>177.660311355188</v>
       </c>
       <c r="O7" t="n">
-        <v>13.34987449556499</v>
+        <v>13.32892761459781</v>
       </c>
       <c r="P7" t="n">
-        <v>399.4445700302797</v>
+        <v>399.1781040627343</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26013,28 +26339,28 @@
         <v>0.0847</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9297193919622184</v>
+        <v>-0.8114028640623865</v>
       </c>
       <c r="J8" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K8" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2231842780226917</v>
+        <v>0.1262550728110557</v>
       </c>
       <c r="M8" t="n">
-        <v>10.56426467520762</v>
+        <v>11.14968372244637</v>
       </c>
       <c r="N8" t="n">
-        <v>179.4786161576478</v>
+        <v>275.7540131275319</v>
       </c>
       <c r="O8" t="n">
-        <v>13.39696294529651</v>
+        <v>16.60584274066004</v>
       </c>
       <c r="P8" t="n">
-        <v>397.3675091025543</v>
+        <v>396.2446034578846</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26091,28 +26417,28 @@
         <v>0.0953</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.061427998642917</v>
+        <v>-0.8985445089275398</v>
       </c>
       <c r="J9" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K9" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2537955770506896</v>
+        <v>0.1155836860368402</v>
       </c>
       <c r="M9" t="n">
-        <v>10.12496691407033</v>
+        <v>10.92621074114703</v>
       </c>
       <c r="N9" t="n">
-        <v>193.2639140153309</v>
+        <v>365.1781982791522</v>
       </c>
       <c r="O9" t="n">
-        <v>13.90193921779731</v>
+        <v>19.10963626757852</v>
       </c>
       <c r="P9" t="n">
-        <v>395.1266764928755</v>
+        <v>393.5671873228354</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26169,28 +26495,28 @@
         <v>0.0854</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.956980464191882</v>
+        <v>-0.9634047395384318</v>
       </c>
       <c r="J10" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K10" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2291042918808143</v>
+        <v>0.2342693203709879</v>
       </c>
       <c r="M10" t="n">
-        <v>10.43820080886186</v>
+        <v>10.43811231080287</v>
       </c>
       <c r="N10" t="n">
-        <v>182.5866930649715</v>
+        <v>181.6717461854884</v>
       </c>
       <c r="O10" t="n">
-        <v>13.5124643594339</v>
+        <v>13.47856617691542</v>
       </c>
       <c r="P10" t="n">
-        <v>393.8445455151476</v>
+        <v>393.9043688695119</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26247,28 +26573,28 @@
         <v>0.0805</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9745857817441468</v>
+        <v>-0.9637228814415562</v>
       </c>
       <c r="J11" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K11" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1602979388843208</v>
+        <v>0.1608500870578841</v>
       </c>
       <c r="M11" t="n">
-        <v>13.8234050077277</v>
+        <v>13.72198339116951</v>
       </c>
       <c r="N11" t="n">
-        <v>296.7627429103376</v>
+        <v>293.4029288100791</v>
       </c>
       <c r="O11" t="n">
-        <v>17.22680303800846</v>
+        <v>17.12900840124959</v>
       </c>
       <c r="P11" t="n">
-        <v>404.4556263741537</v>
+        <v>404.3554617789841</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26325,28 +26651,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.069092882782014</v>
+        <v>-1.029224726302982</v>
       </c>
       <c r="J12" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K12" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1820556545614128</v>
+        <v>0.1727148873233655</v>
       </c>
       <c r="M12" t="n">
-        <v>13.94369406691187</v>
+        <v>13.91068923154932</v>
       </c>
       <c r="N12" t="n">
-        <v>301.1683384376633</v>
+        <v>302.0928939875009</v>
       </c>
       <c r="O12" t="n">
-        <v>17.35420232789924</v>
+        <v>17.38081971563772</v>
       </c>
       <c r="P12" t="n">
-        <v>410.7089694440969</v>
+        <v>410.3342700949664</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26403,28 +26729,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.8169818006636993</v>
+        <v>-0.7700590975316791</v>
       </c>
       <c r="J13" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K13" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1210715799300981</v>
+        <v>0.1099805133425765</v>
       </c>
       <c r="M13" t="n">
-        <v>13.10334546302751</v>
+        <v>13.1068452799503</v>
       </c>
       <c r="N13" t="n">
-        <v>288.3253992209891</v>
+        <v>289.5514384517315</v>
       </c>
       <c r="O13" t="n">
-        <v>16.98014720846051</v>
+        <v>17.01621104863628</v>
       </c>
       <c r="P13" t="n">
-        <v>398.9399431937317</v>
+        <v>398.4999222812473</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26481,28 +26807,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9654983095062841</v>
+        <v>-0.9226988364570874</v>
       </c>
       <c r="J14" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K14" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1656743258948803</v>
+        <v>0.1555837930272789</v>
       </c>
       <c r="M14" t="n">
-        <v>13.2035323525389</v>
+        <v>13.21354931559921</v>
       </c>
       <c r="N14" t="n">
-        <v>283.1146584595699</v>
+        <v>282.35742509315</v>
       </c>
       <c r="O14" t="n">
-        <v>16.82601136513255</v>
+        <v>16.80349443101494</v>
       </c>
       <c r="P14" t="n">
-        <v>400.5705647624347</v>
+        <v>400.1696434546329</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26540,7 +26866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O483"/>
+  <dimension ref="A1:O489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54075,6 +54401,388 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-40.95749562436888,172.10046027124343</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-40.95683980593982,172.10022473436265</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-40.95616703099023,172.10009581415719</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-40.955490947365625,172.09998766312196</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-40.95481362361259,172.09988726962237</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-40.95413571512989,172.09979051104528</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-40.95348065031153,172.09955002517367</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-40.9527998270663,172.099445921088</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-40.95211063596527,172.09941730633872</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>-40.9514449580652,172.09917155905447</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>-40.950779544268926,172.09895345456934</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>-40.95010936372787,172.09879867997128</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>-40.94943416574963,172.09871057130337</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-40.95750503455043,172.10040107979074</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-40.95684773499263,172.1001748594835</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-40.95615972628305,172.10014176135505</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-40.95549798886882,172.09994337174896</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-40.9548246728593,172.0998177699217</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-40.954160056665536,172.09963740392115</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-40.95349380697185,172.09946727060557</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-40.95282083881946,172.09929638990968</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-40.95213399627336,172.09918029551696</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>-40.95146356016447,172.0989240554109</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>-40.9508024759375,172.09864834115723</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>-40.95012213543069,172.09862874910317</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>-40.94944207158114,172.0986053830499</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-40.957508158945814,172.1003814268294</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-40.956853971403376,172.1001356314616</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-40.956173452635845,172.10005542138396</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-40.95550524458981,172.0998977328142</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-40.954836393765376,172.09974404517288</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-40.95417345982881,172.09955309805312</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-40.95350502860068,172.0993966869418</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-40.95281785122271,172.0993176513797</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-40.95211014436778,172.09942229397154</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>-40.95145951583365,172.09897786643654</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>-40.95080561254034,172.09860660676895</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>-40.950125805175475,172.0985799215535</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>-40.94943764652455,172.09866425924082</t>
+        </is>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-40.95750578329638,172.10039637005755</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-40.95684262630229,172.1002069938953</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-40.95615790581273,172.1001532122407</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-40.955508406999684,172.09987784102125</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-40.95484380712154,172.09969741483758</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-40.954176343811696,172.09953495775167</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-40.953462748530185,172.09966262560044</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
+      <c r="M487" t="inlineStr"/>
+      <c r="N487" t="inlineStr"/>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-40.95750882449705,172.1003772403995</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-40.95684730567401,172.10017755996302</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-40.95614896765666,172.1002094337547</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-40.955501946240474,172.0999184796513</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-40.95483449574594,172.09975598377744</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-40.95416601568877,172.09959992173012</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:12:44+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-40.95377970769616,172.09766887225322</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-40.95315264271395,172.0969348949708</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>-40.9514511313199,172.09908942380073</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>-40.95078228919711,172.09891693297288</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>-40.950105291065725,172.09885286709752</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>-40.94943690174206,172.0986741686684</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O489"/>
+  <dimension ref="A1:O492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20504,12 +20504,8 @@
       <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr"/>
-      <c r="H489" t="n">
-        <v>539.2266666666666</v>
-      </c>
-      <c r="I489" t="n">
-        <v>584.885</v>
-      </c>
+      <c r="H489" t="inlineStr"/>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
         <v>379.2885714285715</v>
@@ -20526,6 +20522,113 @@
       <c r="O489" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:24+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>407.61</v>
+      </c>
+      <c r="C490" t="n">
+        <v>379.4344444444445</v>
+      </c>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr"/>
+      <c r="N490" t="inlineStr"/>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:58+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>410.21</v>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr"/>
+      <c r="N491" t="inlineStr"/>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>406.465</v>
+      </c>
+      <c r="C492" t="n">
+        <v>384.1511111111111</v>
+      </c>
+      <c r="D492" t="n">
+        <v>367.9270588235294</v>
+      </c>
+      <c r="E492" t="n">
+        <v>358.4370588235294</v>
+      </c>
+      <c r="F492" t="n">
+        <v>358.1033333333333</v>
+      </c>
+      <c r="G492" t="n">
+        <v>357.1033333333333</v>
+      </c>
+      <c r="H492" t="n">
+        <v>365.8433333333334</v>
+      </c>
+      <c r="I492" t="n">
+        <v>367.645</v>
+      </c>
+      <c r="J492" t="n">
+        <v>370.4433333333334</v>
+      </c>
+      <c r="K492" t="n">
+        <v>370.9171428571429</v>
+      </c>
+      <c r="L492" t="n">
+        <v>385.7509090909091</v>
+      </c>
+      <c r="M492" t="n">
+        <v>393.3466666666667</v>
+      </c>
+      <c r="N492" t="n">
+        <v>425.8809090909091</v>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -20540,7 +20643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B515"/>
+  <dimension ref="A1:B518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25698,6 +25801,36 @@
       </c>
       <c r="B515" t="n">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -25871,28 +26004,28 @@
         <v>0.0951</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.148223112596676</v>
+        <v>-1.140938535185284</v>
       </c>
       <c r="J2" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K2" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2170159352375095</v>
+        <v>0.2170864348262329</v>
       </c>
       <c r="M2" t="n">
-        <v>11.37215406672564</v>
+        <v>11.32526767387747</v>
       </c>
       <c r="N2" t="n">
-        <v>294.0141311694098</v>
+        <v>292.0830590578032</v>
       </c>
       <c r="O2" t="n">
-        <v>17.1468402677989</v>
+        <v>17.09043764968596</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9731486488899</v>
+        <v>431.9061465193651</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25949,28 +26082,28 @@
         <v>0.1054</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.469324389382672</v>
+        <v>-1.469013943332752</v>
       </c>
       <c r="J3" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K3" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1369986841031559</v>
+        <v>0.1380716115853841</v>
       </c>
       <c r="M3" t="n">
-        <v>19.67492994444322</v>
+        <v>19.58382366694209</v>
       </c>
       <c r="N3" t="n">
-        <v>823.6076127339079</v>
+        <v>819.326046071244</v>
       </c>
       <c r="O3" t="n">
-        <v>28.69856464588269</v>
+        <v>28.62387196155063</v>
       </c>
       <c r="P3" t="n">
-        <v>419.2711243346905</v>
+        <v>419.2681593848305</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26027,28 +26160,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.113650465453319</v>
+        <v>-2.104249954311114</v>
       </c>
       <c r="J4" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K4" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05742429198080323</v>
+        <v>0.05719097042314747</v>
       </c>
       <c r="M4" t="n">
-        <v>49.52082813760901</v>
+        <v>49.41210477728686</v>
       </c>
       <c r="N4" t="n">
-        <v>4375.813332947745</v>
+        <v>4365.010529744396</v>
       </c>
       <c r="O4" t="n">
-        <v>66.14993071007517</v>
+        <v>66.06822632509818</v>
       </c>
       <c r="P4" t="n">
-        <v>402.2902360276382</v>
+        <v>402.1994745697962</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26105,28 +26238,28 @@
         <v>0.192</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.861789912841914</v>
+        <v>-2.851156971900382</v>
       </c>
       <c r="J5" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K5" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1036545802751562</v>
+        <v>0.1033675382343748</v>
       </c>
       <c r="M5" t="n">
-        <v>49.46012178046257</v>
+        <v>49.35202399876038</v>
       </c>
       <c r="N5" t="n">
-        <v>4135.428387556188</v>
+        <v>4125.250795687146</v>
       </c>
       <c r="O5" t="n">
-        <v>64.30729653434506</v>
+        <v>64.22811530542637</v>
       </c>
       <c r="P5" t="n">
-        <v>409.6678844643515</v>
+        <v>409.5619659261318</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26183,28 +26316,28 @@
         <v>0.0838</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.276277748677296</v>
+        <v>-1.282118354677024</v>
       </c>
       <c r="J6" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K6" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0461392300668706</v>
+        <v>0.04680539958509811</v>
       </c>
       <c r="M6" t="n">
-        <v>22.05893772277998</v>
+        <v>22.04236225790553</v>
       </c>
       <c r="N6" t="n">
-        <v>2003.332581409603</v>
+        <v>1997.141356664249</v>
       </c>
       <c r="O6" t="n">
-        <v>44.75860343453092</v>
+        <v>44.68938751721989</v>
       </c>
       <c r="P6" t="n">
-        <v>401.1586644965626</v>
+        <v>401.2145830780343</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26261,28 +26394,28 @@
         <v>0.0887</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8039300871197286</v>
+        <v>-0.8168174478562156</v>
       </c>
       <c r="J7" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K7" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L7" t="n">
-        <v>0.180493886722444</v>
+        <v>0.1848815222256007</v>
       </c>
       <c r="M7" t="n">
-        <v>10.41920703189507</v>
+        <v>10.4562881898511</v>
       </c>
       <c r="N7" t="n">
-        <v>177.660311355188</v>
+        <v>178.6128155916585</v>
       </c>
       <c r="O7" t="n">
-        <v>13.32892761459781</v>
+        <v>13.36461056640479</v>
       </c>
       <c r="P7" t="n">
-        <v>399.1781040627343</v>
+        <v>399.2999628370042</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26339,28 +26472,28 @@
         <v>0.0847</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.8114028640623865</v>
+        <v>-0.9184073006584483</v>
       </c>
       <c r="J8" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K8" t="n">
         <v>277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1262550728110557</v>
+        <v>0.2227911065565031</v>
       </c>
       <c r="M8" t="n">
-        <v>11.14968372244637</v>
+        <v>10.53595675085417</v>
       </c>
       <c r="N8" t="n">
-        <v>275.7540131275319</v>
+        <v>178.0979167843555</v>
       </c>
       <c r="O8" t="n">
-        <v>16.60584274066004</v>
+        <v>13.34533314624837</v>
       </c>
       <c r="P8" t="n">
-        <v>396.2446034578846</v>
+        <v>397.261162774064</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26417,28 +26550,28 @@
         <v>0.0953</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.8985445089275398</v>
+        <v>-1.042044989169371</v>
       </c>
       <c r="J9" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K9" t="n">
         <v>268</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1155836860368402</v>
+        <v>0.2507520654007163</v>
       </c>
       <c r="M9" t="n">
-        <v>10.92621074114703</v>
+        <v>10.0837504965826</v>
       </c>
       <c r="N9" t="n">
-        <v>365.1781982791522</v>
+        <v>191.8038192756458</v>
       </c>
       <c r="O9" t="n">
-        <v>19.10963626757852</v>
+        <v>13.84932558919913</v>
       </c>
       <c r="P9" t="n">
-        <v>393.5671873228354</v>
+        <v>394.9419534858687</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26495,28 +26628,28 @@
         <v>0.0854</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9634047395384318</v>
+        <v>-0.9624892028912657</v>
       </c>
       <c r="J10" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K10" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2342693203709879</v>
+        <v>0.2352384868936851</v>
       </c>
       <c r="M10" t="n">
-        <v>10.43811231080287</v>
+        <v>10.40334171130068</v>
       </c>
       <c r="N10" t="n">
-        <v>181.6717461854884</v>
+        <v>180.9956129124351</v>
       </c>
       <c r="O10" t="n">
-        <v>13.47856617691542</v>
+        <v>13.45346100126043</v>
       </c>
       <c r="P10" t="n">
-        <v>393.9043688695119</v>
+        <v>393.8957612574339</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26573,28 +26706,28 @@
         <v>0.0805</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9637228814415562</v>
+        <v>-0.969696065169328</v>
       </c>
       <c r="J11" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K11" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1608500870578841</v>
+        <v>0.1634294240341635</v>
       </c>
       <c r="M11" t="n">
-        <v>13.72198339116951</v>
+        <v>13.7040661062538</v>
       </c>
       <c r="N11" t="n">
-        <v>293.4029288100791</v>
+        <v>292.5499189135867</v>
       </c>
       <c r="O11" t="n">
-        <v>17.12900840124959</v>
+        <v>17.10409070700886</v>
       </c>
       <c r="P11" t="n">
-        <v>404.3554617789841</v>
+        <v>404.4109895597201</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26651,28 +26784,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.029224726302982</v>
+        <v>-1.027848421523368</v>
       </c>
       <c r="J12" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K12" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1727148873233655</v>
+        <v>0.1734252119902401</v>
       </c>
       <c r="M12" t="n">
-        <v>13.91068923154932</v>
+        <v>13.86171099817803</v>
       </c>
       <c r="N12" t="n">
-        <v>302.0928939875009</v>
+        <v>300.9040033163544</v>
       </c>
       <c r="O12" t="n">
-        <v>17.38081971563772</v>
+        <v>17.34658477384971</v>
       </c>
       <c r="P12" t="n">
-        <v>410.3342700949664</v>
+        <v>410.321226698974</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26729,28 +26862,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7700590975316791</v>
+        <v>-0.7598395016257076</v>
       </c>
       <c r="J13" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1099805133425765</v>
+        <v>0.1078221238203848</v>
       </c>
       <c r="M13" t="n">
-        <v>13.1068452799503</v>
+        <v>13.10122683791075</v>
       </c>
       <c r="N13" t="n">
-        <v>289.5514384517315</v>
+        <v>289.2471216192566</v>
       </c>
       <c r="O13" t="n">
-        <v>17.01621104863628</v>
+        <v>17.00726672982042</v>
       </c>
       <c r="P13" t="n">
-        <v>398.4999222812473</v>
+        <v>398.4032519303539</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26807,28 +26940,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9226988364570874</v>
+        <v>-0.8882786780048582</v>
       </c>
       <c r="J14" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K14" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1555837930272789</v>
+        <v>0.142497271631653</v>
       </c>
       <c r="M14" t="n">
-        <v>13.21354931559921</v>
+        <v>13.34203082023368</v>
       </c>
       <c r="N14" t="n">
-        <v>282.35742509315</v>
+        <v>291.0846260824046</v>
       </c>
       <c r="O14" t="n">
-        <v>16.80349443101494</v>
+        <v>17.06120236332729</v>
       </c>
       <c r="P14" t="n">
-        <v>400.1696434546329</v>
+        <v>399.8445514091825</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26866,7 +26999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O489"/>
+  <dimension ref="A1:O492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54746,16 +54879,8 @@
       <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr"/>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>-40.95377970769616,172.09766887225322</t>
-        </is>
-      </c>
-      <c r="I489" t="inlineStr">
-        <is>
-          <t>-40.95315264271395,172.0969348949708</t>
-        </is>
-      </c>
+      <c r="H489" t="inlineStr"/>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -54780,6 +54905,145 @@
       <c r="O489" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:24+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-40.957514278313944,172.10034293492942</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-40.956799225693594,172.1004799876111</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr"/>
+      <c r="N490" t="inlineStr"/>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:58+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-40.95751908505931,172.10031269959535</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr"/>
+      <c r="N491" t="inlineStr"/>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-40.957512161494705,172.10035625010406</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-40.95680794571854,172.10042513822944</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-40.95611498196665,172.10042320397383</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-40.955434461384186,172.10034295826782</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-40.95477086207589,172.10015623674093</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-40.95410602434183,172.0999772628279</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>-40.953459186647926,172.09968502939606</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-40.952796059704006,172.09947273155132</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>-40.952123235496245,172.09928947367825</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>-40.95144369243284,172.0991883982154</t>
+        </is>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>-40.95078219549169,172.09891817973727</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>-40.95011425977443,172.09873353718513</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>-40.949468475892274,172.09825406034756</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20643,7 +20643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B518"/>
+  <dimension ref="A1:B519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25831,6 +25831,16 @@
       </c>
       <c r="B518" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O492"/>
+  <dimension ref="A1:O494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20632,6 +20632,68 @@
         </is>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>293.085</v>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="n">
+        <v>227.5111764705883</v>
+      </c>
+      <c r="E493" t="n">
+        <v>221.4711764705882</v>
+      </c>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr"/>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr"/>
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>282.995</v>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="n">
+        <v>214.1464705882353</v>
+      </c>
+      <c r="E494" t="n">
+        <v>212.5064705882353</v>
+      </c>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr"/>
+      <c r="N494" t="inlineStr"/>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20643,7 +20705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:B520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25841,6 +25903,16 @@
       </c>
       <c r="B519" t="n">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -26014,28 +26086,28 @@
         <v>0.0951</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.140938535185284</v>
+        <v>-1.238326220982251</v>
       </c>
       <c r="J2" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K2" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2170864348262329</v>
+        <v>0.2128692601451471</v>
       </c>
       <c r="M2" t="n">
-        <v>11.32526767387747</v>
+        <v>11.91178574263857</v>
       </c>
       <c r="N2" t="n">
-        <v>292.0830590578032</v>
+        <v>354.3164373770681</v>
       </c>
       <c r="O2" t="n">
-        <v>17.09043764968596</v>
+        <v>18.82329507225204</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9061465193651</v>
+        <v>432.8070406595177</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26095,7 +26167,7 @@
         <v>-1.469013943332752</v>
       </c>
       <c r="J3" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K3" t="n">
         <v>382</v>
@@ -26170,28 +26242,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.104249954311114</v>
+        <v>-2.222214199509441</v>
       </c>
       <c r="J4" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K4" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05719097042314747</v>
+        <v>0.06277661461239203</v>
       </c>
       <c r="M4" t="n">
-        <v>49.41210477728686</v>
+        <v>50.18092783930658</v>
       </c>
       <c r="N4" t="n">
-        <v>4365.010529744396</v>
+        <v>4427.540571005103</v>
       </c>
       <c r="O4" t="n">
-        <v>66.06822632509818</v>
+        <v>66.53976683912488</v>
       </c>
       <c r="P4" t="n">
-        <v>402.1994745697962</v>
+        <v>403.3434172700997</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26248,28 +26320,28 @@
         <v>0.192</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.851156971900382</v>
+        <v>-2.962773478448949</v>
       </c>
       <c r="J5" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K5" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1033675382343748</v>
+        <v>0.1097851709893594</v>
       </c>
       <c r="M5" t="n">
-        <v>49.35202399876038</v>
+        <v>50.06853545886757</v>
       </c>
       <c r="N5" t="n">
-        <v>4125.250795687146</v>
+        <v>4179.982963461923</v>
       </c>
       <c r="O5" t="n">
-        <v>64.22811530542637</v>
+        <v>64.65278774702544</v>
       </c>
       <c r="P5" t="n">
-        <v>409.5619659261318</v>
+        <v>410.67884621578</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26329,7 +26401,7 @@
         <v>-1.282118354677024</v>
       </c>
       <c r="J6" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K6" t="n">
         <v>307</v>
@@ -26407,7 +26479,7 @@
         <v>-0.8168174478562156</v>
       </c>
       <c r="J7" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K7" t="n">
         <v>288</v>
@@ -26485,7 +26557,7 @@
         <v>-0.9184073006584483</v>
       </c>
       <c r="J8" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K8" t="n">
         <v>277</v>
@@ -26563,7 +26635,7 @@
         <v>-1.042044989169371</v>
       </c>
       <c r="J9" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K9" t="n">
         <v>268</v>
@@ -26641,7 +26713,7 @@
         <v>-0.9624892028912657</v>
       </c>
       <c r="J10" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K10" t="n">
         <v>266</v>
@@ -26719,7 +26791,7 @@
         <v>-0.969696065169328</v>
       </c>
       <c r="J11" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K11" t="n">
         <v>258</v>
@@ -26797,7 +26869,7 @@
         <v>-1.027848421523368</v>
       </c>
       <c r="J12" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K12" t="n">
         <v>251</v>
@@ -26875,7 +26947,7 @@
         <v>-0.7598395016257076</v>
       </c>
       <c r="J13" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K13" t="n">
         <v>251</v>
@@ -26953,7 +27025,7 @@
         <v>-0.8882786780048582</v>
       </c>
       <c r="J14" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K14" t="n">
         <v>245</v>
@@ -27009,7 +27081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O492"/>
+  <dimension ref="A1:O494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55057,6 +55129,80 @@
         </is>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-40.95730254250785,172.10167473903485</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-40.95585537320716,172.1020560550394</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-40.955181231523305,172.10193567419057</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr"/>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr"/>
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-40.95728388719878,172.1017920746223</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-40.95583066257636,172.10221146825307</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-40.95516465632277,172.10203992039575</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr"/>
+      <c r="N494" t="inlineStr"/>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O494"/>
+  <dimension ref="A1:O497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20672,7 +20672,9 @@
       <c r="B494" t="n">
         <v>282.995</v>
       </c>
-      <c r="C494" t="inlineStr"/>
+      <c r="C494" t="n">
+        <v>301.5922222222222</v>
+      </c>
       <c r="D494" t="n">
         <v>214.1464705882353</v>
       </c>
@@ -20689,6 +20691,105 @@
       <c r="M494" t="inlineStr"/>
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>274.815</v>
+      </c>
+      <c r="C495" t="n">
+        <v>298.3188888888889</v>
+      </c>
+      <c r="D495" t="n">
+        <v>215.0117647058824</v>
+      </c>
+      <c r="E495" t="n">
+        <v>212.9217647058824</v>
+      </c>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr"/>
+      <c r="N495" t="inlineStr"/>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>290.52</v>
+      </c>
+      <c r="C496" t="n">
+        <v>299.36</v>
+      </c>
+      <c r="D496" t="n">
+        <v>219.0129411764705</v>
+      </c>
+      <c r="E496" t="n">
+        <v>217.5829411764706</v>
+      </c>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr"/>
+      <c r="N496" t="inlineStr"/>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>301.14</v>
+      </c>
+      <c r="C497" t="n">
+        <v>325.7688888888889</v>
+      </c>
+      <c r="D497" t="n">
+        <v>229.6647058823529</v>
+      </c>
+      <c r="E497" t="n">
+        <v>235.3247058823529</v>
+      </c>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
+      <c r="M497" t="inlineStr"/>
+      <c r="N497" t="inlineStr"/>
+      <c r="O497" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20705,7 +20806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B520"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25913,6 +26014,36 @@
       </c>
       <c r="B520" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -26086,28 +26217,28 @@
         <v>0.0951</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.238326220982251</v>
+        <v>-1.379020553158444</v>
       </c>
       <c r="J2" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K2" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2128692601451471</v>
+        <v>0.2127522760871295</v>
       </c>
       <c r="M2" t="n">
-        <v>11.91178574263857</v>
+        <v>12.85341949930205</v>
       </c>
       <c r="N2" t="n">
-        <v>354.3164373770681</v>
+        <v>442.5278847207474</v>
       </c>
       <c r="O2" t="n">
-        <v>18.82329507225204</v>
+        <v>21.03634675319713</v>
       </c>
       <c r="P2" t="n">
-        <v>432.8070406595177</v>
+        <v>434.1129489977646</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26164,28 +26295,28 @@
         <v>0.1054</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.469013943332752</v>
+        <v>-1.601860550653109</v>
       </c>
       <c r="J3" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K3" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1380716115853841</v>
+        <v>0.1533874824730568</v>
       </c>
       <c r="M3" t="n">
-        <v>19.58382366694209</v>
+        <v>20.42467414528971</v>
       </c>
       <c r="N3" t="n">
-        <v>819.326046071244</v>
+        <v>868.7525396241317</v>
       </c>
       <c r="O3" t="n">
-        <v>28.62387196155063</v>
+        <v>29.47460838796898</v>
       </c>
       <c r="P3" t="n">
-        <v>419.2681593848305</v>
+        <v>420.5360326778539</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26242,28 +26373,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.222214199509441</v>
+        <v>-2.392897081159281</v>
       </c>
       <c r="J4" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K4" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06277661461239203</v>
+        <v>0.0711943625939816</v>
       </c>
       <c r="M4" t="n">
-        <v>50.18092783930658</v>
+        <v>51.27461916338345</v>
       </c>
       <c r="N4" t="n">
-        <v>4427.540571005103</v>
+        <v>4514.275006493373</v>
       </c>
       <c r="O4" t="n">
-        <v>66.53976683912488</v>
+        <v>67.18835469404928</v>
       </c>
       <c r="P4" t="n">
-        <v>403.3434172700997</v>
+        <v>405.0043102504052</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26320,28 +26451,28 @@
         <v>0.192</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.962773478448949</v>
+        <v>-3.117932558455302</v>
       </c>
       <c r="J5" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K5" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1097851709893594</v>
+        <v>0.1190584030414823</v>
       </c>
       <c r="M5" t="n">
-        <v>50.06853545886757</v>
+        <v>51.0137804274965</v>
       </c>
       <c r="N5" t="n">
-        <v>4179.982963461923</v>
+        <v>4247.813642430267</v>
       </c>
       <c r="O5" t="n">
-        <v>64.65278774702544</v>
+        <v>65.17525329778371</v>
       </c>
       <c r="P5" t="n">
-        <v>410.67884621578</v>
+        <v>412.2368818758037</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26401,7 +26532,7 @@
         <v>-1.282118354677024</v>
       </c>
       <c r="J6" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K6" t="n">
         <v>307</v>
@@ -26479,7 +26610,7 @@
         <v>-0.8168174478562156</v>
       </c>
       <c r="J7" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K7" t="n">
         <v>288</v>
@@ -26557,7 +26688,7 @@
         <v>-0.9184073006584483</v>
       </c>
       <c r="J8" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K8" t="n">
         <v>277</v>
@@ -26635,7 +26766,7 @@
         <v>-1.042044989169371</v>
       </c>
       <c r="J9" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K9" t="n">
         <v>268</v>
@@ -26713,7 +26844,7 @@
         <v>-0.9624892028912657</v>
       </c>
       <c r="J10" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K10" t="n">
         <v>266</v>
@@ -26791,7 +26922,7 @@
         <v>-0.969696065169328</v>
       </c>
       <c r="J11" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K11" t="n">
         <v>258</v>
@@ -26869,7 +27000,7 @@
         <v>-1.027848421523368</v>
       </c>
       <c r="J12" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K12" t="n">
         <v>251</v>
@@ -26947,7 +27078,7 @@
         <v>-0.7598395016257076</v>
       </c>
       <c r="J13" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K13" t="n">
         <v>251</v>
@@ -27025,7 +27156,7 @@
         <v>-0.8882786780048582</v>
       </c>
       <c r="J14" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K14" t="n">
         <v>245</v>
@@ -27081,7 +27212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O494"/>
+  <dimension ref="A1:O497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55177,7 +55308,11 @@
           <t>-40.95728388719878,172.1017920746223</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr"/>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-40.95665530964917,172.10138520066303</t>
+        </is>
+      </c>
       <c r="D494" t="inlineStr">
         <is>
           <t>-40.95583066257636,172.10221146825307</t>
@@ -55203,6 +55338,129 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-40.9572687631831,172.10188719896632</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-40.95664925769729,172.1014232655779</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-40.95583226246556,172.10220140607174</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-40.955165424178645,172.10203509114353</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr"/>
+      <c r="N495" t="inlineStr"/>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-40.957297800114105,172.10170456716597</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-40.9566511825727,172.10141115871332</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-40.955839660446216,172.1021548778824</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-40.95517404242239,172.10198088859414</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr"/>
+      <c r="N496" t="inlineStr"/>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-40.95731743523769,172.1015810682102</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-40.95670000865364,172.1011040550091</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-40.95585935494885,172.1020310124332</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-40.95520684567716,172.10177457813458</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
+      <c r="M497" t="inlineStr"/>
+      <c r="N497" t="inlineStr"/>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O497"/>
+  <dimension ref="A1:O502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20780,7 +20780,9 @@
       <c r="E497" t="n">
         <v>235.3247058823529</v>
       </c>
-      <c r="F497" t="inlineStr"/>
+      <c r="F497" t="n">
+        <v>186.6466666666667</v>
+      </c>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr"/>
@@ -20792,6 +20794,171 @@
       <c r="O497" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="n">
+        <v>328.8922222222222</v>
+      </c>
+      <c r="D498" t="n">
+        <v>227.7764705882353</v>
+      </c>
+      <c r="E498" t="n">
+        <v>241.2864705882353</v>
+      </c>
+      <c r="F498" t="n">
+        <v>202.2766666666667</v>
+      </c>
+      <c r="G498" t="inlineStr"/>
+      <c r="H498" t="inlineStr"/>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
+      <c r="M498" t="inlineStr"/>
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="n">
+        <v>201.5905882352941</v>
+      </c>
+      <c r="E499" t="n">
+        <v>211.6805882352941</v>
+      </c>
+      <c r="F499" t="n">
+        <v>165.56</v>
+      </c>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr"/>
+      <c r="N499" t="inlineStr"/>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="n">
+        <v>206.2382352941177</v>
+      </c>
+      <c r="E500" t="n">
+        <v>213.3982352941176</v>
+      </c>
+      <c r="F500" t="n">
+        <v>171.2033333333333</v>
+      </c>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr"/>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
+      <c r="M500" t="inlineStr"/>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>316.715</v>
+      </c>
+      <c r="C501" t="n">
+        <v>338.6222222222222</v>
+      </c>
+      <c r="D501" t="n">
+        <v>226.7676470588236</v>
+      </c>
+      <c r="E501" t="n">
+        <v>238.6576470588236</v>
+      </c>
+      <c r="F501" t="n">
+        <v>191.1866666666667</v>
+      </c>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>316.895</v>
+      </c>
+      <c r="C502" t="n">
+        <v>343.1066666666667</v>
+      </c>
+      <c r="D502" t="n">
+        <v>235.8082352941177</v>
+      </c>
+      <c r="E502" t="n">
+        <v>240.5082352941176</v>
+      </c>
+      <c r="F502" t="n">
+        <v>205.43</v>
+      </c>
+      <c r="G502" t="inlineStr"/>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr"/>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26044,6 +26211,66 @@
       </c>
       <c r="B523" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>
@@ -26217,28 +26444,28 @@
         <v>0.0951</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.379020553158444</v>
+        <v>-1.446886152609961</v>
       </c>
       <c r="J2" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K2" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2127522760871295</v>
+        <v>0.2187271521283659</v>
       </c>
       <c r="M2" t="n">
-        <v>12.85341949930205</v>
+        <v>13.31595098335937</v>
       </c>
       <c r="N2" t="n">
-        <v>442.5278847207474</v>
+        <v>472.2358109701684</v>
       </c>
       <c r="O2" t="n">
-        <v>21.03634675319713</v>
+        <v>21.73098734457706</v>
       </c>
       <c r="P2" t="n">
-        <v>434.1129489977646</v>
+        <v>434.7459018093744</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26295,28 +26522,28 @@
         <v>0.1054</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.601860550653109</v>
+        <v>-1.656985912475502</v>
       </c>
       <c r="J3" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K3" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1533874824730568</v>
+        <v>0.1621461790501517</v>
       </c>
       <c r="M3" t="n">
-        <v>20.42467414528971</v>
+        <v>20.72548780682392</v>
       </c>
       <c r="N3" t="n">
-        <v>868.7525396241317</v>
+        <v>875.6847517420385</v>
       </c>
       <c r="O3" t="n">
-        <v>29.47460838796898</v>
+        <v>29.59197106889027</v>
       </c>
       <c r="P3" t="n">
-        <v>420.5360326778539</v>
+        <v>421.0646105471156</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26373,28 +26600,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.392897081159281</v>
+        <v>-2.665953765077949</v>
       </c>
       <c r="J4" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K4" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0711943625939816</v>
+        <v>0.08531569109736625</v>
       </c>
       <c r="M4" t="n">
-        <v>51.27461916338345</v>
+        <v>52.99531285265435</v>
       </c>
       <c r="N4" t="n">
-        <v>4514.275006493373</v>
+        <v>4650.61853609754</v>
       </c>
       <c r="O4" t="n">
-        <v>67.18835469404928</v>
+        <v>68.19544366083075</v>
       </c>
       <c r="P4" t="n">
-        <v>405.0043102504052</v>
+        <v>407.6713254840665</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26451,28 +26678,28 @@
         <v>0.192</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.117932558455302</v>
+        <v>-3.34696539582443</v>
       </c>
       <c r="J5" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K5" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1190584030414823</v>
+        <v>0.1335550132518187</v>
       </c>
       <c r="M5" t="n">
-        <v>51.0137804274965</v>
+        <v>52.29140352802417</v>
       </c>
       <c r="N5" t="n">
-        <v>4247.813642430267</v>
+        <v>4329.651274280072</v>
       </c>
       <c r="O5" t="n">
-        <v>65.17525329778371</v>
+        <v>65.80008567076544</v>
       </c>
       <c r="P5" t="n">
-        <v>412.2368818758037</v>
+        <v>414.5457355992867</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26529,28 +26756,28 @@
         <v>0.0838</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.282118354677024</v>
+        <v>-1.882253327052841</v>
       </c>
       <c r="J6" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K6" t="n">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04680539958509811</v>
+        <v>0.07756073383634721</v>
       </c>
       <c r="M6" t="n">
-        <v>22.04236225790553</v>
+        <v>27.5363244041701</v>
       </c>
       <c r="N6" t="n">
-        <v>1997.141356664249</v>
+        <v>2556.347791579149</v>
       </c>
       <c r="O6" t="n">
-        <v>44.68938751721989</v>
+        <v>50.56033812761886</v>
       </c>
       <c r="P6" t="n">
-        <v>401.2145830780343</v>
+        <v>407.0225596601695</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26610,7 +26837,7 @@
         <v>-0.8168174478562156</v>
       </c>
       <c r="J7" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K7" t="n">
         <v>288</v>
@@ -26688,7 +26915,7 @@
         <v>-0.9184073006584483</v>
       </c>
       <c r="J8" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K8" t="n">
         <v>277</v>
@@ -26766,7 +26993,7 @@
         <v>-1.042044989169371</v>
       </c>
       <c r="J9" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K9" t="n">
         <v>268</v>
@@ -26844,7 +27071,7 @@
         <v>-0.9624892028912657</v>
       </c>
       <c r="J10" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K10" t="n">
         <v>266</v>
@@ -26922,7 +27149,7 @@
         <v>-0.969696065169328</v>
       </c>
       <c r="J11" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K11" t="n">
         <v>258</v>
@@ -27000,7 +27227,7 @@
         <v>-1.027848421523368</v>
       </c>
       <c r="J12" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K12" t="n">
         <v>251</v>
@@ -27078,7 +27305,7 @@
         <v>-0.7598395016257076</v>
       </c>
       <c r="J13" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K13" t="n">
         <v>251</v>
@@ -27156,7 +27383,7 @@
         <v>-0.8882786780048582</v>
       </c>
       <c r="J14" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K14" t="n">
         <v>245</v>
@@ -27212,7 +27439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O497"/>
+  <dimension ref="A1:O502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55446,7 +55673,11 @@
           <t>-40.95520684567716,172.10177457813458</t>
         </is>
       </c>
-      <c r="F497" t="inlineStr"/>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-40.95445386225131,172.10215000946178</t>
+        </is>
+      </c>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr"/>
@@ -55461,6 +55692,211 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-40.95670578317483,172.10106773435945</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-40.95585586371974,172.10205297003128</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-40.95521786847057,172.10170525159214</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-40.9544827614116,172.10196825778675</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr"/>
+      <c r="H498" t="inlineStr"/>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
+      <c r="M498" t="inlineStr"/>
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-40.955807447225204,172.10235747585517</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-40.95516312931134,172.10204952417746</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-40.95441487350523,172.10239521312033</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr"/>
+      <c r="N499" t="inlineStr"/>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-40.95581604057037,172.10230343013873</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-40.95516630514619,172.1020295504999</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-40.95442530794603,172.1023295903539</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr"/>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
+      <c r="M500" t="inlineStr"/>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-40.957346231329275,172.10139994790904</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-40.95672377224443,172.10095458599952</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-40.955853998466324,172.10206470127045</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-40.95521300800571,172.10173582094055</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-40.954462256534875,172.10209721660462</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-40.95734656412351,172.10139785470403</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-40.956732063160885,172.10090243720927</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-40.95587071392183,172.10195957155958</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-40.95521642958241,172.1017143013236</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-40.954488591746795,172.10193158959058</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr"/>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr"/>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O502"/>
+  <dimension ref="A1:O505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20962,6 +20962,119 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>425.12</v>
+      </c>
+      <c r="C503" t="n">
+        <v>417.9955555555555</v>
+      </c>
+      <c r="D503" t="n">
+        <v>405.8629411764706</v>
+      </c>
+      <c r="E503" t="n">
+        <v>403.7529411764706</v>
+      </c>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr"/>
+      <c r="H503" t="inlineStr"/>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
+      <c r="M503" t="inlineStr"/>
+      <c r="N503" t="inlineStr"/>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>414.05</v>
+      </c>
+      <c r="C504" t="n">
+        <v>413.4144444444445</v>
+      </c>
+      <c r="D504" t="n">
+        <v>405.1611764705883</v>
+      </c>
+      <c r="E504" t="n">
+        <v>391.4711764705882</v>
+      </c>
+      <c r="F504" t="n">
+        <v>206.7833333333333</v>
+      </c>
+      <c r="G504" t="inlineStr"/>
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
+      <c r="M504" t="inlineStr"/>
+      <c r="N504" t="inlineStr"/>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>391.67</v>
+      </c>
+      <c r="C505" t="n">
+        <v>393.8622222222222</v>
+      </c>
+      <c r="D505" t="n">
+        <v>392.7558823529412</v>
+      </c>
+      <c r="E505" t="n">
+        <v>388.2258823529411</v>
+      </c>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="n">
+        <v>375.8266666666667</v>
+      </c>
+      <c r="H505" t="n">
+        <v>372.5766666666667</v>
+      </c>
+      <c r="I505" t="n">
+        <v>367.58</v>
+      </c>
+      <c r="J505" t="n">
+        <v>357.3366666666667</v>
+      </c>
+      <c r="K505" t="n">
+        <v>366.6414285714285</v>
+      </c>
+      <c r="L505" t="n">
+        <v>368.6745454545455</v>
+      </c>
+      <c r="M505" t="inlineStr"/>
+      <c r="N505" t="inlineStr"/>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20973,7 +21086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B529"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26271,6 +26384,26 @@
       </c>
       <c r="B529" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -26444,28 +26577,28 @@
         <v>0.0951</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.446886152609961</v>
+        <v>-1.430661773081584</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K2" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2187271521283659</v>
+        <v>0.2162294683011182</v>
       </c>
       <c r="M2" t="n">
-        <v>13.31595098335937</v>
+        <v>13.30674294508344</v>
       </c>
       <c r="N2" t="n">
-        <v>472.2358109701684</v>
+        <v>471.4478208723339</v>
       </c>
       <c r="O2" t="n">
-        <v>21.73098734457706</v>
+        <v>21.7128492112927</v>
       </c>
       <c r="P2" t="n">
-        <v>434.7459018093744</v>
+        <v>434.5942890786292</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26522,28 +26655,28 @@
         <v>0.1054</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.656985912475502</v>
+        <v>-1.617582008851705</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K3" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1621461790501517</v>
+        <v>0.1563467350456283</v>
       </c>
       <c r="M3" t="n">
-        <v>20.72548780682392</v>
+        <v>20.69926548410688</v>
       </c>
       <c r="N3" t="n">
-        <v>875.6847517420385</v>
+        <v>876.7880150288901</v>
       </c>
       <c r="O3" t="n">
-        <v>29.59197106889027</v>
+        <v>29.61060646168684</v>
       </c>
       <c r="P3" t="n">
-        <v>421.0646105471156</v>
+        <v>420.6851956733933</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26600,28 +26733,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.665953765077949</v>
+        <v>-2.583311681618588</v>
       </c>
       <c r="J4" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K4" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08531569109736625</v>
+        <v>0.08104297557537576</v>
       </c>
       <c r="M4" t="n">
-        <v>52.99531285265435</v>
+        <v>52.83387083335256</v>
       </c>
       <c r="N4" t="n">
-        <v>4650.61853609754</v>
+        <v>4644.884730400076</v>
       </c>
       <c r="O4" t="n">
-        <v>68.19544366083075</v>
+        <v>68.1533911878204</v>
       </c>
       <c r="P4" t="n">
-        <v>407.6713254840665</v>
+        <v>406.8602620282302</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26678,28 +26811,28 @@
         <v>0.192</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.34696539582443</v>
+        <v>-3.25789059811847</v>
       </c>
       <c r="J5" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K5" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1335550132518187</v>
+        <v>0.1279738914220093</v>
       </c>
       <c r="M5" t="n">
-        <v>52.29140352802417</v>
+        <v>52.17565573061867</v>
       </c>
       <c r="N5" t="n">
-        <v>4329.651274280072</v>
+        <v>4330.643086806759</v>
       </c>
       <c r="O5" t="n">
-        <v>65.80008567076544</v>
+        <v>65.80762179874577</v>
       </c>
       <c r="P5" t="n">
-        <v>414.5457355992867</v>
+        <v>413.6433081088538</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26756,28 +26889,28 @@
         <v>0.0838</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.882253327052841</v>
+        <v>-1.96567133987219</v>
       </c>
       <c r="J6" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K6" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07756073383634721</v>
+        <v>0.08231288117524937</v>
       </c>
       <c r="M6" t="n">
-        <v>27.5363244041701</v>
+        <v>28.325664890124</v>
       </c>
       <c r="N6" t="n">
-        <v>2556.347791579149</v>
+        <v>2620.413100529905</v>
       </c>
       <c r="O6" t="n">
-        <v>50.56033812761886</v>
+        <v>51.18997070256932</v>
       </c>
       <c r="P6" t="n">
-        <v>407.0225596601695</v>
+        <v>407.8329296454819</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26834,28 +26967,28 @@
         <v>0.0887</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8168174478562156</v>
+        <v>-0.8181493840756764</v>
       </c>
       <c r="J7" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K7" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1848815222256007</v>
+        <v>0.1863762589669345</v>
       </c>
       <c r="M7" t="n">
-        <v>10.4562881898511</v>
+        <v>10.42742655267253</v>
       </c>
       <c r="N7" t="n">
-        <v>178.6128155916585</v>
+        <v>178.0108082986361</v>
       </c>
       <c r="O7" t="n">
-        <v>13.36461056640479</v>
+        <v>13.34206911609425</v>
       </c>
       <c r="P7" t="n">
-        <v>399.2999628370042</v>
+        <v>399.3127887907855</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26912,28 +27045,28 @@
         <v>0.0847</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9184073006584483</v>
+        <v>-0.918866430304159</v>
       </c>
       <c r="J8" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K8" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2227911065565031</v>
+        <v>0.224148481077453</v>
       </c>
       <c r="M8" t="n">
-        <v>10.53595675085417</v>
+        <v>10.50064629157111</v>
       </c>
       <c r="N8" t="n">
-        <v>178.0979167843555</v>
+        <v>177.4591437051473</v>
       </c>
       <c r="O8" t="n">
-        <v>13.34533314624837</v>
+        <v>13.32137919680794</v>
       </c>
       <c r="P8" t="n">
-        <v>397.261162774064</v>
+        <v>397.265622228654</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26990,28 +27123,28 @@
         <v>0.0953</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.042044989169371</v>
+        <v>-1.042164358609666</v>
       </c>
       <c r="J9" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K9" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2507520654007163</v>
+        <v>0.2521863604849151</v>
       </c>
       <c r="M9" t="n">
-        <v>10.0837504965826</v>
+        <v>10.04692062465442</v>
       </c>
       <c r="N9" t="n">
-        <v>191.8038192756458</v>
+        <v>191.0909078855068</v>
       </c>
       <c r="O9" t="n">
-        <v>13.84932558919913</v>
+        <v>13.82356350169907</v>
       </c>
       <c r="P9" t="n">
-        <v>394.9419534858687</v>
+        <v>394.9431214877311</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27068,28 +27201,28 @@
         <v>0.0854</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9624892028912657</v>
+        <v>-0.9703600102231569</v>
       </c>
       <c r="J10" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K10" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2352384868936851</v>
+        <v>0.2390869374848734</v>
       </c>
       <c r="M10" t="n">
-        <v>10.40334171130068</v>
+        <v>10.41209714978097</v>
       </c>
       <c r="N10" t="n">
-        <v>180.9956129124351</v>
+        <v>180.8030623712087</v>
       </c>
       <c r="O10" t="n">
-        <v>13.45346100126043</v>
+        <v>13.44630292575653</v>
       </c>
       <c r="P10" t="n">
-        <v>393.8957612574339</v>
+        <v>393.9710562208829</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27146,28 +27279,28 @@
         <v>0.0805</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.969696065169328</v>
+        <v>-0.9785021939816102</v>
       </c>
       <c r="J11" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K11" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1634294240341635</v>
+        <v>0.1667357897001126</v>
       </c>
       <c r="M11" t="n">
-        <v>13.7040661062538</v>
+        <v>13.70144536371069</v>
       </c>
       <c r="N11" t="n">
-        <v>292.5499189135867</v>
+        <v>292.0138346112215</v>
       </c>
       <c r="O11" t="n">
-        <v>17.10409070700886</v>
+        <v>17.08841229053248</v>
       </c>
       <c r="P11" t="n">
-        <v>404.4109895597201</v>
+        <v>404.4942959855673</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27224,28 +27357,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.027848421523368</v>
+        <v>-1.038619788960605</v>
       </c>
       <c r="J12" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K12" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1734252119902401</v>
+        <v>0.1771863209946041</v>
       </c>
       <c r="M12" t="n">
-        <v>13.86171099817803</v>
+        <v>13.87514217709585</v>
       </c>
       <c r="N12" t="n">
-        <v>300.9040033163544</v>
+        <v>300.5723852406213</v>
       </c>
       <c r="O12" t="n">
-        <v>17.34658477384971</v>
+        <v>17.33702354040685</v>
       </c>
       <c r="P12" t="n">
-        <v>410.321226698974</v>
+        <v>410.425101350608</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27305,7 +27438,7 @@
         <v>-0.7598395016257076</v>
       </c>
       <c r="J13" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K13" t="n">
         <v>251</v>
@@ -27383,7 +27516,7 @@
         <v>-0.8882786780048582</v>
       </c>
       <c r="J14" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K14" t="n">
         <v>245</v>
@@ -27439,7 +27572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O502"/>
+  <dimension ref="A1:O505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55897,6 +56030,157 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-40.95754664974112,172.10013931150118</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-40.95687051549249,172.10003156604873</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-40.95618511596086,172.0999820576909</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-40.955518238940364,172.09981599723372</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr"/>
+      <c r="H503" t="inlineStr"/>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
+      <c r="M503" t="inlineStr"/>
+      <c r="N503" t="inlineStr"/>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-40.95752618423787,172.1002680443249</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-40.95686204626176,172.1000848391736</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-40.9561838185882,172.09999021833417</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-40.955495533316444,172.09995881729753</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-40.954491093980074,172.1019158524981</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr"/>
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
+      <c r="M504" t="inlineStr"/>
+      <c r="N504" t="inlineStr"/>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-40.95748480909297,172.1005283006925</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-40.95682589923258,172.10031220918756</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-40.95616088446696,172.10013447629308</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-40.95548953362547,172.09999655559733</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-40.95414063891524,172.09975954077757</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-40.95347163472945,172.0996067323839</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-40.95279595300302,172.09947349088904</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>-40.95210801539979,172.09944389395542</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>-40.95143989298203,172.09923894947414</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>-40.950767021497704,172.099120069539</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr"/>
+      <c r="N505" t="inlineStr"/>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O505"/>
+  <dimension ref="A1:O507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21048,7 +21048,9 @@
       <c r="E505" t="n">
         <v>388.2258823529411</v>
       </c>
-      <c r="F505" t="inlineStr"/>
+      <c r="F505" t="n">
+        <v>381.1066666666667</v>
+      </c>
       <c r="G505" t="n">
         <v>375.8266666666667</v>
       </c>
@@ -21067,9 +21069,115 @@
       <c r="L505" t="n">
         <v>368.6745454545455</v>
       </c>
-      <c r="M505" t="inlineStr"/>
-      <c r="N505" t="inlineStr"/>
+      <c r="M505" t="n">
+        <v>347.8733333333333</v>
+      </c>
+      <c r="N505" t="n">
+        <v>364.3945454545454</v>
+      </c>
       <c r="O505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>392.165</v>
+      </c>
+      <c r="C506" t="n">
+        <v>398.6833333333333</v>
+      </c>
+      <c r="D506" t="n">
+        <v>395.7152941176471</v>
+      </c>
+      <c r="E506" t="n">
+        <v>387.5252941176471</v>
+      </c>
+      <c r="F506" t="n">
+        <v>381.24</v>
+      </c>
+      <c r="G506" t="n">
+        <v>368.67</v>
+      </c>
+      <c r="H506" t="n">
+        <v>370.58</v>
+      </c>
+      <c r="I506" t="n">
+        <v>368.155</v>
+      </c>
+      <c r="J506" t="n">
+        <v>358.06</v>
+      </c>
+      <c r="K506" t="n">
+        <v>360.3471428571429</v>
+      </c>
+      <c r="L506" t="n">
+        <v>346.8427272727272</v>
+      </c>
+      <c r="M506" t="n">
+        <v>347.54</v>
+      </c>
+      <c r="N506" t="n">
+        <v>368.9927272727273</v>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>363.175</v>
+      </c>
+      <c r="C507" t="n">
+        <v>396.0788888888889</v>
+      </c>
+      <c r="D507" t="n">
+        <v>402.4805882352941</v>
+      </c>
+      <c r="E507" t="n">
+        <v>392.4505882352942</v>
+      </c>
+      <c r="F507" t="n">
+        <v>381.8866666666667</v>
+      </c>
+      <c r="G507" t="n">
+        <v>376.4866666666667</v>
+      </c>
+      <c r="H507" t="n">
+        <v>369.6666666666667</v>
+      </c>
+      <c r="I507" t="n">
+        <v>364.285</v>
+      </c>
+      <c r="J507" t="n">
+        <v>353.1266666666667</v>
+      </c>
+      <c r="K507" t="n">
+        <v>360.3042857142857</v>
+      </c>
+      <c r="L507" t="n">
+        <v>359.0118181818182</v>
+      </c>
+      <c r="M507" t="n">
+        <v>352.0233333333333</v>
+      </c>
+      <c r="N507" t="n">
+        <v>365.5618181818182</v>
+      </c>
+      <c r="O507" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21086,7 +21194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26404,6 +26512,26 @@
       </c>
       <c r="B531" t="n">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -27572,7 +27700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O505"/>
+  <dimension ref="A1:O507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56142,7 +56270,11 @@
           <t>-40.95548953362547,172.09999655559733</t>
         </is>
       </c>
-      <c r="F505" t="inlineStr"/>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-40.95481338943958,172.09988874256615</t>
+        </is>
+      </c>
       <c r="G505" t="inlineStr">
         <is>
           <t>-40.95414063891524,172.09975954077757</t>
@@ -56173,9 +56305,171 @@
           <t>-40.950767021497704,172.099120069539</t>
         </is>
       </c>
-      <c r="M505" t="inlineStr"/>
-      <c r="N505" t="inlineStr"/>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>-40.9500738522164,172.0992711520945</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>-40.94941384133522,172.09898098464836</t>
+        </is>
+      </c>
       <c r="O505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-40.95748572423326,172.10052254435533</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-40.95683481226873,172.1002561451938</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-40.956166355656315,172.10010006206738</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-40.95548823842137,172.10000470247246</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-40.95481363593748,172.09988719209903</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-40.95412740814887,172.09984276124905</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>-40.953467943447485,172.09962995016426</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>-40.95279689689617,172.09946677367085</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>-40.952108855374924,172.09943537178012</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>-40.95143429976411,172.09931336605172</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>-40.95074762130784,172.09937818182777</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>-40.950073556007446,172.0992750929727</t>
+        </is>
+      </c>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>-40.949417927272165,172.0989266225503</t>
+        </is>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-40.95743212795347,172.10085966776114</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-40.956829997301696,172.10028643189796</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-40.956178862902014,172.10002139021012</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-40.95549734398746,172.09994742808667</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-40.954814831451976,172.09987967233326</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-40.95414185907604,172.0997518660422</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-40.95346625494633,172.09964057065056</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-40.95279054407731,172.09951198346616</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>-40.95210312649972,172.0994934953679</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>-40.95143426168029,172.09931387274648</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>-40.95075843507666,172.0992343096362</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>-40.95007754000646,172.09922208815837</t>
+        </is>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>-40.949414878574316,172.0989671845434</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -26705,28 +26705,28 @@
         <v>0.0951</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.430661773081584</v>
+        <v>-1.446616876441926</v>
       </c>
       <c r="J2" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K2" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2162294683011182</v>
+        <v>0.2205122989158985</v>
       </c>
       <c r="M2" t="n">
-        <v>13.30674294508344</v>
+        <v>13.36879734540993</v>
       </c>
       <c r="N2" t="n">
-        <v>471.4478208723339</v>
+        <v>472.0021376459338</v>
       </c>
       <c r="O2" t="n">
-        <v>21.7128492112927</v>
+        <v>21.72561017890945</v>
       </c>
       <c r="P2" t="n">
-        <v>434.5942890786292</v>
+        <v>434.7444029080841</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26783,28 +26783,28 @@
         <v>0.1054</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.617582008851705</v>
+        <v>-1.601363499003478</v>
       </c>
       <c r="J3" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K3" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1563467350456283</v>
+        <v>0.1546217979765816</v>
       </c>
       <c r="M3" t="n">
-        <v>20.69926548410688</v>
+        <v>20.65023474382999</v>
       </c>
       <c r="N3" t="n">
-        <v>876.7880150288901</v>
+        <v>874.1429159942173</v>
       </c>
       <c r="O3" t="n">
-        <v>29.61060646168684</v>
+        <v>29.56590800219431</v>
       </c>
       <c r="P3" t="n">
-        <v>420.6851956733933</v>
+        <v>420.5282337783652</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26861,28 +26861,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.583311681618588</v>
+        <v>-2.531433163150834</v>
       </c>
       <c r="J4" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K4" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08104297557537576</v>
+        <v>0.07843367518776478</v>
       </c>
       <c r="M4" t="n">
-        <v>52.83387083335256</v>
+        <v>52.71661224634292</v>
       </c>
       <c r="N4" t="n">
-        <v>4644.884730400076</v>
+        <v>4639.050124703815</v>
       </c>
       <c r="O4" t="n">
-        <v>68.1533911878204</v>
+        <v>68.11057278208585</v>
       </c>
       <c r="P4" t="n">
-        <v>406.8602620282302</v>
+        <v>406.3486629322047</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26939,28 +26939,28 @@
         <v>0.192</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.25789059811847</v>
+        <v>-3.203840222400317</v>
       </c>
       <c r="J5" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K5" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1279738914220093</v>
+        <v>0.1247316460092207</v>
       </c>
       <c r="M5" t="n">
-        <v>52.17565573061867</v>
+        <v>52.08166509149334</v>
       </c>
       <c r="N5" t="n">
-        <v>4330.643086806759</v>
+        <v>4327.408416426323</v>
       </c>
       <c r="O5" t="n">
-        <v>65.80762179874577</v>
+        <v>65.78304049241204</v>
       </c>
       <c r="P5" t="n">
-        <v>413.6433081088538</v>
+        <v>413.0930398300733</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27017,28 +27017,28 @@
         <v>0.0838</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.96567133987219</v>
+        <v>-1.925227773220972</v>
       </c>
       <c r="J6" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K6" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08231288117524937</v>
+        <v>0.0803421352661331</v>
       </c>
       <c r="M6" t="n">
-        <v>28.325664890124</v>
+        <v>28.09414344226504</v>
       </c>
       <c r="N6" t="n">
-        <v>2620.413100529905</v>
+        <v>2601.329024462202</v>
       </c>
       <c r="O6" t="n">
-        <v>51.18997070256932</v>
+        <v>51.00322562801496</v>
       </c>
       <c r="P6" t="n">
-        <v>407.8329296454819</v>
+        <v>407.4381057971306</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27095,28 +27095,28 @@
         <v>0.0887</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8181493840756764</v>
+        <v>-0.8246361364240173</v>
       </c>
       <c r="J7" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K7" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1863762589669345</v>
+        <v>0.1905594334463451</v>
       </c>
       <c r="M7" t="n">
-        <v>10.42742655267253</v>
+        <v>10.39108127449358</v>
       </c>
       <c r="N7" t="n">
-        <v>178.0108082986361</v>
+        <v>177.0865608066278</v>
       </c>
       <c r="O7" t="n">
-        <v>13.34206911609425</v>
+        <v>13.30738745233744</v>
       </c>
       <c r="P7" t="n">
-        <v>399.3127887907855</v>
+        <v>399.3753361922828</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27173,28 +27173,28 @@
         <v>0.0847</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.918866430304159</v>
+        <v>-0.9227789106859162</v>
       </c>
       <c r="J8" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K8" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L8" t="n">
-        <v>0.224148481077453</v>
+        <v>0.2279208228159291</v>
       </c>
       <c r="M8" t="n">
-        <v>10.50064629157111</v>
+        <v>10.44757545046002</v>
       </c>
       <c r="N8" t="n">
-        <v>177.4591437051473</v>
+        <v>176.2619819972556</v>
       </c>
       <c r="O8" t="n">
-        <v>13.32137919680794</v>
+        <v>13.27636930780609</v>
       </c>
       <c r="P8" t="n">
-        <v>397.265622228654</v>
+        <v>397.3036947535652</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27251,28 +27251,28 @@
         <v>0.0953</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.042164358609666</v>
+        <v>-1.044162653064689</v>
       </c>
       <c r="J9" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K9" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2521863604849151</v>
+        <v>0.2556244265909378</v>
       </c>
       <c r="M9" t="n">
-        <v>10.04692062465442</v>
+        <v>9.986996734364148</v>
       </c>
       <c r="N9" t="n">
-        <v>191.0909078855068</v>
+        <v>189.7241918158535</v>
       </c>
       <c r="O9" t="n">
-        <v>13.82356350169907</v>
+        <v>13.77404050436376</v>
       </c>
       <c r="P9" t="n">
-        <v>394.9431214877311</v>
+        <v>394.9627219233403</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27329,28 +27329,28 @@
         <v>0.0854</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9703600102231569</v>
+        <v>-0.9879317330990112</v>
       </c>
       <c r="J10" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K10" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2390869374848734</v>
+        <v>0.2471610363729616</v>
       </c>
       <c r="M10" t="n">
-        <v>10.41209714978097</v>
+        <v>10.44011224996175</v>
       </c>
       <c r="N10" t="n">
-        <v>180.8030623712087</v>
+        <v>180.7378317488194</v>
       </c>
       <c r="O10" t="n">
-        <v>13.44630292575653</v>
+        <v>13.44387711000139</v>
       </c>
       <c r="P10" t="n">
-        <v>393.9710562208829</v>
+        <v>394.1394549028529</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27407,28 +27407,28 @@
         <v>0.0805</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9785021939816102</v>
+        <v>-1.004251807247079</v>
       </c>
       <c r="J11" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K11" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1667357897001126</v>
+        <v>0.1750450623044552</v>
       </c>
       <c r="M11" t="n">
-        <v>13.70144536371069</v>
+        <v>13.74604369290343</v>
       </c>
       <c r="N11" t="n">
-        <v>292.0138346112215</v>
+        <v>292.36846712575</v>
       </c>
       <c r="O11" t="n">
-        <v>17.08841229053248</v>
+        <v>17.09878554534649</v>
       </c>
       <c r="P11" t="n">
-        <v>404.4942959855673</v>
+        <v>404.7383019560145</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27485,28 +27485,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.038619788960605</v>
+        <v>-1.081816154524206</v>
       </c>
       <c r="J12" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K12" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1771863209946041</v>
+        <v>0.1880554800041196</v>
       </c>
       <c r="M12" t="n">
-        <v>13.87514217709585</v>
+        <v>14.04215587492691</v>
       </c>
       <c r="N12" t="n">
-        <v>300.5723852406213</v>
+        <v>305.5893976899174</v>
       </c>
       <c r="O12" t="n">
-        <v>17.33702354040685</v>
+        <v>17.48111545897222</v>
       </c>
       <c r="P12" t="n">
-        <v>410.425101350608</v>
+        <v>410.842325301651</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27563,28 +27563,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7598395016257076</v>
+        <v>-0.8211138519410593</v>
       </c>
       <c r="J13" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K13" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1078221238203848</v>
+        <v>0.1224784835573604</v>
       </c>
       <c r="M13" t="n">
-        <v>13.10122683791075</v>
+        <v>13.35692496588702</v>
       </c>
       <c r="N13" t="n">
-        <v>289.2471216192566</v>
+        <v>295.7511117868282</v>
       </c>
       <c r="O13" t="n">
-        <v>17.00726672982042</v>
+        <v>17.1974158461912</v>
       </c>
       <c r="P13" t="n">
-        <v>398.4032519303539</v>
+        <v>398.9940809493914</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27641,28 +27641,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8882786780048582</v>
+        <v>-0.9098023381862418</v>
       </c>
       <c r="J14" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L14" t="n">
-        <v>0.142497271631653</v>
+        <v>0.1507720903555911</v>
       </c>
       <c r="M14" t="n">
-        <v>13.34203082023368</v>
+        <v>13.31242437017066</v>
       </c>
       <c r="N14" t="n">
-        <v>291.0846260824046</v>
+        <v>288.8573128171559</v>
       </c>
       <c r="O14" t="n">
-        <v>17.06120236332729</v>
+        <v>16.99580280001965</v>
       </c>
       <c r="P14" t="n">
-        <v>399.8445514091825</v>
+        <v>400.0519269103162</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -26696,13 +26696,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.073</v>
+        <v>0.0437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0951</v>
+        <v>0.0653</v>
       </c>
       <c r="I2" t="n">
         <v>-1.446600851693062</v>
@@ -26774,13 +26774,13 @@
         <v>0.9166567099062686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0796</v>
+        <v>0.056</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1054</v>
+        <v>0.0919</v>
       </c>
       <c r="I3" t="n">
         <v>-1.601352395575564</v>
@@ -26852,13 +26852,13 @@
         <v>0.8333134198139546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0743</v>
+        <v>0.0403</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1062</v>
+        <v>0.0809</v>
       </c>
       <c r="I4" t="n">
         <v>-2.531450172871538</v>
@@ -26930,13 +26930,13 @@
         <v>0.749970129720223</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0534</v>
+        <v>0.0355</v>
       </c>
       <c r="H5" t="n">
-        <v>0.192</v>
+        <v>0.0646</v>
       </c>
       <c r="I5" t="n">
         <v>-3.203856185433241</v>
@@ -27008,13 +27008,13 @@
         <v>0.6666268396264916</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0295</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0838</v>
+        <v>0.0472</v>
       </c>
       <c r="I6" t="n">
         <v>-1.925237739857996</v>
@@ -27086,13 +27086,13 @@
         <v>0.5832835495334189</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0634</v>
+        <v>0.0356</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0887</v>
+        <v>0.0703</v>
       </c>
       <c r="I7" t="n">
         <v>-0.8246547140411586</v>
@@ -27164,13 +27164,13 @@
         <v>0.4999402594403463</v>
       </c>
       <c r="F8" t="n">
-        <v>0.075</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0649</v>
+        <v>0.0322</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0847</v>
+        <v>0.063</v>
       </c>
       <c r="I8" t="n">
         <v>-0.9227939522464249</v>
@@ -27242,13 +27242,13 @@
         <v>0.4165969693466149</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0706</v>
+        <v>0.0408</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0953</v>
+        <v>0.144</v>
       </c>
       <c r="I9" t="n">
         <v>-1.044160243010505</v>
@@ -27320,13 +27320,13 @@
         <v>0.3333731603727921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0638</v>
+        <v>0.0493</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0854</v>
+        <v>0.1079</v>
       </c>
       <c r="I10" t="n">
         <v>-0.9879458248402285</v>
@@ -27401,10 +27401,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0613</v>
+        <v>0.0534</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0805</v>
+        <v>0.0973</v>
       </c>
       <c r="I11" t="n">
         <v>-1.004268225459017</v>
@@ -27476,13 +27476,13 @@
         <v>0.1666865801862321</v>
       </c>
       <c r="F12" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0496</v>
+        <v>0.0542</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I12" t="n">
         <v>-1.081801608934417</v>
@@ -27554,13 +27554,13 @@
         <v>0.08334329009295212</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0538</v>
+        <v>0.0563</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.1388</v>
       </c>
       <c r="I13" t="n">
         <v>-0.8210981611190159</v>
@@ -27632,13 +27632,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0494</v>
+        <v>0.0487</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.1007</v>
       </c>
       <c r="I14" t="n">
         <v>-0.9097808262908184</v>

--- a/data/nzd0329/nzd0329.xlsx
+++ b/data/nzd0329/nzd0329.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O510"/>
+  <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,9 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>385.27</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>368.16</v>
@@ -634,7 +636,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>427.16</v>
+        <v>424.12</v>
       </c>
       <c r="H5" t="n">
         <v>418.52</v>
@@ -681,7 +683,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>410.1</v>
+        <v>412.19</v>
       </c>
       <c r="H6" t="n">
         <v>407.28</v>
@@ -732,7 +734,7 @@
         <v>431.56</v>
       </c>
       <c r="G7" t="n">
-        <v>425.55</v>
+        <v>421.91</v>
       </c>
       <c r="H7" t="n">
         <v>425.69</v>
@@ -783,7 +785,7 @@
         <v>395.91</v>
       </c>
       <c r="G8" t="n">
-        <v>399.74</v>
+        <v>401.54</v>
       </c>
       <c r="H8" t="n">
         <v>394.02</v>
@@ -834,7 +836,7 @@
         <v>408.9</v>
       </c>
       <c r="G9" t="n">
-        <v>400.82</v>
+        <v>398.38</v>
       </c>
       <c r="H9" t="n">
         <v>413.45</v>
@@ -885,7 +887,7 @@
         <v>410.64</v>
       </c>
       <c r="G10" t="n">
-        <v>389.3</v>
+        <v>389.5</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1019,7 +1021,7 @@
         <v>366.26</v>
       </c>
       <c r="G14" t="n">
-        <v>397.96</v>
+        <v>397.2</v>
       </c>
       <c r="H14" t="n">
         <v>403.04</v>
@@ -1161,7 +1163,7 @@
         <v>371.77</v>
       </c>
       <c r="G18" t="n">
-        <v>370.16</v>
+        <v>370.72</v>
       </c>
       <c r="H18" t="n">
         <v>365.88</v>
@@ -1212,7 +1214,7 @@
         <v>382.66</v>
       </c>
       <c r="G19" t="n">
-        <v>374.01</v>
+        <v>375.81</v>
       </c>
       <c r="H19" t="n">
         <v>370.47</v>
@@ -1263,7 +1265,7 @@
         <v>375.13</v>
       </c>
       <c r="G20" t="n">
-        <v>382.83</v>
+        <v>385.01</v>
       </c>
       <c r="H20" t="n">
         <v>379.93</v>
@@ -1314,7 +1316,7 @@
         <v>388.04</v>
       </c>
       <c r="G21" t="n">
-        <v>390.54</v>
+        <v>392.32</v>
       </c>
       <c r="H21" t="n">
         <v>389.64</v>
@@ -1365,7 +1367,7 @@
         <v>432.39</v>
       </c>
       <c r="G22" t="n">
-        <v>423.58</v>
+        <v>420.4</v>
       </c>
       <c r="H22" t="n">
         <v>421.39</v>
@@ -1416,7 +1418,7 @@
         <v>398.2</v>
       </c>
       <c r="G23" t="n">
-        <v>389.04</v>
+        <v>388.6</v>
       </c>
       <c r="H23" t="n">
         <v>395.28</v>
@@ -1467,7 +1469,7 @@
         <v>410.92</v>
       </c>
       <c r="G24" t="n">
-        <v>402.22</v>
+        <v>400.84</v>
       </c>
       <c r="H24" t="n">
         <v>392.83</v>
@@ -1518,7 +1520,7 @@
         <v>425.57</v>
       </c>
       <c r="G25" t="n">
-        <v>412.89</v>
+        <v>410.56</v>
       </c>
       <c r="H25" t="n">
         <v>413.14</v>
@@ -1569,7 +1571,7 @@
         <v>381.08</v>
       </c>
       <c r="G26" t="n">
-        <v>380.75</v>
+        <v>382.57</v>
       </c>
       <c r="H26" t="n">
         <v>373.14</v>
@@ -1610,7 +1612,7 @@
         <v>410.42</v>
       </c>
       <c r="G27" t="n">
-        <v>410.69</v>
+        <v>412.67</v>
       </c>
       <c r="H27" t="n">
         <v>396.37</v>
@@ -1829,7 +1831,7 @@
         <v>388.78</v>
       </c>
       <c r="G34" t="n">
-        <v>386.82</v>
+        <v>388.93</v>
       </c>
       <c r="H34" t="n">
         <v>377.29</v>
@@ -1878,7 +1880,7 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>422.96</v>
+        <v>420.12</v>
       </c>
       <c r="H35" t="n">
         <v>422.01</v>
@@ -1929,7 +1931,7 @@
         <v>384.78</v>
       </c>
       <c r="G36" t="n">
-        <v>379.88</v>
+        <v>378.48</v>
       </c>
       <c r="H36" t="n">
         <v>390.48</v>
@@ -1976,7 +1978,7 @@
         <v>397.78</v>
       </c>
       <c r="G37" t="n">
-        <v>410.25</v>
+        <v>412.18</v>
       </c>
       <c r="H37" t="n">
         <v>408.35</v>
@@ -2027,7 +2029,7 @@
         <v>446.12</v>
       </c>
       <c r="G38" t="n">
-        <v>434.38</v>
+        <v>431.25</v>
       </c>
       <c r="H38" t="n">
         <v>427.1</v>
@@ -2078,7 +2080,7 @@
         <v>426.23</v>
       </c>
       <c r="G39" t="n">
-        <v>418.4</v>
+        <v>417.13</v>
       </c>
       <c r="H39" t="n">
         <v>415.62</v>
@@ -2129,7 +2131,7 @@
         <v>402.12</v>
       </c>
       <c r="G40" t="n">
-        <v>396.24</v>
+        <v>396.46</v>
       </c>
       <c r="H40" t="n">
         <v>389.65</v>
@@ -2180,7 +2182,7 @@
         <v>417.82</v>
       </c>
       <c r="G41" t="n">
-        <v>417.49</v>
+        <v>419.33</v>
       </c>
       <c r="H41" t="n">
         <v>407.86</v>
@@ -2221,7 +2223,7 @@
         <v>394.21</v>
       </c>
       <c r="G42" t="n">
-        <v>392.99</v>
+        <v>391.43</v>
       </c>
       <c r="H42" t="n">
         <v>387.07</v>
@@ -2299,7 +2301,7 @@
         <v>406.03</v>
       </c>
       <c r="G44" t="n">
-        <v>395.11</v>
+        <v>397.47</v>
       </c>
       <c r="H44" t="n">
         <v>397.15</v>
@@ -2373,7 +2375,7 @@
         <v>421.08</v>
       </c>
       <c r="G46" t="n">
-        <v>402.57</v>
+        <v>399.35</v>
       </c>
       <c r="H46" t="n">
         <v>405.76</v>
@@ -2422,7 +2424,7 @@
         <v>381.38</v>
       </c>
       <c r="G47" t="n">
-        <v>376.8</v>
+        <v>376.18</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2459,7 +2461,7 @@
         <v>423.37</v>
       </c>
       <c r="G48" t="n">
-        <v>407.64</v>
+        <v>403.68</v>
       </c>
       <c r="H48" t="n">
         <v>427.63</v>
@@ -2510,7 +2512,7 @@
         <v>401.66</v>
       </c>
       <c r="G49" t="n">
-        <v>383.72</v>
+        <v>384.68</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
@@ -2559,7 +2561,7 @@
         <v>410.95</v>
       </c>
       <c r="G50" t="n">
-        <v>398.43</v>
+        <v>399.45</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
@@ -2635,7 +2637,7 @@
         <v>415.54</v>
       </c>
       <c r="G52" t="n">
-        <v>425.17</v>
+        <v>423.93</v>
       </c>
       <c r="H52" t="n">
         <v>429.93</v>
@@ -2686,7 +2688,7 @@
         <v>415.92</v>
       </c>
       <c r="G53" t="n">
-        <v>408.73</v>
+        <v>408.6</v>
       </c>
       <c r="H53" t="n">
         <v>418.58</v>
@@ -2737,7 +2739,7 @@
         <v>440.05</v>
       </c>
       <c r="G54" t="n">
-        <v>426.86</v>
+        <v>422.86</v>
       </c>
       <c r="H54" t="n">
         <v>441.86</v>
@@ -2899,7 +2901,9 @@
       <c r="F59" t="n">
         <v>401.28</v>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>371.38</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2928,7 +2932,9 @@
       <c r="F60" t="n">
         <v>370.42</v>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>375.45</v>
+      </c>
       <c r="H60" t="n">
         <v>379.51</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>425.18</v>
       </c>
       <c r="G62" t="n">
-        <v>414.88</v>
+        <v>413.01</v>
       </c>
       <c r="H62" t="n">
         <v>406.51</v>
@@ -3223,7 +3229,7 @@
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>386.04</v>
+        <v>385.64</v>
       </c>
       <c r="H68" t="n">
         <v>368.69</v>
@@ -3431,7 +3437,7 @@
         <v>404.43</v>
       </c>
       <c r="G74" t="n">
-        <v>394.41</v>
+        <v>393.7</v>
       </c>
       <c r="H74" t="n">
         <v>390.07</v>
@@ -3476,7 +3482,7 @@
         <v>400.88</v>
       </c>
       <c r="G75" t="n">
-        <v>404.74</v>
+        <v>404.98</v>
       </c>
       <c r="H75" t="n">
         <v>410.96</v>
@@ -3527,7 +3533,7 @@
         <v>426.44</v>
       </c>
       <c r="G76" t="n">
-        <v>415.28</v>
+        <v>412.64</v>
       </c>
       <c r="H76" t="n">
         <v>396.78</v>
@@ -3564,7 +3570,7 @@
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>375.9</v>
+        <v>377.86</v>
       </c>
       <c r="H77" t="n">
         <v>379.89</v>
@@ -3615,7 +3621,7 @@
         <v>419</v>
       </c>
       <c r="G78" t="n">
-        <v>404.7</v>
+        <v>401.99</v>
       </c>
       <c r="H78" t="n">
         <v>415.45</v>
@@ -3666,7 +3672,7 @@
         <v>419.78</v>
       </c>
       <c r="G79" t="n">
-        <v>414.05</v>
+        <v>411.52</v>
       </c>
       <c r="H79" t="n">
         <v>412.45</v>
@@ -3715,7 +3721,7 @@
         <v>406.87</v>
       </c>
       <c r="G80" t="n">
-        <v>402.85</v>
+        <v>402.05</v>
       </c>
       <c r="H80" t="n">
         <v>410.44</v>
@@ -3752,7 +3758,7 @@
         <v>428.07</v>
       </c>
       <c r="G81" t="n">
-        <v>411.92</v>
+        <v>410.72</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -4010,7 +4016,7 @@
         <v>431.47</v>
       </c>
       <c r="G89" t="n">
-        <v>421.92</v>
+        <v>419.16</v>
       </c>
       <c r="H89" t="n">
         <v>398.98</v>
@@ -4049,7 +4055,7 @@
         <v>392.22</v>
       </c>
       <c r="G90" t="n">
-        <v>406.14</v>
+        <v>408.18</v>
       </c>
       <c r="H90" t="n">
         <v>397.18</v>
@@ -4092,7 +4098,7 @@
         <v>417.08</v>
       </c>
       <c r="G91" t="n">
-        <v>413.1</v>
+        <v>410.52</v>
       </c>
       <c r="H91" t="n">
         <v>411.05</v>
@@ -4135,7 +4141,7 @@
         <v>405.82</v>
       </c>
       <c r="G92" t="n">
-        <v>398.61</v>
+        <v>396.88</v>
       </c>
       <c r="H92" t="n">
         <v>396.55</v>
@@ -4184,7 +4190,7 @@
         <v>397.25</v>
       </c>
       <c r="G93" t="n">
-        <v>400.73</v>
+        <v>400.2</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -4258,7 +4264,7 @@
         <v>373.49</v>
       </c>
       <c r="G95" t="n">
-        <v>391.57</v>
+        <v>393.37</v>
       </c>
       <c r="H95" t="n">
         <v>383.9</v>
@@ -4389,7 +4395,7 @@
         <v>423.48</v>
       </c>
       <c r="G98" t="n">
-        <v>409.23</v>
+        <v>406.96</v>
       </c>
       <c r="H98" t="n">
         <v>408.78</v>
@@ -4440,7 +4446,7 @@
         <v>396.21</v>
       </c>
       <c r="G99" t="n">
-        <v>416.56</v>
+        <v>417.54</v>
       </c>
       <c r="H99" t="n">
         <v>403.17</v>
@@ -4541,7 +4547,7 @@
         <v>406.57</v>
       </c>
       <c r="G102" t="n">
-        <v>406.3</v>
+        <v>403.37</v>
       </c>
       <c r="H102" t="n">
         <v>384.71</v>
@@ -4601,7 +4607,7 @@
         <v>374.49</v>
       </c>
       <c r="G104" t="n">
-        <v>378.11</v>
+        <v>378.91</v>
       </c>
       <c r="H104" t="n">
         <v>371.55</v>
@@ -4712,7 +4718,7 @@
         <v>412.71</v>
       </c>
       <c r="G107" t="n">
-        <v>398.16</v>
+        <v>395.29</v>
       </c>
       <c r="H107" t="n">
         <v>393.86</v>
@@ -4763,7 +4769,7 @@
         <v>374.72</v>
       </c>
       <c r="G108" t="n">
-        <v>369.35</v>
+        <v>369.44</v>
       </c>
       <c r="H108" t="n">
         <v>374.57</v>
@@ -4808,7 +4814,7 @@
         <v>404.35</v>
       </c>
       <c r="G109" t="n">
-        <v>395.16</v>
+        <v>393.58</v>
       </c>
       <c r="H109" t="n">
         <v>394.31</v>
@@ -4859,7 +4865,7 @@
         <v>398.73</v>
       </c>
       <c r="G110" t="n">
-        <v>387.66</v>
+        <v>388.93</v>
       </c>
       <c r="H110" t="n">
         <v>390.45</v>
@@ -4904,7 +4910,7 @@
         <v>410.89</v>
       </c>
       <c r="G111" t="n">
-        <v>398.65</v>
+        <v>398.45</v>
       </c>
       <c r="H111" t="n">
         <v>400.46</v>
@@ -4955,7 +4961,7 @@
         <v>429.73</v>
       </c>
       <c r="G112" t="n">
-        <v>408.34</v>
+        <v>407.03</v>
       </c>
       <c r="H112" t="n">
         <v>407.43</v>
@@ -5000,7 +5006,7 @@
         <v>420.2</v>
       </c>
       <c r="G113" t="n">
-        <v>404.02</v>
+        <v>403.84</v>
       </c>
       <c r="H113" t="n">
         <v>391.76</v>
@@ -5051,7 +5057,7 @@
         <v>426.28</v>
       </c>
       <c r="G114" t="n">
-        <v>413.24</v>
+        <v>412.8</v>
       </c>
       <c r="H114" t="n">
         <v>402.12</v>
@@ -5192,7 +5198,7 @@
         <v>431.16</v>
       </c>
       <c r="G117" t="n">
-        <v>412.17</v>
+        <v>409.53</v>
       </c>
       <c r="H117" t="n">
         <v>398.91</v>
@@ -5266,7 +5272,7 @@
         <v>405.6</v>
       </c>
       <c r="G119" t="n">
-        <v>395.33</v>
+        <v>396.57</v>
       </c>
       <c r="H119" t="n">
         <v>377.02</v>
@@ -5311,7 +5317,7 @@
         <v>378.06</v>
       </c>
       <c r="G120" t="n">
-        <v>379.97</v>
+        <v>382.17</v>
       </c>
       <c r="H120" t="n">
         <v>364.43</v>
@@ -5362,7 +5368,7 @@
         <v>404.58</v>
       </c>
       <c r="G121" t="n">
-        <v>392.4</v>
+        <v>392.44</v>
       </c>
       <c r="H121" t="n">
         <v>375.72</v>
@@ -5493,7 +5499,7 @@
         <v>388.98</v>
       </c>
       <c r="G124" t="n">
-        <v>383.23</v>
+        <v>384.72</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -5592,7 +5598,7 @@
         <v>365.1</v>
       </c>
       <c r="G127" t="n">
-        <v>368.45</v>
+        <v>369.89</v>
       </c>
       <c r="H127" t="n">
         <v>367.07</v>
@@ -5833,7 +5839,7 @@
         <v>385.32</v>
       </c>
       <c r="G134" t="n">
-        <v>397.15</v>
+        <v>397.11</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -5874,7 +5880,7 @@
         <v>380.06</v>
       </c>
       <c r="G135" t="n">
-        <v>384.54</v>
+        <v>385.38</v>
       </c>
       <c r="H135" t="n">
         <v>375.06</v>
@@ -5917,7 +5923,7 @@
         <v>373.71</v>
       </c>
       <c r="G136" t="n">
-        <v>387.19</v>
+        <v>388.63</v>
       </c>
       <c r="H136" t="n">
         <v>380.19</v>
@@ -5960,7 +5966,7 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>397.8</v>
+        <v>395.13</v>
       </c>
       <c r="H137" t="n">
         <v>411.52</v>
@@ -6034,7 +6040,7 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>399.63</v>
+        <v>397.19</v>
       </c>
       <c r="H139" t="n">
         <v>402.61</v>
@@ -6126,7 +6132,7 @@
         <v>386.75</v>
       </c>
       <c r="G141" t="n">
-        <v>380.66</v>
+        <v>382.84</v>
       </c>
       <c r="H141" t="n">
         <v>373.24</v>
@@ -6218,7 +6224,7 @@
         <v>394.06</v>
       </c>
       <c r="G143" t="n">
-        <v>392.78</v>
+        <v>393.34</v>
       </c>
       <c r="H143" t="n">
         <v>381.13</v>
@@ -6269,7 +6275,7 @@
         <v>401.94</v>
       </c>
       <c r="G144" t="n">
-        <v>396.91</v>
+        <v>396.78</v>
       </c>
       <c r="H144" t="n">
         <v>392.59</v>
@@ -6415,7 +6421,7 @@
         <v>390.72</v>
       </c>
       <c r="G148" t="n">
-        <v>391.91</v>
+        <v>393.64</v>
       </c>
       <c r="H148" t="n">
         <v>387.97</v>
@@ -6503,7 +6509,7 @@
         <v>365.51</v>
       </c>
       <c r="G150" t="n">
-        <v>367.42</v>
+        <v>369.51</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -6589,7 +6595,7 @@
         <v>399.22</v>
       </c>
       <c r="G152" t="n">
-        <v>386.42</v>
+        <v>388.26</v>
       </c>
       <c r="H152" t="n">
         <v>378.53</v>
@@ -6737,7 +6743,7 @@
         <v>387.96</v>
       </c>
       <c r="G156" t="n">
-        <v>381.89</v>
+        <v>382.11</v>
       </c>
       <c r="H156" t="n">
         <v>375.72</v>
@@ -6782,7 +6788,7 @@
         <v>369.45</v>
       </c>
       <c r="G157" t="n">
-        <v>366.94</v>
+        <v>368.45</v>
       </c>
       <c r="H157" t="n">
         <v>356</v>
@@ -6827,7 +6833,7 @@
         <v>387.95</v>
       </c>
       <c r="G158" t="n">
-        <v>375.04</v>
+        <v>376.77</v>
       </c>
       <c r="H158" t="n">
         <v>361.65</v>
@@ -6878,7 +6884,7 @@
         <v>394.62</v>
       </c>
       <c r="G159" t="n">
-        <v>383.67</v>
+        <v>384.25</v>
       </c>
       <c r="H159" t="n">
         <v>371.78</v>
@@ -6923,7 +6929,7 @@
         <v>400.35</v>
       </c>
       <c r="G160" t="n">
-        <v>397.78</v>
+        <v>397.51</v>
       </c>
       <c r="H160" t="n">
         <v>389.01</v>
@@ -6974,7 +6980,7 @@
         <v>400.41</v>
       </c>
       <c r="G161" t="n">
-        <v>400.87</v>
+        <v>401.8</v>
       </c>
       <c r="H161" t="n">
         <v>399.33</v>
@@ -7023,7 +7029,7 @@
         <v>408.05</v>
       </c>
       <c r="G162" t="n">
-        <v>407.59</v>
+        <v>405.28</v>
       </c>
       <c r="H162" t="n">
         <v>396.57</v>
@@ -7068,7 +7074,7 @@
         <v>397.88</v>
       </c>
       <c r="G163" t="n">
-        <v>392.11</v>
+        <v>393.18</v>
       </c>
       <c r="H163" t="n">
         <v>391.42</v>
@@ -7119,7 +7125,7 @@
         <v>419.73</v>
       </c>
       <c r="G164" t="n">
-        <v>422.16</v>
+        <v>420.2</v>
       </c>
       <c r="H164" t="n">
         <v>427.69</v>
@@ -7164,7 +7170,7 @@
         <v>436.85</v>
       </c>
       <c r="G165" t="n">
-        <v>427.11</v>
+        <v>423.95</v>
       </c>
       <c r="H165" t="n">
         <v>428.57</v>
@@ -7209,7 +7215,7 @@
         <v>407.93</v>
       </c>
       <c r="G166" t="n">
-        <v>396.25</v>
+        <v>393.23</v>
       </c>
       <c r="H166" t="n">
         <v>396.69</v>
@@ -7260,7 +7266,7 @@
         <v>397.8</v>
       </c>
       <c r="G167" t="n">
-        <v>408.62</v>
+        <v>410.22</v>
       </c>
       <c r="H167" t="n">
         <v>405.5</v>
@@ -7307,7 +7313,7 @@
         <v>433.45</v>
       </c>
       <c r="G168" t="n">
-        <v>421.35</v>
+        <v>417.68</v>
       </c>
       <c r="H168" t="n">
         <v>422.58</v>
@@ -7348,7 +7354,7 @@
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
-        <v>381.71</v>
+        <v>381.82</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -7496,7 +7502,7 @@
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>380.19</v>
+        <v>380.77</v>
       </c>
       <c r="H173" t="n">
         <v>369.04</v>
@@ -7535,7 +7541,7 @@
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>384.64</v>
+        <v>384.15</v>
       </c>
       <c r="H174" t="n">
         <v>387.39</v>
@@ -7669,7 +7675,7 @@
         <v>412.75</v>
       </c>
       <c r="G178" t="n">
-        <v>381.51</v>
+        <v>378.42</v>
       </c>
       <c r="H178" t="n">
         <v>380.35</v>
@@ -7718,7 +7724,7 @@
         <v>344.85</v>
       </c>
       <c r="G179" t="n">
-        <v>335.78</v>
+        <v>338.11</v>
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
@@ -7755,7 +7761,7 @@
         <v>363.65</v>
       </c>
       <c r="G180" t="n">
-        <v>361.58</v>
+        <v>362.65</v>
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
@@ -7841,7 +7847,7 @@
         <v>397</v>
       </c>
       <c r="G182" t="n">
-        <v>390.88</v>
+        <v>387.95</v>
       </c>
       <c r="H182" t="n">
         <v>390.34</v>
@@ -8037,7 +8043,7 @@
         <v>354.23</v>
       </c>
       <c r="G188" t="n">
-        <v>376.08</v>
+        <v>376.77</v>
       </c>
       <c r="H188" t="n">
         <v>355.68</v>
@@ -8080,7 +8086,7 @@
         <v>388.8</v>
       </c>
       <c r="G189" t="n">
-        <v>376.9</v>
+        <v>374.12</v>
       </c>
       <c r="H189" t="n">
         <v>360.98</v>
@@ -8183,7 +8189,7 @@
         <v>403.29</v>
       </c>
       <c r="G192" t="n">
-        <v>391.92</v>
+        <v>390.45</v>
       </c>
       <c r="H192" t="n">
         <v>391.39</v>
@@ -8234,7 +8240,7 @@
         <v>408.11</v>
       </c>
       <c r="G193" t="n">
-        <v>392.39</v>
+        <v>388.97</v>
       </c>
       <c r="H193" t="n">
         <v>394.36</v>
@@ -8283,7 +8289,7 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>367.01</v>
+        <v>368.68</v>
       </c>
       <c r="H194" t="n">
         <v>364.65</v>
@@ -8330,7 +8336,7 @@
         <v>429.36</v>
       </c>
       <c r="G195" t="n">
-        <v>412.91</v>
+        <v>409.31</v>
       </c>
       <c r="H195" t="n">
         <v>419.35</v>
@@ -8379,7 +8385,7 @@
         <v>407.2</v>
       </c>
       <c r="G196" t="n">
-        <v>409.66</v>
+        <v>408.7</v>
       </c>
       <c r="H196" t="n">
         <v>408.08</v>
@@ -8426,7 +8432,7 @@
         <v>389.5</v>
       </c>
       <c r="G197" t="n">
-        <v>377.35</v>
+        <v>379.02</v>
       </c>
       <c r="H197" t="n">
         <v>372.78</v>
@@ -8477,7 +8483,7 @@
         <v>414.58</v>
       </c>
       <c r="G198" t="n">
-        <v>396.82</v>
+        <v>394.71</v>
       </c>
       <c r="H198" t="n">
         <v>403.76</v>
@@ -8528,7 +8534,7 @@
         <v>383.32</v>
       </c>
       <c r="G199" t="n">
-        <v>378.14</v>
+        <v>380.01</v>
       </c>
       <c r="H199" t="n">
         <v>367.37</v>
@@ -8579,7 +8585,7 @@
         <v>391.48</v>
       </c>
       <c r="G200" t="n">
-        <v>389.04</v>
+        <v>389.84</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -8626,7 +8632,7 @@
         <v>387.98</v>
       </c>
       <c r="G201" t="n">
-        <v>390.4</v>
+        <v>390.18</v>
       </c>
       <c r="H201" t="n">
         <v>389.38</v>
@@ -8673,7 +8679,7 @@
         <v>413.31</v>
       </c>
       <c r="G202" t="n">
-        <v>403.7</v>
+        <v>402.39</v>
       </c>
       <c r="H202" t="n">
         <v>403.23</v>
@@ -8721,7 +8727,9 @@
         <v>386.55</v>
       </c>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>364.63</v>
+      </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
         <v>356.25</v>
@@ -8865,7 +8873,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
-        <v>539.28</v>
+        <v>539.64</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -8902,7 +8910,7 @@
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>551.33</v>
+        <v>551.35</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -8929,7 +8937,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>589.05</v>
+        <v>590.05</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -8958,7 +8966,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>558.78</v>
+        <v>561.45</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="n">
@@ -9067,7 +9075,7 @@
         <v>440.34</v>
       </c>
       <c r="G214" t="n">
-        <v>417.8</v>
+        <v>415.84</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -9104,7 +9112,7 @@
         <v>404.6</v>
       </c>
       <c r="G215" t="n">
-        <v>399.51</v>
+        <v>398.13</v>
       </c>
       <c r="H215" t="n">
         <v>392.61</v>
@@ -9149,7 +9157,7 @@
         <v>377.02</v>
       </c>
       <c r="G216" t="n">
-        <v>382.24</v>
+        <v>382.4</v>
       </c>
       <c r="H216" t="n">
         <v>387.93</v>
@@ -9245,7 +9253,7 @@
         <v>359.84</v>
       </c>
       <c r="G218" t="n">
-        <v>355.83</v>
+        <v>357.76</v>
       </c>
       <c r="H218" t="n">
         <v>365.8</v>
@@ -9296,7 +9304,7 @@
         <v>377.12</v>
       </c>
       <c r="G219" t="n">
-        <v>358.74</v>
+        <v>356.58</v>
       </c>
       <c r="H219" t="n">
         <v>377.93</v>
@@ -9347,7 +9355,7 @@
         <v>422.57</v>
       </c>
       <c r="G220" t="n">
-        <v>404.49</v>
+        <v>400.89</v>
       </c>
       <c r="H220" t="n">
         <v>409.4</v>
@@ -9398,7 +9406,7 @@
         <v>406.44</v>
       </c>
       <c r="G221" t="n">
-        <v>398.46</v>
+        <v>397.04</v>
       </c>
       <c r="H221" t="n">
         <v>391.16</v>
@@ -9449,7 +9457,7 @@
         <v>389.57</v>
       </c>
       <c r="G222" t="n">
-        <v>384.45</v>
+        <v>384.72</v>
       </c>
       <c r="H222" t="n">
         <v>376.39</v>
@@ -9494,7 +9502,7 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>386.96</v>
+        <v>388.14</v>
       </c>
       <c r="H223" t="n">
         <v>379.2</v>
@@ -9541,7 +9549,7 @@
         <v>383.6</v>
       </c>
       <c r="G224" t="n">
-        <v>392.2</v>
+        <v>394.82</v>
       </c>
       <c r="H224" t="n">
         <v>386.13</v>
@@ -9590,7 +9598,7 @@
         <v>382.51</v>
       </c>
       <c r="G225" t="n">
-        <v>387.34</v>
+        <v>388.76</v>
       </c>
       <c r="H225" t="n">
         <v>385.82</v>
@@ -9635,7 +9643,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="n">
-        <v>393.91</v>
+        <v>395.73</v>
       </c>
       <c r="H226" t="n">
         <v>391.85</v>
@@ -9680,7 +9688,7 @@
         <v>389.2</v>
       </c>
       <c r="G227" t="n">
-        <v>395.86</v>
+        <v>396.48</v>
       </c>
       <c r="H227" t="n">
         <v>400.62</v>
@@ -9731,7 +9739,7 @@
         <v>367.25</v>
       </c>
       <c r="G228" t="n">
-        <v>374.94</v>
+        <v>376.65</v>
       </c>
       <c r="H228" t="n">
         <v>372.93</v>
@@ -9782,7 +9790,7 @@
         <v>392.75</v>
       </c>
       <c r="G229" t="n">
-        <v>390</v>
+        <v>390.76</v>
       </c>
       <c r="H229" t="n">
         <v>389.41</v>
@@ -9827,7 +9835,7 @@
         <v>400.46</v>
       </c>
       <c r="G230" t="n">
-        <v>392.63</v>
+        <v>392.03</v>
       </c>
       <c r="H230" t="n">
         <v>391.61</v>
@@ -9874,7 +9882,7 @@
         <v>436.11</v>
       </c>
       <c r="G231" t="n">
-        <v>421.91</v>
+        <v>420.27</v>
       </c>
       <c r="H231" t="n">
         <v>417.88</v>
@@ -9948,7 +9956,7 @@
         <v>408.97</v>
       </c>
       <c r="G233" t="n">
-        <v>392.92</v>
+        <v>391.5</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -10035,7 +10043,7 @@
         <v>371.4</v>
       </c>
       <c r="G236" t="n">
-        <v>372.29</v>
+        <v>374.58</v>
       </c>
       <c r="H236" t="n">
         <v>354.86</v>
@@ -10295,7 +10303,7 @@
         <v>355.38</v>
       </c>
       <c r="G244" t="n">
-        <v>341.79</v>
+        <v>343.61</v>
       </c>
       <c r="H244" t="n">
         <v>340.22</v>
@@ -10393,7 +10401,7 @@
         <v>372.06</v>
       </c>
       <c r="G246" t="n">
-        <v>367.33</v>
+        <v>366.11</v>
       </c>
       <c r="H246" t="n">
         <v>366.65</v>
@@ -10440,7 +10448,7 @@
         <v>406.59</v>
       </c>
       <c r="G247" t="n">
-        <v>391.47</v>
+        <v>388.54</v>
       </c>
       <c r="H247" t="n">
         <v>393.42</v>
@@ -10489,7 +10497,7 @@
         <v>399.25</v>
       </c>
       <c r="G248" t="n">
-        <v>397.38</v>
+        <v>398.47</v>
       </c>
       <c r="H248" t="n">
         <v>389.61</v>
@@ -10540,7 +10548,7 @@
         <v>414.73</v>
       </c>
       <c r="G249" t="n">
-        <v>408.09</v>
+        <v>406.25</v>
       </c>
       <c r="H249" t="n">
         <v>407.36</v>
@@ -10589,7 +10597,7 @@
         <v>390.4</v>
       </c>
       <c r="G250" t="n">
-        <v>398.86</v>
+        <v>398.44</v>
       </c>
       <c r="H250" t="n">
         <v>388.93</v>
@@ -10638,7 +10646,7 @@
         <v>395.71</v>
       </c>
       <c r="G251" t="n">
-        <v>401.22</v>
+        <v>400.93</v>
       </c>
       <c r="H251" t="n">
         <v>394.37</v>
@@ -10689,7 +10697,7 @@
         <v>408.19</v>
       </c>
       <c r="G252" t="n">
-        <v>396.28</v>
+        <v>393.57</v>
       </c>
       <c r="H252" t="n">
         <v>390.84</v>
@@ -10740,7 +10748,7 @@
         <v>372.08</v>
       </c>
       <c r="G253" t="n">
-        <v>376.83</v>
+        <v>378.79</v>
       </c>
       <c r="H253" t="n">
         <v>363.6</v>
@@ -10791,7 +10799,7 @@
         <v>376.7</v>
       </c>
       <c r="G254" t="n">
-        <v>374.7</v>
+        <v>376.12</v>
       </c>
       <c r="H254" t="n">
         <v>368.83</v>
@@ -10842,7 +10850,7 @@
         <v>399.3</v>
       </c>
       <c r="G255" t="n">
-        <v>387.07</v>
+        <v>388.63</v>
       </c>
       <c r="H255" t="n">
         <v>373.92</v>
@@ -10889,7 +10897,7 @@
         <v>382.13</v>
       </c>
       <c r="G256" t="n">
-        <v>368.12</v>
+        <v>367.3</v>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -11065,7 +11073,7 @@
         <v>379.94</v>
       </c>
       <c r="G262" t="n">
-        <v>374.34</v>
+        <v>375.52</v>
       </c>
       <c r="H262" t="n">
         <v>366.4</v>
@@ -11110,7 +11118,7 @@
         <v>359.87</v>
       </c>
       <c r="G263" t="n">
-        <v>341.92</v>
+        <v>341.76</v>
       </c>
       <c r="H263" t="n">
         <v>351.96</v>
@@ -11244,7 +11252,7 @@
         <v>369.2</v>
       </c>
       <c r="G267" t="n">
-        <v>357.93</v>
+        <v>359.6</v>
       </c>
       <c r="H267" t="n">
         <v>356.54</v>
@@ -11295,7 +11303,7 @@
         <v>372</v>
       </c>
       <c r="G268" t="n">
-        <v>374.23</v>
+        <v>375.94</v>
       </c>
       <c r="H268" t="n">
         <v>368.26</v>
@@ -11340,7 +11348,7 @@
         <v>407.65</v>
       </c>
       <c r="G269" t="n">
-        <v>383.46</v>
+        <v>379.62</v>
       </c>
       <c r="H269" t="n">
         <v>385.91</v>
@@ -11391,7 +11399,7 @@
         <v>374.19</v>
       </c>
       <c r="G270" t="n">
-        <v>376.3</v>
+        <v>377.57</v>
       </c>
       <c r="H270" t="n">
         <v>364.88</v>
@@ -11442,7 +11450,7 @@
         <v>407.31</v>
       </c>
       <c r="G271" t="n">
-        <v>392.18</v>
+        <v>389.51</v>
       </c>
       <c r="H271" t="n">
         <v>387.84</v>
@@ -11493,7 +11501,7 @@
         <v>394.69</v>
       </c>
       <c r="G272" t="n">
-        <v>383.25</v>
+        <v>382.56</v>
       </c>
       <c r="H272" t="n">
         <v>375.15</v>
@@ -11544,7 +11552,7 @@
         <v>382.15</v>
       </c>
       <c r="G273" t="n">
-        <v>376.26</v>
+        <v>376.99</v>
       </c>
       <c r="H273" t="n">
         <v>377.55</v>
@@ -11595,7 +11603,7 @@
         <v>382.69</v>
       </c>
       <c r="G274" t="n">
-        <v>383.84</v>
+        <v>385.51</v>
       </c>
       <c r="H274" t="n">
         <v>376.99</v>
@@ -11762,7 +11770,7 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>373.24</v>
+        <v>369.44</v>
       </c>
       <c r="H279" t="n">
         <v>380.66</v>
@@ -11937,7 +11945,7 @@
         <v>370.84</v>
       </c>
       <c r="G284" t="n">
-        <v>373.95</v>
+        <v>375.68</v>
       </c>
       <c r="H284" t="n">
         <v>363.72</v>
@@ -11986,7 +11994,7 @@
         <v>370.07</v>
       </c>
       <c r="G285" t="n">
-        <v>380.79</v>
+        <v>382.79</v>
       </c>
       <c r="H285" t="n">
         <v>368.54</v>
@@ -12029,7 +12037,7 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>367.29</v>
+        <v>368.27</v>
       </c>
       <c r="H286" t="n">
         <v>366.63</v>
@@ -12076,7 +12084,7 @@
         <v>381.98</v>
       </c>
       <c r="G287" t="n">
-        <v>385.77</v>
+        <v>386.28</v>
       </c>
       <c r="H287" t="n">
         <v>377.91</v>
@@ -12127,7 +12135,7 @@
         <v>394.4</v>
       </c>
       <c r="G288" t="n">
-        <v>384.5</v>
+        <v>383.5</v>
       </c>
       <c r="H288" t="n">
         <v>392.47</v>
@@ -12178,7 +12186,7 @@
         <v>411</v>
       </c>
       <c r="G289" t="n">
-        <v>404.16</v>
+        <v>401.78</v>
       </c>
       <c r="H289" t="n">
         <v>408.5</v>
@@ -12221,7 +12229,7 @@
         <v>408.29</v>
       </c>
       <c r="G290" t="n">
-        <v>385.39</v>
+        <v>382.86</v>
       </c>
       <c r="H290" t="n">
         <v>390.04</v>
@@ -12272,7 +12280,7 @@
         <v>389.95</v>
       </c>
       <c r="G291" t="n">
-        <v>368.38</v>
+        <v>364.71</v>
       </c>
       <c r="H291" t="n">
         <v>371.24</v>
@@ -12317,7 +12325,7 @@
         <v>382.41</v>
       </c>
       <c r="G292" t="n">
-        <v>382.94</v>
+        <v>385.1</v>
       </c>
       <c r="H292" t="n">
         <v>379.8</v>
@@ -12362,7 +12370,7 @@
         <v>416.27</v>
       </c>
       <c r="G293" t="n">
-        <v>402.46</v>
+        <v>398.9</v>
       </c>
       <c r="H293" t="n">
         <v>400.1</v>
@@ -12403,7 +12411,7 @@
         <v>386.81</v>
       </c>
       <c r="G294" t="n">
-        <v>385.34</v>
+        <v>386.81</v>
       </c>
       <c r="H294" t="n">
         <v>379.07</v>
@@ -12450,7 +12458,7 @@
         <v>399.92</v>
       </c>
       <c r="G295" t="n">
-        <v>393.99</v>
+        <v>395.23</v>
       </c>
       <c r="H295" t="n">
         <v>396.74</v>
@@ -12776,7 +12784,7 @@
         <v>391.03</v>
       </c>
       <c r="G305" t="n">
-        <v>387.65</v>
+        <v>385.67</v>
       </c>
       <c r="H305" t="n">
         <v>391.26</v>
@@ -12914,7 +12922,7 @@
         <v>414.31</v>
       </c>
       <c r="G309" t="n">
-        <v>404.86</v>
+        <v>402.17</v>
       </c>
       <c r="H309" t="n">
         <v>413.01</v>
@@ -12957,7 +12965,7 @@
         <v>408.85</v>
       </c>
       <c r="G310" t="n">
-        <v>407.14</v>
+        <v>404.32</v>
       </c>
       <c r="H310" t="n">
         <v>414.14</v>
@@ -13008,7 +13016,7 @@
         <v>374.45</v>
       </c>
       <c r="G311" t="n">
-        <v>381.98</v>
+        <v>383.42</v>
       </c>
       <c r="H311" t="n">
         <v>376.01</v>
@@ -13059,7 +13067,7 @@
         <v>395.47</v>
       </c>
       <c r="G312" t="n">
-        <v>394.1</v>
+        <v>393.14</v>
       </c>
       <c r="H312" t="n">
         <v>389.69</v>
@@ -13110,7 +13118,7 @@
         <v>376.16</v>
       </c>
       <c r="G313" t="n">
-        <v>369.18</v>
+        <v>369.2</v>
       </c>
       <c r="H313" t="n">
         <v>368.85</v>
@@ -13190,7 +13198,7 @@
         <v>378.71</v>
       </c>
       <c r="G315" t="n">
-        <v>379.66</v>
+        <v>380.73</v>
       </c>
       <c r="H315" t="n">
         <v>378.52</v>
@@ -13241,7 +13249,7 @@
         <v>418.08</v>
       </c>
       <c r="G316" t="n">
-        <v>409.11</v>
+        <v>406.35</v>
       </c>
       <c r="H316" t="n">
         <v>414.32</v>
@@ -13292,7 +13300,7 @@
         <v>418.15</v>
       </c>
       <c r="G317" t="n">
-        <v>408.89</v>
+        <v>405.98</v>
       </c>
       <c r="H317" t="n">
         <v>407.79</v>
@@ -13567,7 +13575,7 @@
         <v>413.01</v>
       </c>
       <c r="G326" t="n">
-        <v>400.81</v>
+        <v>398.7</v>
       </c>
       <c r="H326" t="n">
         <v>397.3</v>
@@ -13604,7 +13612,7 @@
         <v>405.71</v>
       </c>
       <c r="G327" t="n">
-        <v>389.21</v>
+        <v>389.34</v>
       </c>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
@@ -13641,7 +13649,7 @@
         <v>393.26</v>
       </c>
       <c r="G328" t="n">
-        <v>379.48</v>
+        <v>378.52</v>
       </c>
       <c r="H328" t="n">
         <v>361.47</v>
@@ -13690,7 +13698,7 @@
         <v>395.26</v>
       </c>
       <c r="G329" t="n">
-        <v>387.8</v>
+        <v>388.13</v>
       </c>
       <c r="H329" t="n">
         <v>365.44</v>
@@ -13731,7 +13739,7 @@
         <v>413.36</v>
       </c>
       <c r="G330" t="n">
-        <v>394.94</v>
+        <v>391.23</v>
       </c>
       <c r="H330" t="n">
         <v>392.13</v>
@@ -13782,7 +13790,7 @@
         <v>395.82</v>
       </c>
       <c r="G331" t="n">
-        <v>383.97</v>
+        <v>383.26</v>
       </c>
       <c r="H331" t="n">
         <v>385.58</v>
@@ -13829,7 +13837,7 @@
         <v>413.04</v>
       </c>
       <c r="G332" t="n">
-        <v>400.99</v>
+        <v>398.55</v>
       </c>
       <c r="H332" t="n">
         <v>396.27</v>
@@ -13876,7 +13884,7 @@
         <v>414.36</v>
       </c>
       <c r="G333" t="n">
-        <v>399.73</v>
+        <v>396.13</v>
       </c>
       <c r="H333" t="n">
         <v>390.53</v>
@@ -14015,7 +14023,7 @@
         <v>381.02</v>
       </c>
       <c r="G336" t="n">
-        <v>375.23</v>
+        <v>375.96</v>
       </c>
       <c r="H336" t="n">
         <v>373.22</v>
@@ -14066,7 +14074,7 @@
         <v>395.99</v>
       </c>
       <c r="G337" t="n">
-        <v>382.87</v>
+        <v>383.14</v>
       </c>
       <c r="H337" t="n">
         <v>380.51</v>
@@ -14109,7 +14117,7 @@
         <v>393.79</v>
       </c>
       <c r="G338" t="n">
-        <v>385.19</v>
+        <v>384.15</v>
       </c>
       <c r="H338" t="n">
         <v>382.33</v>
@@ -14235,7 +14243,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="n">
-        <v>357.79</v>
+        <v>358.59</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -14491,7 +14499,7 @@
         <v>380.13</v>
       </c>
       <c r="G350" t="n">
-        <v>367.3</v>
+        <v>367.99</v>
       </c>
       <c r="H350" t="n">
         <v>377.69</v>
@@ -14540,7 +14548,7 @@
         <v>395.38</v>
       </c>
       <c r="G351" t="n">
-        <v>381.69</v>
+        <v>379.42</v>
       </c>
       <c r="H351" t="n">
         <v>380.33</v>
@@ -14591,7 +14599,7 @@
         <v>384.6</v>
       </c>
       <c r="G352" t="n">
-        <v>374.71</v>
+        <v>372.15</v>
       </c>
       <c r="H352" t="n">
         <v>372.37</v>
@@ -14642,7 +14650,7 @@
         <v>356.4</v>
       </c>
       <c r="G353" t="n">
-        <v>361.62</v>
+        <v>363.15</v>
       </c>
       <c r="H353" t="n">
         <v>354.75</v>
@@ -14736,7 +14744,7 @@
         <v>364</v>
       </c>
       <c r="G355" t="n">
-        <v>350.05</v>
+        <v>350.52</v>
       </c>
       <c r="H355" t="n">
         <v>348.57</v>
@@ -14838,7 +14846,7 @@
         <v>376.49</v>
       </c>
       <c r="G357" t="n">
-        <v>368.79</v>
+        <v>371.23</v>
       </c>
       <c r="H357" t="n">
         <v>357.83</v>
@@ -14881,7 +14889,7 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="n">
-        <v>396.25</v>
+        <v>393.72</v>
       </c>
       <c r="H358" t="n">
         <v>401.23</v>
@@ -14930,7 +14938,7 @@
         <v>386.52</v>
       </c>
       <c r="G359" t="n">
-        <v>385.9</v>
+        <v>387.39</v>
       </c>
       <c r="H359" t="n">
         <v>369.96</v>
@@ -14971,7 +14979,7 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
-        <v>413.26</v>
+        <v>409.79</v>
       </c>
       <c r="H360" t="n">
         <v>414.69</v>
@@ -15022,7 +15030,7 @@
         <v>396.29</v>
       </c>
       <c r="G361" t="n">
-        <v>389.95</v>
+        <v>390.26</v>
       </c>
       <c r="H361" t="n">
         <v>384.83</v>
@@ -15065,7 +15073,7 @@
         <v>423.4</v>
       </c>
       <c r="G362" t="n">
-        <v>389.8</v>
+        <v>387.29</v>
       </c>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
@@ -15102,7 +15110,7 @@
         <v>389.99</v>
       </c>
       <c r="G363" t="n">
-        <v>387.55</v>
+        <v>385.53</v>
       </c>
       <c r="H363" t="n">
         <v>374.39</v>
@@ -15294,7 +15302,7 @@
         <v>394.33</v>
       </c>
       <c r="G369" t="n">
-        <v>383.97</v>
+        <v>385.57</v>
       </c>
       <c r="H369" t="n">
         <v>371.75</v>
@@ -15331,7 +15339,7 @@
         <v>409.08</v>
       </c>
       <c r="G370" t="n">
-        <v>393.29</v>
+        <v>389.89</v>
       </c>
       <c r="H370" t="n">
         <v>394.27</v>
@@ -15368,7 +15376,7 @@
         <v>394.91</v>
       </c>
       <c r="G371" t="n">
-        <v>387.63</v>
+        <v>385.3</v>
       </c>
       <c r="H371" t="n">
         <v>385.87</v>
@@ -15419,7 +15427,7 @@
         <v>422.73</v>
       </c>
       <c r="G372" t="n">
-        <v>403.61</v>
+        <v>401.14</v>
       </c>
       <c r="H372" t="n">
         <v>396.28</v>
@@ -15470,7 +15478,7 @@
         <v>409.55</v>
       </c>
       <c r="G373" t="n">
-        <v>391.81</v>
+        <v>388.99</v>
       </c>
       <c r="H373" t="n">
         <v>401.15</v>
@@ -15521,7 +15529,7 @@
         <v>399.34</v>
       </c>
       <c r="G374" t="n">
-        <v>383.18</v>
+        <v>382.02</v>
       </c>
       <c r="H374" t="n">
         <v>374.2</v>
@@ -15572,7 +15580,7 @@
         <v>394.67</v>
       </c>
       <c r="G375" t="n">
-        <v>393.88</v>
+        <v>393.84</v>
       </c>
       <c r="H375" t="n">
         <v>386.89</v>
@@ -15621,7 +15629,7 @@
         <v>402.67</v>
       </c>
       <c r="G376" t="n">
-        <v>399.08</v>
+        <v>398.66</v>
       </c>
       <c r="H376" t="n">
         <v>404.26</v>
@@ -15670,7 +15678,7 @@
         <v>437.36</v>
       </c>
       <c r="G377" t="n">
-        <v>427.33</v>
+        <v>424.53</v>
       </c>
       <c r="H377" t="n">
         <v>428.21</v>
@@ -15713,7 +15721,7 @@
         <v>391.98</v>
       </c>
       <c r="G378" t="n">
-        <v>380.9</v>
+        <v>379.14</v>
       </c>
       <c r="H378" t="n">
         <v>378.73</v>
@@ -15764,7 +15772,7 @@
         <v>415.29</v>
       </c>
       <c r="G379" t="n">
-        <v>402.78</v>
+        <v>400.36</v>
       </c>
       <c r="H379" t="n">
         <v>405.61</v>
@@ -15815,7 +15823,7 @@
         <v>371.49</v>
       </c>
       <c r="G380" t="n">
-        <v>371.39</v>
+        <v>372.83</v>
       </c>
       <c r="H380" t="n">
         <v>368.13</v>
@@ -15866,7 +15874,7 @@
         <v>380.78</v>
       </c>
       <c r="G381" t="n">
-        <v>375.59</v>
+        <v>376.83</v>
       </c>
       <c r="H381" t="n">
         <v>373.9</v>
@@ -15917,7 +15925,7 @@
         <v>364.79</v>
       </c>
       <c r="G382" t="n">
-        <v>371.39</v>
+        <v>373.19</v>
       </c>
       <c r="H382" t="n">
         <v>367.01</v>
@@ -15968,7 +15976,7 @@
         <v>378.06</v>
       </c>
       <c r="G383" t="n">
-        <v>385</v>
+        <v>385.89</v>
       </c>
       <c r="H383" t="n">
         <v>379.38</v>
@@ -16019,7 +16027,7 @@
         <v>401</v>
       </c>
       <c r="G384" t="n">
-        <v>395.74</v>
+        <v>393.01</v>
       </c>
       <c r="H384" t="n">
         <v>400.7</v>
@@ -16060,7 +16068,7 @@
         <v>400.63</v>
       </c>
       <c r="G385" t="n">
-        <v>399.24</v>
+        <v>397.64</v>
       </c>
       <c r="H385" t="n">
         <v>404.23</v>
@@ -16099,7 +16107,7 @@
         <v>392.3</v>
       </c>
       <c r="G386" t="n">
-        <v>380.96</v>
+        <v>380.05</v>
       </c>
       <c r="H386" t="n">
         <v>367.21</v>
@@ -16553,7 +16561,7 @@
         <v>378.5</v>
       </c>
       <c r="G400" t="n">
-        <v>377.45</v>
+        <v>377.34</v>
       </c>
       <c r="H400" t="n">
         <v>381.92</v>
@@ -16594,7 +16602,7 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="n">
-        <v>405.43</v>
+        <v>401.83</v>
       </c>
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="n">
@@ -16697,7 +16705,7 @@
         <v>385.3</v>
       </c>
       <c r="G404" t="n">
-        <v>381.77</v>
+        <v>381.75</v>
       </c>
       <c r="H404" t="n">
         <v>377.84</v>
@@ -16748,7 +16756,7 @@
         <v>384.03</v>
       </c>
       <c r="G405" t="n">
-        <v>380.41</v>
+        <v>378.43</v>
       </c>
       <c r="H405" t="n">
         <v>376.77</v>
@@ -16836,7 +16844,7 @@
         <v>378.78</v>
       </c>
       <c r="G407" t="n">
-        <v>385.86</v>
+        <v>386.82</v>
       </c>
       <c r="H407" t="n">
         <v>380.01</v>
@@ -16887,7 +16895,7 @@
         <v>411.49</v>
       </c>
       <c r="G408" t="n">
-        <v>409.28</v>
+        <v>407.7</v>
       </c>
       <c r="H408" t="n">
         <v>402.92</v>
@@ -16938,7 +16946,7 @@
         <v>382.23</v>
       </c>
       <c r="G409" t="n">
-        <v>387.18</v>
+        <v>389.16</v>
       </c>
       <c r="H409" t="n">
         <v>380.18</v>
@@ -16989,7 +16997,7 @@
         <v>390.69</v>
       </c>
       <c r="G410" t="n">
-        <v>389.34</v>
+        <v>390.76</v>
       </c>
       <c r="H410" t="n">
         <v>378.58</v>
@@ -17040,7 +17048,7 @@
         <v>374.37</v>
       </c>
       <c r="G411" t="n">
-        <v>374.89</v>
+        <v>373.78</v>
       </c>
       <c r="H411" t="n">
         <v>374.93</v>
@@ -17091,7 +17099,7 @@
         <v>384.1</v>
       </c>
       <c r="G412" t="n">
-        <v>377.49</v>
+        <v>377.05</v>
       </c>
       <c r="H412" t="n">
         <v>386.96</v>
@@ -17142,7 +17150,7 @@
         <v>407.51</v>
       </c>
       <c r="G413" t="n">
-        <v>394.65</v>
+        <v>391.98</v>
       </c>
       <c r="H413" t="n">
         <v>389.15</v>
@@ -17193,7 +17201,7 @@
         <v>418.55</v>
       </c>
       <c r="G414" t="n">
-        <v>397.91</v>
+        <v>394.04</v>
       </c>
       <c r="H414" t="n">
         <v>393.69</v>
@@ -17234,7 +17242,7 @@
         <v>381.51</v>
       </c>
       <c r="G415" t="n">
-        <v>379.15</v>
+        <v>380.53</v>
       </c>
       <c r="H415" t="n">
         <v>372.09</v>
@@ -17285,7 +17293,7 @@
         <v>399.97</v>
       </c>
       <c r="G416" t="n">
-        <v>395.13</v>
+        <v>396.17</v>
       </c>
       <c r="H416" t="n">
         <v>379.82</v>
@@ -17334,7 +17342,7 @@
         <v>401.95</v>
       </c>
       <c r="G417" t="n">
-        <v>394.09</v>
+        <v>391.05</v>
       </c>
       <c r="H417" t="n">
         <v>377.1</v>
@@ -17373,7 +17381,7 @@
         <v>379.74</v>
       </c>
       <c r="G418" t="n">
-        <v>386.39</v>
+        <v>388.19</v>
       </c>
       <c r="H418" t="n">
         <v>377.27</v>
@@ -17441,7 +17449,7 @@
         <v>377.17</v>
       </c>
       <c r="G420" t="n">
-        <v>375.85</v>
+        <v>375.54</v>
       </c>
       <c r="H420" t="n">
         <v>372.78</v>
@@ -17703,7 +17711,7 @@
         <v>415.51</v>
       </c>
       <c r="G428" t="n">
-        <v>398.72</v>
+        <v>395.81</v>
       </c>
       <c r="H428" t="n">
         <v>391.49</v>
@@ -17806,7 +17814,7 @@
         <v>363.92</v>
       </c>
       <c r="G431" t="n">
-        <v>366.93</v>
+        <v>366.91</v>
       </c>
       <c r="H431" t="n">
         <v>360.79</v>
@@ -17853,7 +17861,7 @@
         <v>363.36</v>
       </c>
       <c r="G432" t="n">
-        <v>367.89</v>
+        <v>366.85</v>
       </c>
       <c r="H432" t="n">
         <v>379.01</v>
@@ -17972,7 +17980,7 @@
         <v>363.74</v>
       </c>
       <c r="G435" t="n">
-        <v>357.98</v>
+        <v>359.98</v>
       </c>
       <c r="H435" t="n">
         <v>350.64</v>
@@ -18023,7 +18031,7 @@
         <v>395.83</v>
       </c>
       <c r="G436" t="n">
-        <v>378.67</v>
+        <v>376.49</v>
       </c>
       <c r="H436" t="n">
         <v>380.05</v>
@@ -18074,7 +18082,7 @@
         <v>369.43</v>
       </c>
       <c r="G437" t="n">
-        <v>368.96</v>
+        <v>370.27</v>
       </c>
       <c r="H437" t="n">
         <v>350.62</v>
@@ -18125,7 +18133,7 @@
         <v>413.19</v>
       </c>
       <c r="G438" t="n">
-        <v>397.65</v>
+        <v>395.12</v>
       </c>
       <c r="H438" t="n">
         <v>382.05</v>
@@ -18176,7 +18184,7 @@
         <v>401.03</v>
       </c>
       <c r="G439" t="n">
-        <v>386.51</v>
+        <v>385.38</v>
       </c>
       <c r="H439" t="n">
         <v>379.19</v>
@@ -18227,7 +18235,7 @@
         <v>375.32</v>
       </c>
       <c r="G440" t="n">
-        <v>374.71</v>
+        <v>374.4</v>
       </c>
       <c r="H440" t="n">
         <v>376.95</v>
@@ -18278,7 +18286,7 @@
         <v>397.76</v>
       </c>
       <c r="G441" t="n">
-        <v>391.43</v>
+        <v>389.63</v>
       </c>
       <c r="H441" t="n">
         <v>388.91</v>
@@ -18329,7 +18337,7 @@
         <v>413.42</v>
       </c>
       <c r="G442" t="n">
-        <v>400.96</v>
+        <v>398.36</v>
       </c>
       <c r="H442" t="n">
         <v>400.08</v>
@@ -18380,7 +18388,7 @@
         <v>376</v>
       </c>
       <c r="G443" t="n">
-        <v>378.57</v>
+        <v>380.21</v>
       </c>
       <c r="H443" t="n">
         <v>366.9</v>
@@ -18472,7 +18480,7 @@
         <v>356.97</v>
       </c>
       <c r="G445" t="n">
-        <v>354</v>
+        <v>355.56</v>
       </c>
       <c r="H445" t="n">
         <v>347.37</v>
@@ -18523,7 +18531,7 @@
         <v>366.05</v>
       </c>
       <c r="G446" t="n">
-        <v>366.57</v>
+        <v>367.59</v>
       </c>
       <c r="H446" t="n">
         <v>366.38</v>
@@ -18574,7 +18582,7 @@
         <v>399.87</v>
       </c>
       <c r="G447" t="n">
-        <v>382.7</v>
+        <v>380.21</v>
       </c>
       <c r="H447" t="n">
         <v>380.53</v>
@@ -18625,7 +18633,7 @@
         <v>385.06</v>
       </c>
       <c r="G448" t="n">
-        <v>376</v>
+        <v>375.29</v>
       </c>
       <c r="H448" t="n">
         <v>381.56</v>
@@ -18676,7 +18684,7 @@
         <v>379.28</v>
       </c>
       <c r="G449" t="n">
-        <v>369.6</v>
+        <v>369.27</v>
       </c>
       <c r="H449" t="n">
         <v>358.12</v>
@@ -18727,7 +18735,7 @@
         <v>395.67</v>
       </c>
       <c r="G450" t="n">
-        <v>379</v>
+        <v>377.89</v>
       </c>
       <c r="H450" t="n">
         <v>373.69</v>
@@ -18778,7 +18786,7 @@
         <v>387.64</v>
       </c>
       <c r="G451" t="n">
-        <v>374.66</v>
+        <v>374.1</v>
       </c>
       <c r="H451" t="n">
         <v>362.42</v>
@@ -18829,7 +18837,7 @@
         <v>360.31</v>
       </c>
       <c r="G452" t="n">
-        <v>375.17</v>
+        <v>376.88</v>
       </c>
       <c r="H452" t="n">
         <v>371.5</v>
@@ -18880,7 +18888,7 @@
         <v>397.56</v>
       </c>
       <c r="G453" t="n">
-        <v>395.4</v>
+        <v>392.51</v>
       </c>
       <c r="H453" t="n">
         <v>393.04</v>
@@ -18929,7 +18937,7 @@
         <v>372.06</v>
       </c>
       <c r="G454" t="n">
-        <v>382.38</v>
+        <v>382.82</v>
       </c>
       <c r="H454" t="n">
         <v>375.65</v>
@@ -18980,7 +18988,7 @@
         <v>400.78</v>
       </c>
       <c r="G455" t="n">
-        <v>403.39</v>
+        <v>399.46</v>
       </c>
       <c r="H455" t="n">
         <v>401.75</v>
@@ -19019,7 +19027,7 @@
         <v>378.92</v>
       </c>
       <c r="G456" t="n">
-        <v>382.5</v>
+        <v>383.94</v>
       </c>
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr"/>
@@ -19087,7 +19095,7 @@
         <v>355.08</v>
       </c>
       <c r="G458" t="n">
-        <v>365.46</v>
+        <v>367.37</v>
       </c>
       <c r="H458" t="n">
         <v>349.62</v>
@@ -19250,7 +19258,7 @@
         <v>370.6</v>
       </c>
       <c r="G463" t="n">
-        <v>373.62</v>
+        <v>372.82</v>
       </c>
       <c r="H463" t="n">
         <v>374.12</v>
@@ -19617,7 +19625,7 @@
         <v>365.58</v>
       </c>
       <c r="G474" t="n">
-        <v>367.55</v>
+        <v>367.66</v>
       </c>
       <c r="H474" t="n">
         <v>386.84</v>
@@ -19668,7 +19676,7 @@
         <v>378.49</v>
       </c>
       <c r="G475" t="n">
-        <v>373.04</v>
+        <v>372.57</v>
       </c>
       <c r="H475" t="n">
         <v>382.06</v>
@@ -19711,7 +19719,7 @@
         <v>403.32</v>
       </c>
       <c r="G476" t="n">
-        <v>381.87</v>
+        <v>378.16</v>
       </c>
       <c r="H476" t="n">
         <v>382.6</v>
@@ -19762,7 +19770,7 @@
         <v>406.09</v>
       </c>
       <c r="G477" t="n">
-        <v>388.85</v>
+        <v>386.54</v>
       </c>
       <c r="H477" t="n">
         <v>374.49</v>
@@ -19813,7 +19821,7 @@
         <v>401.82</v>
       </c>
       <c r="G478" t="n">
-        <v>382.38</v>
+        <v>379.91</v>
       </c>
       <c r="H478" t="n">
         <v>377.46</v>
@@ -19864,7 +19872,7 @@
         <v>391.06</v>
       </c>
       <c r="G479" t="n">
-        <v>378.57</v>
+        <v>377.5</v>
       </c>
       <c r="H479" t="n">
         <v>378.55</v>
@@ -19915,7 +19923,7 @@
         <v>351.48</v>
       </c>
       <c r="G480" t="n">
-        <v>347.03</v>
+        <v>349.34</v>
       </c>
       <c r="H480" t="n">
         <v>350.83</v>
@@ -19964,7 +19972,7 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="n">
-        <v>400.85</v>
+        <v>398.05</v>
       </c>
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="n">
@@ -20013,7 +20021,7 @@
         <v>365.73</v>
       </c>
       <c r="G482" t="n">
-        <v>362.93</v>
+        <v>364.6</v>
       </c>
       <c r="H482" t="n">
         <v>361.21</v>
@@ -20064,7 +20072,7 @@
         <v>366.37</v>
       </c>
       <c r="G483" t="n">
-        <v>369.07</v>
+        <v>370.76</v>
       </c>
       <c r="H483" t="n">
         <v>366.37</v>
@@ -20115,7 +20123,7 @@
         <v>414.85</v>
       </c>
       <c r="G484" t="n">
-        <v>414.96</v>
+        <v>413.29</v>
       </c>
       <c r="H484" t="n">
         <v>409.59</v>
@@ -20166,7 +20174,7 @@
         <v>385.22</v>
       </c>
       <c r="G485" t="n">
-        <v>386.05</v>
+        <v>386.58</v>
       </c>
       <c r="H485" t="n">
         <v>372.06</v>
@@ -20217,7 +20225,7 @@
         <v>381.84</v>
       </c>
       <c r="G486" t="n">
-        <v>373.52</v>
+        <v>373.43</v>
       </c>
       <c r="H486" t="n">
         <v>377.92</v>
@@ -20268,7 +20276,7 @@
         <v>391.78</v>
       </c>
       <c r="G487" t="n">
-        <v>389</v>
+        <v>388.33</v>
       </c>
       <c r="H487" t="n">
         <v>388.07</v>
@@ -20319,7 +20327,7 @@
         <v>408.18</v>
       </c>
       <c r="G488" t="n">
-        <v>402.11</v>
+        <v>399.98</v>
       </c>
       <c r="H488" t="n">
         <v>401.84</v>
@@ -20370,7 +20378,7 @@
         <v>415.39</v>
       </c>
       <c r="G489" t="n">
-        <v>405.54</v>
+        <v>402.94</v>
       </c>
       <c r="H489" t="n">
         <v>381.42</v>
@@ -20409,7 +20417,7 @@
         <v>413.25</v>
       </c>
       <c r="G490" t="n">
-        <v>401.64</v>
+        <v>398.62</v>
       </c>
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr"/>
@@ -20535,7 +20543,7 @@
         <v>347.28</v>
       </c>
       <c r="G494" t="n">
-        <v>350.79</v>
+        <v>352.37</v>
       </c>
       <c r="H494" t="n">
         <v>357.56</v>
@@ -20974,7 +20982,7 @@
         <v>392.38</v>
       </c>
       <c r="G507" t="n">
-        <v>382.4</v>
+        <v>380.76</v>
       </c>
       <c r="H507" t="n">
         <v>381.21</v>
@@ -21025,7 +21033,7 @@
         <v>378.95</v>
       </c>
       <c r="G508" t="n">
-        <v>367.34</v>
+        <v>367.67</v>
       </c>
       <c r="H508" t="n">
         <v>368.83</v>
@@ -21076,7 +21084,7 @@
         <v>395.45</v>
       </c>
       <c r="G509" t="n">
-        <v>384.4</v>
+        <v>382.42</v>
       </c>
       <c r="H509" t="n">
         <v>380.05</v>
@@ -21125,13 +21133,15 @@
         <v>425.22</v>
       </c>
       <c r="G510" t="n">
-        <v>423.68</v>
+        <v>420.26</v>
       </c>
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="n">
         <v>400.89</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>401.2</v>
+      </c>
       <c r="K510" t="n">
         <v>400.05</v>
       </c>
@@ -21147,6 +21157,51 @@
       <c r="O510" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:19:33+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>399.92</v>
+      </c>
+      <c r="C511" t="n">
+        <v>409.68</v>
+      </c>
+      <c r="D511" t="n">
+        <v>392.56</v>
+      </c>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr"/>
+      <c r="H511" t="n">
+        <v>358.86</v>
+      </c>
+      <c r="I511" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="J511" t="n">
+        <v>368.83</v>
+      </c>
+      <c r="K511" t="n">
+        <v>365.15</v>
+      </c>
+      <c r="L511" t="n">
+        <v>374.23</v>
+      </c>
+      <c r="M511" t="n">
+        <v>376.06</v>
+      </c>
+      <c r="N511" t="n">
+        <v>361.93</v>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -21161,7 +21216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B534"/>
+  <dimension ref="A1:B535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26509,6 +26564,16 @@
       </c>
       <c r="B534" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>-0.99</v>
       </c>
     </row>
   </sheetData>
@@ -26679,31 +26744,31 @@
         <v>0.0438</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.455436119297072</v>
+        <v>-1.454867985085311</v>
       </c>
       <c r="J2" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K2" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2092998003084376</v>
+        <v>0.2099229566028679</v>
       </c>
       <c r="M2" t="n">
-        <v>14.43591564688109</v>
+        <v>14.40332392487602</v>
       </c>
       <c r="N2" t="n">
-        <v>510.1890692783742</v>
+        <v>508.9582655549225</v>
       </c>
       <c r="O2" t="n">
-        <v>22.5873652575588</v>
+        <v>22.56010340301929</v>
       </c>
       <c r="P2" t="n">
-        <v>436.8025583154973</v>
+        <v>436.7971571390921</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26754,34 +26819,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.056</v>
+        <v>0.0559</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0915</v>
+        <v>0.0912</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.567155734274262</v>
+        <v>-1.554290301674171</v>
       </c>
       <c r="J3" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1486868627282392</v>
+        <v>0.1468621137713776</v>
       </c>
       <c r="M3" t="n">
-        <v>20.71407706274522</v>
+        <v>20.70962381410841</v>
       </c>
       <c r="N3" t="n">
-        <v>876.3003063872678</v>
+        <v>876.3478533668181</v>
       </c>
       <c r="O3" t="n">
-        <v>29.60236994544977</v>
+        <v>29.60317302869437</v>
       </c>
       <c r="P3" t="n">
-        <v>420.8442954839602</v>
+        <v>420.7184421739638</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26832,34 +26897,34 @@
         <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0407</v>
+        <v>0.0406</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.289891946134256</v>
+        <v>-2.269800232021123</v>
       </c>
       <c r="J4" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K4" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07052638251533916</v>
+        <v>0.06959904052266674</v>
       </c>
       <c r="M4" t="n">
-        <v>49.20717847824589</v>
+        <v>49.12740321500361</v>
       </c>
       <c r="N4" t="n">
-        <v>4349.972805026518</v>
+        <v>4343.80382757618</v>
       </c>
       <c r="O4" t="n">
-        <v>65.95432362648046</v>
+        <v>65.90753999032417</v>
       </c>
       <c r="P4" t="n">
-        <v>407.3830967432812</v>
+        <v>407.1862197104329</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26919,7 +26984,7 @@
         <v>-2.736338989027831</v>
       </c>
       <c r="J5" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K5" t="n">
         <v>362</v>
@@ -26991,13 +27056,13 @@
         <v>0.0296</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0478</v>
+        <v>0.0479</v>
       </c>
       <c r="I6" t="n">
         <v>-1.059524183768107</v>
       </c>
       <c r="J6" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K6" t="n">
         <v>296</v>
@@ -27066,34 +27131,34 @@
         <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.036</v>
+        <v>0.0362</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0717</v>
+        <v>0.0721</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8697926791840366</v>
+        <v>-0.8334396736716304</v>
       </c>
       <c r="J7" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K7" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06515315723141579</v>
+        <v>0.06308802344899589</v>
       </c>
       <c r="M7" t="n">
-        <v>14.6118101382294</v>
+        <v>13.92869392553557</v>
       </c>
       <c r="N7" t="n">
-        <v>643.8367282276744</v>
+        <v>620.8766115842328</v>
       </c>
       <c r="O7" t="n">
-        <v>25.37393797240929</v>
+        <v>24.91739576248354</v>
       </c>
       <c r="P7" t="n">
-        <v>405.1468159366013</v>
+        <v>403.7231293874867</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27144,34 +27209,34 @@
         <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0324</v>
+        <v>0.0323</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0633</v>
+        <v>0.0625</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9711422950723476</v>
+        <v>-0.9823032063367408</v>
       </c>
       <c r="J8" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K8" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1701160305993027</v>
+        <v>0.1738443807375663</v>
       </c>
       <c r="M8" t="n">
-        <v>13.11644652090113</v>
+        <v>13.12915966748283</v>
       </c>
       <c r="N8" t="n">
-        <v>275.101331454114</v>
+        <v>275.1229182990058</v>
       </c>
       <c r="O8" t="n">
-        <v>16.58617892867775</v>
+        <v>16.58682966389315</v>
       </c>
       <c r="P8" t="n">
-        <v>401.236426190411</v>
+        <v>401.3478257344182</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27222,34 +27287,34 @@
         <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.041</v>
+        <v>0.0408</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1452</v>
+        <v>0.1418</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.9942954904395195</v>
+        <v>-0.9990123060350674</v>
       </c>
       <c r="J9" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K9" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L9" t="n">
-        <v>0.223668299774726</v>
+        <v>0.2264219993706097</v>
       </c>
       <c r="M9" t="n">
-        <v>10.44040288942268</v>
+        <v>10.42528029050387</v>
       </c>
       <c r="N9" t="n">
-        <v>205.7862294703213</v>
+        <v>205.2171032243191</v>
       </c>
       <c r="O9" t="n">
-        <v>14.34525111213886</v>
+        <v>14.32540063049963</v>
       </c>
       <c r="P9" t="n">
-        <v>394.952551895271</v>
+        <v>394.9991712689965</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27300,34 +27365,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0497</v>
+        <v>0.0501</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1105</v>
+        <v>0.1123</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9827108906961673</v>
+        <v>-0.9606887821082136</v>
       </c>
       <c r="J10" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K10" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2426220789074898</v>
+        <v>0.2332711035314105</v>
       </c>
       <c r="M10" t="n">
-        <v>10.47255771627369</v>
+        <v>10.50891770955971</v>
       </c>
       <c r="N10" t="n">
-        <v>183.2765812967676</v>
+        <v>185.828378351293</v>
       </c>
       <c r="O10" t="n">
-        <v>13.53796813767737</v>
+        <v>13.63188829000931</v>
       </c>
       <c r="P10" t="n">
-        <v>394.2531646942036</v>
+        <v>394.0410912086368</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27378,34 +27443,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0535</v>
+        <v>0.0539</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0973</v>
+        <v>0.0985</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9893399331406766</v>
+        <v>-0.9985608778172976</v>
       </c>
       <c r="J11" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K11" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1710074887662388</v>
+        <v>0.174431041179997</v>
       </c>
       <c r="M11" t="n">
-        <v>13.77074020654686</v>
+        <v>13.77231054199402</v>
       </c>
       <c r="N11" t="n">
-        <v>293.0220080888823</v>
+        <v>292.5871236892821</v>
       </c>
       <c r="O11" t="n">
-        <v>17.11788561969271</v>
+        <v>17.10517827119268</v>
       </c>
       <c r="P11" t="n">
-        <v>404.5964341699071</v>
+        <v>404.6845480925581</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27456,34 +27521,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.054</v>
+        <v>0.0543</v>
       </c>
       <c r="H12" t="n">
-        <v>0.099</v>
+        <v>0.1001</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.092941688161794</v>
+        <v>-1.098149256943413</v>
       </c>
       <c r="J12" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K12" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.197200932615366</v>
+        <v>0.1998558017507538</v>
       </c>
       <c r="M12" t="n">
-        <v>13.92707622993866</v>
+        <v>13.90586388973485</v>
       </c>
       <c r="N12" t="n">
-        <v>298.6084548418616</v>
+        <v>297.6346020199125</v>
       </c>
       <c r="O12" t="n">
-        <v>17.28029093626209</v>
+        <v>17.25208978703486</v>
       </c>
       <c r="P12" t="n">
-        <v>410.2932483632952</v>
+        <v>410.3435862201204</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27534,34 +27599,34 @@
         <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.056</v>
+        <v>0.0562</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1367</v>
+        <v>0.137</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.8218321172199939</v>
+        <v>-0.8218391212400775</v>
       </c>
       <c r="J13" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K13" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1189369041335931</v>
+        <v>0.1197336633177152</v>
       </c>
       <c r="M13" t="n">
-        <v>13.80068180266678</v>
+        <v>13.74723607085028</v>
       </c>
       <c r="N13" t="n">
-        <v>305.0253439162765</v>
+        <v>303.8430755367351</v>
       </c>
       <c r="O13" t="n">
-        <v>17.46497477571258</v>
+        <v>17.43109507566106</v>
       </c>
       <c r="P13" t="n">
-        <v>397.6706728168381</v>
+        <v>397.6707412908888</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27618,28 +27683,28 @@
         <v>0.1005</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9360470803679248</v>
+        <v>-0.9452676012979185</v>
       </c>
       <c r="J14" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K14" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1632388364737841</v>
+        <v>0.1666442499081806</v>
       </c>
       <c r="M14" t="n">
-        <v>13.24823884078948</v>
+        <v>13.24456061986917</v>
       </c>
       <c r="N14" t="n">
-        <v>277.5462895413946</v>
+        <v>277.1304902930667</v>
       </c>
       <c r="O14" t="n">
-        <v>16.65972057212829</v>
+        <v>16.64723671643635</v>
       </c>
       <c r="P14" t="n">
-        <v>399.768865525269</v>
+        <v>399.8584888373757</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27677,7 +27742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O510"/>
+  <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27855,7 +27920,11 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-40.95415809702542,172.09964973001772</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
@@ -27918,7 +27987,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-40.95423553877461,172.09916261609828</t>
+          <t>-40.95422991881762,172.09919796648907</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -27987,7 +28056,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-40.95420400032224,172.09936099683455</t>
+          <t>-40.954207864078434,172.09933669345992</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -28064,7 +28133,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-40.954232562417154,172.09918133785203</t>
+          <t>-40.95422583324994,172.09922366528926</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -28141,7 +28210,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-40.95418484784707,172.0994814671103</t>
+          <t>-40.954188175506296,172.09946053598617</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -28218,7 +28287,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-40.95418684444306,172.09946890843608</t>
+          <t>-40.95418233361313,172.09949728173612</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -28295,7 +28364,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-40.9541655473482,172.09960286759025</t>
+          <t>-40.954165917090755,172.0996005419112</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -28463,7 +28532,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-40.95418155715809,172.09950216566443</t>
+          <t>-40.954180152143664,172.09951100324872</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -28647,7 +28716,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-40.954130162766134,172.09982543495883</t>
+          <t>-40.95413119805785,172.09981892306416</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -28724,7 +28793,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-40.95413728038922,172.09978066567905</t>
+          <t>-40.95414060810311,172.099759734584</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -28801,7 +28870,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-40.9541535861507,172.09967810329388</t>
+          <t>-40.95415761635877,172.09965275339977</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -28878,7 +28947,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-40.95416783975135,172.09958844837973</t>
+          <t>-40.954171130455926,172.09956774983394</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -28955,7 +29024,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-40.954228920534646,172.0992042458342</t>
+          <t>-40.95422304175016,172.09924122419622</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -29032,7 +29101,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-40.95416506668279,172.09960589097298</t>
+          <t>-40.954164253248834,172.0996110074667</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -29109,7 +29178,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-40.954189432621,172.09945262867208</t>
+          <t>-40.95418688141704,172.09946867586802</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -29186,7 +29255,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-40.95420915815829,172.09932855357306</t>
+          <t>-40.95420485071878,172.09935564776669</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -29263,7 +29332,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-40.95414974080933,172.09970229034604</t>
+          <t>-40.954153105483314,172.09968112667556</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -29320,7 +29389,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-40.9542050910482,172.09935413607357</t>
+          <t>-40.954208751447524,172.09933111182326</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -29583,7 +29652,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-40.95416096253644,172.09963170600835</t>
+          <t>-40.95416486332433,172.09960717009642</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -29656,7 +29725,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-40.954227774357484,172.09921145545243</t>
+          <t>-40.95422252412077,172.0992444801523</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -29733,7 +29802,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-40.954148132419846,172.09971240704493</t>
+          <t>-40.954145544204984,172.0997286867893</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -29802,7 +29871,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-40.954204277625486,172.09935925257332</t>
+          <t>-40.95420784559156,172.09933680974405</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -29879,7 +29948,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-40.95424888612872,172.0990786588969</t>
+          <t>-40.95424309981794,172.09911505585941</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -29956,7 +30025,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-40.954219344395305,172.0992644810244</t>
+          <t>-40.954216996572534,172.099279249109</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -30033,7 +30102,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-40.954178377387635,172.09952216651257</t>
+          <t>-40.95417878410267,172.09951960826467</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -30110,7 +30179,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-40.954217662097285,172.0992750628804</t>
+          <t>-40.95422106366591,172.09925366659962</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -30167,7 +30236,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-40.95417236909094,172.09955995880773</t>
+          <t>-40.954169485104096,172.0995780991071</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -30273,7 +30342,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-40.9541762883505,172.09953530660363</t>
+          <t>-40.954180651293605,172.09950786358067</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -30371,7 +30440,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-40.954190079665125,172.09944855873087</t>
+          <t>-40.95418412685373,172.09948600218695</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -30444,7 +30513,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-40.95414243834411,172.09974822248088</t>
+          <t>-40.95414129213271,172.0997554320809</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -30493,7 +30562,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-40.95419945254521,172.09938960271694</t>
+          <t>-40.95419213171839,172.09943565120258</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -30570,7 +30639,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-40.95415523151156,172.09966775402557</t>
+          <t>-40.95415700628177,172.09965659076929</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -30643,7 +30712,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-40.95418242604824,172.09949670031605</t>
+          <t>-40.954184311723836,172.09948483934681</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -30745,7 +30814,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-40.95423185992241,172.0991857566508</t>
+          <t>-40.95422956756995,172.0992001758883</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -30822,7 +30891,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-40.95420146761802,172.09937692775327</t>
+          <t>-40.95420122728832,172.0993784394462</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -30899,7 +30968,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-40.95423498417407,172.09916610462395</t>
+          <t>-40.954227589490145,172.09921261829408</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -31098,7 +31167,11 @@
           <t>-40.95485068433275,172.09965415676191</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-40.95413241822262,172.09981124833095</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -31131,7 +31204,11 @@
           <t>-40.95479363256495,172.1000130124705</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-40.95413994256064,172.09976392080318</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>-40.95348445250007,172.09952610968816</t>
@@ -31259,7 +31336,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-40.954212837039314,172.09930541303592</t>
+          <t>-40.95420938000049,172.09932715816387</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -31521,7 +31598,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-40.95415952053771,172.09964077615518</t>
+          <t>-40.95415878105089,172.0996454275124</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -31787,7 +31864,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-40.95417499425596,172.0995434464827</t>
+          <t>-40.954173681673744,172.09955170264539</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -31852,7 +31929,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-40.95419409133545,172.09942332509377</t>
+          <t>-40.95419453502216,172.0994205342766</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -31929,7 +32006,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-40.95421357651232,172.09930076167137</t>
+          <t>-40.95420869598697,172.09933146067556</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -31978,7 +32055,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-40.95414077448869,172.0997586880292</t>
+          <t>-40.95414439799482,172.09973589638994</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -32055,7 +32132,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-40.95419401738767,172.09942379022993</t>
+          <t>-40.95418900742048,172.09945530320482</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -32132,7 +32209,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-40.95421130263222,172.09931506461706</t>
+          <t>-40.954206625458575,172.0993444844942</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -32205,7 +32282,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-40.95419059730031,172.09944530277787</t>
+          <t>-40.95418911834238,172.09945460550063</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -32254,7 +32331,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-40.954207364933175,172.0993398331305</t>
+          <t>-40.95420514650883,172.09935378722133</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -32570,7 +32647,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-40.95422585173669,172.0992235490051</t>
+          <t>-40.95422074939071,172.09925564342998</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -32623,7 +32700,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-40.95419667950692,172.09940704532633</t>
+          <t>-40.95420045083834,172.09938332337722</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -32684,7 +32761,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-40.95420954638213,172.09932611160698</t>
+          <t>-40.954204776771256,172.09935611290302</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -32745,7 +32822,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-40.9541827588146,172.0994946072039</t>
+          <t>-40.95417956055846,172.09951472433676</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -32818,7 +32895,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>-40.95418667806012,172.0994699549923</t>
+          <t>-40.95418569824923,172.09947611804543</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -32916,7 +32993,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-40.95416974392355,172.09957647113157</t>
+          <t>-40.95417307160014,172.09955554001667</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -33103,7 +33180,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-40.95420239196289,172.0993711135495</t>
+          <t>-40.95419819543485,172.09939751003336</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -33180,7 +33257,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-40.954215942824675,172.09928587730414</t>
+          <t>-40.95421775453128,172.09927448145976</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -33307,7 +33384,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>-40.95419697529779,172.09940518478138</t>
+          <t>-40.954191558622576,172.09943925600786</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -33377,7 +33454,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-40.954144860176385,172.09973298929296</t>
+          <t>-40.95414633915694,172.09972368658222</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -33524,7 +33601,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-40.954181926898606,172.0994998399843</t>
+          <t>-40.95417662111759,172.09953321349184</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -33601,7 +33678,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-40.954128665289964,172.09983485394898</t>
+          <t>-40.954128831676236,172.09983380739456</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -33666,7 +33743,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-40.95417638078581,172.0995347251837</t>
+          <t>-40.95417345982881,172.09955309805312</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -33743,7 +33820,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-40.954162515457355,172.0996219381575</t>
+          <t>-40.95416486332433,172.09960717009642</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -33808,7 +33885,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-40.95418283276268,172.09949414206784</t>
+          <t>-40.954182463022285,172.09949646774805</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -33885,7 +33962,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-40.954200746628835,172.0993814628321</t>
+          <t>-40.95419832484329,172.09939669604495</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -33950,7 +34027,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-40.95419276027494,172.0994316975451</t>
+          <t>-40.954192427509724,172.0994337906579</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -34027,7 +34104,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-40.954209805198005,172.09932448362952</t>
+          <t>-40.95420899177662,172.09932960012998</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -34234,7 +34311,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-40.9542078271047,172.09933692602812</t>
+          <t>-40.95420294656965,172.09936762502716</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -34332,7 +34409,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>-40.95417669506582,172.09953274835587</t>
+          <t>-40.95417898746015,172.09951832914066</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -34397,7 +34474,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-40.954148298805,172.0997113604899</t>
+          <t>-40.95415236599486,172.0996857780319</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -34474,7 +34551,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-40.95417127835267,172.09956681956217</t>
+          <t>-40.954171352301046,172.0995663544263</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -34661,7 +34738,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>-40.95415432563885,172.0996734519374</t>
+          <t>-40.9541570802305,172.09965612563357</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -34784,7 +34861,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>-40.95412700142664,172.0998453194931</t>
+          <t>-40.9541296636075,172.09982857462228</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -35091,7 +35168,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>-40.95418005970849,172.09951158466873</t>
+          <t>-40.95417998576034,172.09951204980473</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -35148,7 +35225,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-40.95415674746119,172.09965821874417</t>
+          <t>-40.95415830038436,172.09964845089453</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -35209,7 +35286,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>-40.95416164656124,172.0996274035027</t>
+          <t>-40.954164308710254,172.0996106586149</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -35270,7 +35347,7 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>-40.95418126136564,172.0995040262085</t>
+          <t>-40.954176325324624,172.09953507403569</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -35368,7 +35445,7 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-40.95418464449,172.09948274623451</t>
+          <t>-40.954180133656635,172.0995111195327</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -35502,7 +35579,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-40.95414957442426,172.09970333690111</t>
+          <t>-40.95415360463791,172.09967798700998</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -35636,7 +35713,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-40.95417198086212,172.09956240077122</t>
+          <t>-40.95417301613888,172.0995558888686</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -35713,7 +35790,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-40.95417961601957,172.09951437548472</t>
+          <t>-40.954179375688035,172.09951588717672</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -35905,7 +35982,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>-40.95417037248498,172.0995725174767</t>
+          <t>-40.95417357075128,172.09955240034927</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -36031,7 +36108,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-40.95412509722634,172.09985729672633</t>
+          <t>-40.95412896108779,172.09983299340777</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -36153,7 +36230,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-40.95416022305,172.09963635736577</t>
+          <t>-40.95416362468608,172.0996149611209</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -36349,7 +36426,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-40.95415184835283,172.09968903398126</t>
+          <t>-40.954152255071584,172.09968647573535</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -36414,7 +36491,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-40.95412420983158,172.09986287834934</t>
+          <t>-40.95412700142664,172.0998453194931</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -36479,7 +36556,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-40.95413918458153,172.0997686884416</t>
+          <t>-40.95414238288228,172.0997485713325</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -36556,7 +36633,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-40.95415513907558,172.09966833544513</t>
+          <t>-40.954156211332744,172.0996615909779</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -36621,7 +36698,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-40.95418122439159,172.09950425877653</t>
+          <t>-40.95418072524174,172.09950739844464</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -36698,7 +36775,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-40.95418693687802,172.09946832701596</t>
+          <t>-40.95418865616787,172.0994575126014</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -36771,7 +36848,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>-40.95419936011064,172.0993901841373</t>
+          <t>-40.954195089630446,172.09941704575502</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -36836,7 +36913,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-40.954170742226914,172.0995701917973</t>
+          <t>-40.95417272034556,172.09955774941224</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -36913,7 +36990,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>-40.95422629541853,172.0992207581853</t>
+          <t>-40.954222672014886,172.09924354987913</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -36978,7 +37055,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>-40.95423544634118,172.09916319751923</t>
+          <t>-40.954229604543386,172.09919994331997</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -37043,7 +37120,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>-40.954178395874685,172.09952205022856</t>
+          <t>-40.95417281278097,172.09955716799232</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -37120,7 +37197,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>-40.95420126426211,172.09937820687807</t>
+          <t>-40.95420422216485,172.09935960142556</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -37189,7 +37266,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-40.95422479799206,172.09923017720192</t>
+          <t>-40.954218013346406,172.09927285348192</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -37246,7 +37323,7 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-40.95415151558292,172.09969112709157</t>
+          <t>-40.954151718942306,172.0996898479686</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -37442,7 +37519,7 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>-40.95414870552424,172.09970880224427</t>
+          <t>-40.95414977778378,172.09970205777827</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -37495,7 +37572,7 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-40.954156932333035,172.09965705590497</t>
+          <t>-40.95415602646084,172.09966275381709</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -37663,7 +37740,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>-40.95415114583851,172.09969345276963</t>
+          <t>-40.95414543328144,172.0997293844926</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -37736,7 +37813,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>-40.95406660254075,172.1002252184</t>
+          <t>-40.9540709101859,172.1001981243159</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -37785,7 +37862,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-40.95411430057177,172.0999252064631</t>
+          <t>-40.95411627872895,172.09991276409855</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -37907,7 +37984,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>-40.95416846831318,172.09958449472506</t>
+          <t>-40.95416305158463,172.09961856592318</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -38149,7 +38226,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>-40.95414110725985,172.09975659491957</t>
+          <t>-40.95414238288228,172.0997485713325</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -38210,7 +38287,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>-40.95414262321688,172.09974705964214</t>
+          <t>-40.954137483749626,172.09977938655666</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -38341,7 +38418,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>-40.954170390972074,172.09957240119272</t>
+          <t>-40.95416767336731,172.09958949493537</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -38418,7 +38495,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>-40.95417125986557,172.09956693584616</t>
+          <t>-40.95416493727285,172.09960670496062</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -38491,7 +38568,7 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
-          <t>-40.954124339243336,172.09986206436264</t>
+          <t>-40.95412742663625,172.0998426449652</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -38560,7 +38637,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-40.954209195131995,172.0993283210049</t>
+          <t>-40.95420253985804,172.09937018327687</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -38633,7 +38710,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>-40.95420318689923,172.09936611333413</t>
+          <t>-40.95420141215733,172.0993772766055</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -38702,7 +38779,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-40.95414345514417,172.09974182686776</t>
+          <t>-40.9541465425167,172.09972240745947</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -38779,7 +38856,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>-40.9541794496362,172.09951542204072</t>
+          <t>-40.95417554886798,172.09953995796315</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -38856,7 +38933,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>-40.954144915638174,172.0997326404413</t>
+          <t>-40.954148372753956,172.09971089535435</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -38933,7 +39010,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-40.95416506668279,172.09960589097298</t>
+          <t>-40.95416654565302,172.09959658825676</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
@@ -39002,7 +39079,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>-40.954167580931724,172.09959007635516</t>
+          <t>-40.95416717421514,172.09959263460226</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -39071,7 +39148,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-40.95419216869231,172.0994354186345</t>
+          <t>-40.9541897468996,172.0994506518435</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -39142,7 +39219,11 @@
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>-40.954119939240556,172.09988973990804</t>
+        </is>
+      </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
@@ -39305,7 +39386,7 @@
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr">
         <is>
-          <t>-40.954442804041925,172.09785883381218</t>
+          <t>-40.95444346951478,172.09785464755595</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -39354,7 +39435,7 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-40.9544650788142,172.09771871046877</t>
+          <t>-40.954465115784636,172.0977184778988</t>
         </is>
       </c>
       <c r="H209" t="inlineStr"/>
@@ -39383,7 +39464,7 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr">
         <is>
-          <t>-40.95453480421341,172.09728008311416</t>
+          <t>-40.95453665269002,172.09726845459315</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -39416,7 +39497,7 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
-          <t>-40.95447885026818,172.09763207814854</t>
+          <t>-40.954483785793464,172.09760103004677</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -39559,7 +39640,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>-40.95421823518794,172.09927145807237</t>
+          <t>-40.95421461177422,172.09929424976085</t>
         </is>
       </c>
       <c r="H214" t="inlineStr"/>
@@ -39608,7 +39689,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>-40.954184422645895,172.0994841416427</t>
+          <t>-40.95418187143754,172.09950018883632</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -39673,7 +39754,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>-40.95415249540535,172.09968496404454</t>
+          <t>-40.95415279120075,172.09968310350203</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -39815,7 +39896,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>-40.95410367026467,172.09999206962482</t>
+          <t>-40.954107238354695,172.09996962686157</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -39892,7 +39973,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>-40.9541090501293,172.0999582310534</t>
+          <t>-40.95410505682867,172.09998334834404</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -39969,7 +40050,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>-40.954193629161736,172.09942623219496</t>
+          <t>-40.95418697385201,172.0994680944479</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -40046,7 +40127,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>-40.954182481509285,172.09949635146404</t>
+          <t>-40.954179856351075,172.09951286379274</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -40123,7 +40204,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>-40.95415658107651,172.09965926529947</t>
+          <t>-40.9541570802305,172.09965612563357</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -40188,7 +40269,7 @@
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr">
         <is>
-          <t>-40.95416122135665,172.09963007803324</t>
+          <t>-40.954163402840365,172.09961635652823</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -40257,7 +40338,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>-40.954170908610784,172.0995691452416</t>
+          <t>-40.954175752225694,172.09953867883928</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -40330,7 +40411,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>-40.95416192386855,172.0996256592436</t>
+          <t>-40.95416454904302,172.09960914692354</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -40395,7 +40476,7 @@
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr">
         <is>
-          <t>-40.95417406990236,172.0995492606818</t>
+          <t>-40.954177434548065,172.09952809699627</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -40460,7 +40541,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>-40.954177674879745,172.09952658530435</t>
+          <t>-40.95417882107676,172.09951937569664</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -40537,7 +40618,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>-40.95413899970854,172.0997698512802</t>
+          <t>-40.95414216103494,172.09974996673895</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -40614,7 +40695,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>-40.954166841446984,172.09959472771345</t>
+          <t>-40.95416824646784,172.09958589013263</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -40679,7 +40760,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>-40.95417170355577,172.09956414503083</t>
+          <t>-40.95417059433016,172.09957112206908</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -40748,7 +40829,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>-40.95422583324994,172.09922366528926</t>
+          <t>-40.95422280142224,172.0992427358901</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -40846,7 +40927,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>-40.95417223968134,172.09956077279557</t>
+          <t>-40.95416961451383,172.09957728511932</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
@@ -40945,7 +41026,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>-40.954134100570165,172.09980066650132</t>
+          <t>-40.95413833416569,172.09977403749917</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -41265,7 +41346,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>-40.9540777136639,172.1001553319358</t>
+          <t>-40.95408107842155,172.1001341683099</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -41411,7 +41492,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>-40.95412493083983,172.09985834328063</t>
+          <t>-40.95412267537752,172.09987252990544</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -41480,7 +41561,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>-40.95416955905253,172.09957763397122</t>
+          <t>-40.954164142326015,172.0996117051704</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -41553,7 +41634,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>-40.95418048491031,172.09950891013668</t>
+          <t>-40.95418249999632,172.09949623518003</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -41630,7 +41711,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>-40.95420028445616,172.09938436993386</t>
+          <t>-40.95419688286316,172.09940576620167</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -41703,7 +41784,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>-40.95418322099007,172.0994917001036</t>
+          <t>-40.954182444535256,172.09949658403204</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -41776,7 +41857,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>-40.9541875839227,172.09946425707506</t>
+          <t>-40.954187047799984,172.09946762931182</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -41853,7 +41934,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>-40.95417845133584,172.09952170137657</t>
+          <t>-40.95417344134174,172.09955321433708</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -41930,7 +42011,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>-40.954142493805946,172.09974787362927</t>
+          <t>-40.954146117309904,172.09972508198885</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -42007,7 +42088,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>-40.95413855601333,172.09977264209286</t>
+          <t>-40.954141181209,172.0997561297841</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -42084,7 +42165,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>-40.95416142471538,172.09962879890992</t>
+          <t>-40.954164308710254,172.0996106586149</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -42153,7 +42234,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>-40.95412639134318,172.09984915685916</t>
+          <t>-40.95412487537767,172.09985869213207</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -42355,7 +42436,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>-40.95413789047039,172.0997768283118</t>
+          <t>-40.95414007197168,172.09976310681614</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -42420,7 +42501,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>-40.95407795400384,172.10015382024832</t>
+          <t>-40.954077658200816,172.10015568078674</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -42588,7 +42669,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>-40.95410755264221,172.0999676500377</t>
+          <t>-40.95411064005303,172.09994823064983</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -42665,7 +42746,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>-40.95413768711001,172.09977810743422</t>
+          <t>-40.954140848437845,172.09975822289374</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -42730,7 +42811,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>-40.95415475084444,172.0996707774074</t>
+          <t>-40.95414765175154,172.09971543042613</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -42807,7 +42888,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>-40.95414151398011,172.09975403667445</t>
+          <t>-40.95414386186408,172.09973926862247</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -42884,7 +42965,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>-40.95417087163659,172.09956937780953</t>
+          <t>-40.95416593557789,172.09960042562724</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -42961,7 +43042,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>-40.954154362613245,172.09967321936958</t>
+          <t>-40.954153086996094,172.0996812429595</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -43038,7 +43119,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>-40.95414144003097,172.09975450180994</t>
+          <t>-40.95414278960235,172.09974601308727</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -43115,7 +43196,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>-40.954155453357885,172.09966635861855</t>
+          <t>-40.95415854071763,172.09964693920347</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -43324,7 +43405,7 @@
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr">
         <is>
-          <t>-40.95413585686601,172.09978961953576</t>
+          <t>-40.954128831676236,172.09983380739456</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -43549,7 +43630,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>-40.95413716946536,172.0997813633822</t>
+          <t>-40.954140367768346,172.09976124627428</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -43622,7 +43703,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-40.95414981475825,172.09970182521045</t>
+          <t>-40.954153512201884,172.09967856842954</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -43683,7 +43764,7 @@
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr">
         <is>
-          <t>-40.95412485689028,172.0998588084159</t>
+          <t>-40.954126668653856,172.09984741260186</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -43752,7 +43833,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>-40.954159021384136,172.0996439158213</t>
+          <t>-40.954159964229696,172.09963798534082</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -43829,7 +43910,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>-40.954156673512436,172.09965868387988</t>
+          <t>-40.95415482479322,172.0996703122717</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -43906,7 +43987,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>-40.954193019092315,172.09943006956848</t>
+          <t>-40.95418861919389,172.09945774516945</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -43967,7 +44048,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>-40.954158318871535,172.0996483346106</t>
+          <t>-40.95415364161232,172.09967775444218</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -44044,7 +44125,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>-40.95412687201501,172.09984613347984</t>
+          <t>-40.95412008713992,172.09988880963766</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -44109,7 +44190,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>-40.95415378950995,172.09967682417087</t>
+          <t>-40.954157782743394,172.09965170684447</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -44174,7 +44255,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>-40.95418987630841,172.09944983785527</t>
+          <t>-40.95418329493813,172.09949123496756</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -44231,7 +44312,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>-40.95415822643566,172.09964891603022</t>
+          <t>-40.954160944049285,172.09963182229228</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -44300,7 +44381,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>-40.95417421779894,172.09954833040993</t>
+          <t>-40.95417651019524,172.09953391119578</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -44702,7 +44783,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>-40.95416249697022,172.09962205444145</t>
+          <t>-40.954158836512406,172.09964507866061</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -44878,7 +44959,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>-40.95419431317882,172.09942192968518</t>
+          <t>-40.954189340186105,172.09945321009224</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -44939,7 +45020,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>-40.954198528199406,172.09939541692023</t>
+          <t>-40.954193314883575,172.09942820902376</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -45016,7 +45097,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>-40.95415201473777,172.0996879874261</t>
+          <t>-40.95415467689565,172.09967124254302</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -45093,7 +45174,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>-40.954174421156765,172.09954705128612</t>
+          <t>-40.954172646397225,172.09955821454813</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -45170,7 +45251,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>-40.95412835100474,172.09983683077402</t>
+          <t>-40.95412838797948,172.09983659820637</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -45280,7 +45361,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>-40.954147725700516,172.09971496529056</t>
+          <t>-40.95414970383487,172.09970252291384</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -45357,7 +45438,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>-40.95420217012015,172.0993725089584</t>
+          <t>-40.95419706773244,172.09940460336108</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -45434,7 +45515,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>-40.95420176340841,172.0993750672081</t>
+          <t>-40.95419638371602,172.09940890587123</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -45759,7 +45840,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>-40.95418682595606,172.0994690247201</t>
+          <t>-40.95418292519778,172.09949356064777</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -45808,7 +45889,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>-40.95416538096403,172.0996039141458</t>
+          <t>-40.95416562129671,172.09960240245445</t>
         </is>
       </c>
       <c r="H327" t="inlineStr"/>
@@ -45857,7 +45938,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>-40.95414739293012,172.09971705840059</t>
+          <t>-40.954145618154,172.09972822165375</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -45930,7 +46011,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>-40.95416277427745,172.0996203101823</t>
+          <t>-40.95416338435323,172.09961647281216</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -45987,7 +46068,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>-40.954175974070445,172.09953728343146</t>
+          <t>-40.95416911536199,172.09958042478638</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -46064,7 +46145,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>-40.954155693691405,172.09966484692762</t>
+          <t>-40.95415438110044,172.09967310308565</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -46133,7 +46214,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>-40.95418715872192,172.09946693160765</t>
+          <t>-40.954182647892495,172.09949530490795</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -46202,7 +46283,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>-40.95418482936007,172.09948158339432</t>
+          <t>-40.95417817403012,172.0995234456365</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -46405,7 +46486,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>-40.95413953584017,172.09976647904818</t>
+          <t>-40.95414088541242,172.09975799032603</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -46482,7 +46563,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>-40.95415366009952,172.09967763815825</t>
+          <t>-40.954154159254024,172.09967449849262</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -46543,7 +46624,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>-40.95415794912801,172.09965066028911</t>
+          <t>-40.95415602646084,172.09966275381709</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -46695,7 +46776,7 @@
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr">
         <is>
-          <t>-40.95410729381721,172.0999692780103</t>
+          <t>-40.95410877281693,172.0999599753098</t>
         </is>
       </c>
       <c r="H342" t="inlineStr"/>
@@ -47007,7 +47088,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>-40.95412487537767,172.09985869213207</t>
+          <t>-40.954126151007245,172.0998506685488</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -47080,7 +47161,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>-40.954151478608466,172.09969135965937</t>
+          <t>-40.954147282006645,172.09971775610393</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -47157,7 +47238,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>-40.95413857450063,172.09977252580902</t>
+          <t>-40.954133841747534,172.09980229447513</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -47234,7 +47315,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>-40.95411437452159,172.099924741328</t>
+          <t>-40.954117203101,172.09990694990927</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -47372,7 +47453,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>-40.95409298445577,172.10005928161686</t>
+          <t>-40.95409385337249,172.10005381628267</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -47526,7 +47607,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>-40.95412762999735,172.09984136584316</t>
+          <t>-40.954132140912485,172.0998129925885</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -47587,7 +47668,7 @@
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr">
         <is>
-          <t>-40.954178395874685,172.09952205022856</t>
+          <t>-40.9541737186479,172.09955147007742</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -47660,7 +47741,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>-40.954159261717344,172.09964240413024</t>
+          <t>-40.9541620163043,172.0996250778239</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -47717,7 +47798,7 @@
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr">
         <is>
-          <t>-40.95420984217168,172.09932425106135</t>
+          <t>-40.954203427228784,172.0993646016411</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -47794,7 +47875,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>-40.95416674901136,172.09959530913326</t>
+          <t>-40.95416732211208,172.0995917043306</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -47855,7 +47936,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>-40.95416647170452,172.09959705339259</t>
+          <t>-40.954161831432785,172.0996262406633</t>
         </is>
       </c>
       <c r="H362" t="inlineStr"/>
@@ -47904,7 +47985,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>-40.95416231209871,172.09962321728085</t>
+          <t>-40.954158577691985,172.09964670663558</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -48138,7 +48219,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>-40.954155693691405,172.09966484692762</t>
+          <t>-40.95415865164068,172.09964624149987</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -48187,7 +48268,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>-40.95417292370346,172.09955647028846</t>
+          <t>-40.95416663808862,172.09959600683698</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -48236,7 +48317,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>-40.95416245999593,172.0996222870093</t>
+          <t>-40.95415815248695,172.09964938116593</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -48313,7 +48394,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>-40.95419200230966,172.09943646519088</t>
+          <t>-40.9541874360268,172.09946518734728</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -48390,7 +48471,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>-40.95417018761398,172.09957368031638</t>
+          <t>-40.95416497424713,172.09960647239274</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -48467,7 +48548,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>-40.954154233202836,172.09967403335696</t>
+          <t>-40.954152088686634,172.0996875222905</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -48544,7 +48625,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>-40.95417401444112,172.09954960953374</t>
+          <t>-40.95417394049282,172.09955007466965</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -48617,7 +48698,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>-40.9541836277044,172.09948914185534</t>
+          <t>-40.9541828512497,172.09949402578383</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -48690,7 +48771,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>-40.95423585304819,172.09916063926707</t>
+          <t>-40.954230676772994,172.099193198838</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
@@ -48751,7 +48832,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>-40.95415001811777,172.09970054608758</t>
+          <t>-40.954146764363706,172.0997210120528</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -48828,7 +48909,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>-40.954190467891536,172.09944611676613</t>
+          <t>-40.95418599404124,172.09947425750113</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -48905,7 +48986,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>-40.95413243670997,172.09981113204708</t>
+          <t>-40.95413509888583,172.09979438717357</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -48982,7 +49063,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>-40.95414020138273,172.09976229282907</t>
+          <t>-40.954142493805946,172.09974787362927</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
@@ -49059,7 +49140,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>-40.95413243670997,172.09981113204708</t>
+          <t>-40.954135764429424,172.09979020095503</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
@@ -49136,7 +49217,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>-40.954157597871585,172.0996528696837</t>
+          <t>-40.95415924323017,172.09964252041416</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
@@ -49213,7 +49294,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>-40.954177453035115,172.09952798071225</t>
+          <t>-40.95417240606512,172.09955972623982</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
@@ -49270,7 +49351,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>-40.95418392349662,172.09948728131113</t>
+          <t>-40.95418096557315,172.0995058867526</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -49323,7 +49404,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>-40.954150129041146,172.09969984838418</t>
+          <t>-40.95414844670291,172.09971043021875</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -49881,7 +49962,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>-40.95414364001687,172.09974066402899</t>
+          <t>-40.9541434366569,172.09974194315163</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
@@ -49938,7 +50019,7 @@
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr">
         <is>
-          <t>-40.95419536693454,172.09941530149422</t>
+          <t>-40.95418871162881,172.0994571637493</t>
         </is>
       </c>
       <c r="H401" t="inlineStr"/>
@@ -50069,7 +50150,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>-40.95415162650622,172.09969042938812</t>
+          <t>-40.95415158953178,172.09969066195592</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -50146,7 +50227,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>-40.95414911224343,172.09970624399855</t>
+          <t>-40.95414545176871,172.0997292682087</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -50272,7 +50353,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>-40.95415918776866,172.09964286926595</t>
+          <t>-40.95416096253644,172.09963170600835</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -50349,7 +50430,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>-40.954202484397356,172.0993705321291</t>
+          <t>-40.95419956346668,172.09938890501255</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -50426,7 +50507,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>-40.95416162807408,172.09962751978662</t>
+          <t>-40.95416528852838,172.0996044955656</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -50503,7 +50584,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>-40.95416562129671,172.09960240245445</t>
+          <t>-40.95416824646784,172.09958589013263</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
@@ -50580,7 +50661,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>-40.95413890727205,172.09977043269953</t>
+          <t>-40.95413685518106,172.09978334020772</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -50657,7 +50738,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>-40.95414371396595,172.0997401988935</t>
+          <t>-40.95414290052599,172.099745315384</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -50734,7 +50815,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>-40.954175437945594,172.09954065566706</t>
+          <t>-40.95417050189466,172.09957170348892</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -50811,7 +50892,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>-40.954181464722936,172.09950274708444</t>
+          <t>-40.95417431023431,172.09954774899003</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -50868,7 +50949,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>-40.954146782850955,172.09972089576894</t>
+          <t>-40.95414933409023,172.09970484859178</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -50945,7 +51026,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>-40.954176325324624,172.09953507403569</t>
+          <t>-40.95417824797831,172.09952298050052</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
@@ -51018,7 +51099,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>-40.95417440266969,172.09954716757014</t>
+          <t>-40.95416878259405,172.09958251789772</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -51071,7 +51152,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>-40.95416016758851,172.09963670621755</t>
+          <t>-40.95416349527609,172.0996157751085</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -51157,7 +51238,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>-40.95414068205226,172.09975926944855</t>
+          <t>-40.954140108946255,172.0997628742484</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -51481,7 +51562,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>-40.95418296217182,172.09949332807977</t>
+          <t>-40.95417758244448,172.09952716672433</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -51612,7 +51693,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>-40.95412419134419,172.09986299463313</t>
+          <t>-40.9541241543694,172.09986322720076</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -51681,7 +51762,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>-40.954125966133425,172.09985183138699</t>
+          <t>-40.954124043445034,172.09986392490362</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -51844,7 +51925,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>-40.95410764507971,172.09996706861898</t>
+          <t>-40.95411134257718,172.09994381186672</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
@@ -51921,7 +52002,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>-40.95414589546286,172.09972647739548</t>
+          <t>-40.95414186523847,172.09975182728093</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -51998,7 +52079,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>-40.95412794428265,172.09983938901814</t>
+          <t>-40.954130366127046,172.0998241558367</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -52075,7 +52156,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>-40.95418098406019,172.0995057704686</t>
+          <t>-40.954176306837574,172.09953519031967</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -52152,7 +52233,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>-40.95416038943447,172.09963531081036</t>
+          <t>-40.95415830038436,172.09964845089453</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -52229,7 +52310,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>-40.95413857450063,172.09977252580902</t>
+          <t>-40.95413800139423,172.09977613060866</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -52306,7 +52387,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>-40.954169485104096,172.0995780991071</t>
+          <t>-40.95416615742341,172.0995990302198</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -52383,7 +52464,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>-40.95418710326096,172.09946728045972</t>
+          <t>-40.95418229663909,172.09949751430412</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -52460,7 +52541,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>-40.95414571059029,172.09972764023433</t>
+          <t>-40.954148742498724,172.09970856967644</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
@@ -52594,7 +52675,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>-40.954100287045705,172.10001334954845</t>
+          <t>-40.954103171101465,172.0999952092858</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -52671,7 +52752,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>-40.95412352579795,172.0998671808503</t>
+          <t>-40.954125411511896,172.09985531990145</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -52748,7 +52829,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>-40.95415334581702,172.09967961498472</t>
+          <t>-40.954148742498724,172.09970856967644</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -52825,7 +52906,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>-40.95414095936158,172.09975752519054</t>
+          <t>-40.95413964676393,172.099765781345</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -52902,7 +52983,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>-40.95412912747405,172.0998319468533</t>
+          <t>-40.95412851739104,172.09983578421958</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -52979,7 +53060,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>-40.9541465055422,172.09972264002724</t>
+          <t>-40.95414445345661,172.09973554753833</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -53056,7 +53137,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>-40.95413848206412,172.09977310722832</t>
+          <t>-40.954137446775,172.09977961912435</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -53133,7 +53214,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>-40.954139424916384,172.09976717675139</t>
+          <t>-40.95414258624233,172.0997472922099</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -53210,7 +53291,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>-40.95417682447523,172.09953193436797</t>
+          <t>-40.95417148171069,172.0995655404385</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -53283,7 +53364,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>-40.95415275422633,172.09968333606983</t>
+          <t>-40.954153567663504,172.0996782195778</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -53360,7 +53441,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>-40.9541915955965,172.09943902343977</t>
+          <t>-40.95418433021086,172.09948472306277</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -53413,7 +53494,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>-40.95415297607284,172.09968194066292</t>
+          <t>-40.95415563822983,172.09966519577938</t>
         </is>
       </c>
       <c r="H456" t="inlineStr"/>
@@ -53499,7 +53580,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>-40.95412147369607,172.0998800883527</t>
+          <t>-40.95412500478938,172.09985787814537</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
@@ -53700,7 +53781,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>-40.954136559384054,172.09978520074938</t>
+          <t>-40.9541350803985,172.09979450345745</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -54159,7 +54240,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>-40.95412533756235,172.0998557850367</t>
+          <t>-40.954125540923606,172.09985450591475</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
@@ -54236,7 +54317,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>-40.9541354871196,172.09979194521276</t>
+          <t>-40.954134618215356,172.09979741055363</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
@@ -54297,7 +54378,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>-40.95415181137841,172.0996892665491</t>
+          <t>-40.95414495261269,172.09973240787355</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
@@ -54374,7 +54455,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>-40.95416471542725,172.09960810036802</t>
+          <t>-40.95416044489596,172.09963496195854</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
@@ -54451,7 +54532,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>-40.95415275422633,172.09968333606983</t>
+          <t>-40.95414818788156,172.09971205819326</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
@@ -54528,7 +54609,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>-40.95414571059029,172.09972764023433</t>
+          <t>-40.95414373245321,172.0997400826096</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
@@ -54605,7 +54686,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>-40.95408740119738,172.1000943992929</t>
+          <t>-40.95409167183639,172.10006753775974</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
@@ -54678,7 +54759,7 @@
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>-40.954186899904045,172.099468559584</t>
+          <t>-40.95418172354132,172.09950111910837</t>
         </is>
       </c>
       <c r="H481" t="inlineStr"/>
@@ -54751,7 +54832,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>-40.954116796377335,172.09990950815256</t>
+          <t>-40.95411988377829,172.09989008875945</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -54828,7 +54909,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>-40.95412814764371,172.0998381098961</t>
+          <t>-40.954131272007245,172.09981845792882</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -54905,7 +54986,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>-40.95421298493394,172.09930448276302</t>
+          <t>-40.95420989763224,172.09932390220902</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -54982,7 +55063,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>-40.954159539024865,172.09964065987126</t>
+          <t>-40.95416051884461,172.0996344968228</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -55059,7 +55140,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>-40.95413637451089,172.0997863635879</t>
+          <t>-40.95413620812505,172.09978741014257</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -55136,7 +55217,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>-40.954164992734256,172.09960635610878</t>
+          <t>-40.95416375409608,172.09961414713328</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
@@ -55213,7 +55294,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>-40.95418922926425,172.09945390779643</t>
+          <t>-40.9541852915352,172.0994786762939</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -55290,7 +55371,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>-40.95419557029086,172.09941402236967</t>
+          <t>-40.95419076368305,172.09944425622155</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -55343,7 +55424,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>-40.95418836037614,172.0994593731459</t>
+          <t>-40.95418277730163,172.09949449091988</t>
         </is>
       </c>
       <c r="H490" t="inlineStr"/>
@@ -55495,7 +55576,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>-40.95409435253731,172.10005067662252</t>
+          <t>-40.954097273574114,172.10003230379556</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
@@ -56048,7 +56129,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>-40.95415279120075,172.09968310350203</t>
+          <t>-40.95414975929656,172.09970217406217</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -56125,7 +56206,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>-40.95412494932723,172.09985822699682</t>
+          <t>-40.95412555941099,172.09985438963093</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -56202,7 +56283,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>-40.95415648864057,172.09965984671908</t>
+          <t>-40.95415282817516,172.0996828709342</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -56275,7 +56356,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>-40.95422910540189,172.09920308299252</t>
+          <t>-40.95422278293547,172.09924285217429</t>
         </is>
       </c>
       <c r="H510" t="inlineStr"/>
@@ -56284,7 +56365,11 @@
           <t>-40.952850632494524,172.09908435921497</t>
         </is>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>-40.95215895081277,172.09892710416253</t>
+        </is>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>-40.951469579646016,172.0988439637851</t>
@@ -56308,6 +56393,71 @@
       <c r="O510" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:19:33+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-40.957500061393475,172.10043236171964</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-40.956855142269504,172.10012826651598</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-40.956160522330634,172.10013675415755</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr"/>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>-40.95344627632863,172.0997662334454</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>-40.95278626781582,172.09954241537795</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>-40.95212136202662,172.09930848167124</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>-40.95143856767557,172.09925658245453</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>-40.95077195809311,172.0990543887255</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>-40.95009889915612,172.0989379113166</t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>-40.949411651333534,172.09901012178454</t>
+        </is>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
